--- a/data/534/MOSPI/KAPSARC/India Population Projection_historical.xlsx
+++ b/data/534/MOSPI/KAPSARC/India Population Projection_historical.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="India Population Projection" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,119 +12,6 @@
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
-  <si>
-    <t>Bihar</t>
-  </si>
-  <si>
-    <t>Manipur</t>
-  </si>
-  <si>
-    <t>Tamil Nadu</t>
-  </si>
-  <si>
-    <t>Punjab</t>
-  </si>
-  <si>
-    <t>Kerala</t>
-  </si>
-  <si>
-    <t>Jharkhand</t>
-  </si>
-  <si>
-    <t>Gujarat</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>Andhra Pradesh</t>
-  </si>
-  <si>
-    <t>Daman and Diu</t>
-  </si>
-  <si>
-    <t>Karnataka</t>
-  </si>
-  <si>
-    <t>Madhya Pradesh</t>
-  </si>
-  <si>
-    <t>Andaman and Nicobar Islands</t>
-  </si>
-  <si>
-    <t>Himachal Pradesh</t>
-  </si>
-  <si>
-    <t>Goa</t>
-  </si>
-  <si>
-    <t>Lakshadweep</t>
-  </si>
-  <si>
-    <t>West Bengal</t>
-  </si>
-  <si>
-    <t>Tripura</t>
-  </si>
-  <si>
-    <t>Sikkim</t>
-  </si>
-  <si>
-    <t>Mizoram</t>
-  </si>
-  <si>
-    <t>Maharashtra</t>
-  </si>
-  <si>
-    <t>Chhattisgarh</t>
-  </si>
-  <si>
-    <t>Haryana</t>
-  </si>
-  <si>
-    <t>Jammu and Kashmir</t>
-  </si>
-  <si>
-    <t>Meghalaya</t>
-  </si>
-  <si>
-    <t>Uttarakhand</t>
-  </si>
-  <si>
-    <t>Chandigarh</t>
-  </si>
-  <si>
-    <t>Dadra and Nagar Haveli</t>
-  </si>
-  <si>
-    <t>Delhi</t>
-  </si>
-  <si>
-    <t>Uttar Pradesh</t>
-  </si>
-  <si>
-    <t>Rajasthan</t>
-  </si>
-  <si>
-    <t>Nagaland</t>
-  </si>
-  <si>
-    <t>Arunachal Pradesh</t>
-  </si>
-  <si>
-    <t>Assam</t>
-  </si>
-  <si>
-    <t>Puducherry</t>
-  </si>
-  <si>
-    <t>Odisha</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -479,7 +366,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:38">
+    <row r="1">
       <c r="B1" s="1" t="n">
         <v>1901</v>
       </c>
@@ -592,9 +479,11 @@
         <v>2036</v>
       </c>
     </row>
-    <row r="2" spans="1:38">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Bihar</t>
+        </is>
       </c>
       <c r="B2" t="n">
         <v>27311.865</v>
@@ -708,9 +597,11 @@
         <v>148576</v>
       </c>
     </row>
-    <row r="3" spans="1:38">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Manipur</t>
+        </is>
       </c>
       <c r="B3" t="n">
         <v>284.465</v>
@@ -824,9 +715,11 @@
         <v>3548</v>
       </c>
     </row>
-    <row r="4" spans="1:38">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Tamil Nadu</t>
+        </is>
       </c>
       <c r="B4" t="n">
         <v>19252.63</v>
@@ -940,9 +833,11 @@
         <v>78067</v>
       </c>
     </row>
-    <row r="5" spans="1:38">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Punjab</t>
+        </is>
       </c>
       <c r="B5" t="n">
         <v>7544.79</v>
@@ -1056,9 +951,11 @@
         <v>32658</v>
       </c>
     </row>
-    <row r="6" spans="1:38">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Kerala</t>
+        </is>
       </c>
       <c r="B6" t="n">
         <v>6396.262</v>
@@ -1172,21 +1069,23 @@
         <v>36949</v>
       </c>
     </row>
-    <row r="7" spans="1:38">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
-      <c r="D7" t="s"/>
-      <c r="E7" t="s"/>
-      <c r="F7" t="s"/>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Jharkhand</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="n">
         <v>9697.254000000001</v>
       </c>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s"/>
-      <c r="J7" t="s"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="n">
         <v>21843.911</v>
       </c>
@@ -1272,9 +1171,11 @@
         <v>45155</v>
       </c>
     </row>
-    <row r="8" spans="1:38">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Gujarat</t>
+        </is>
       </c>
       <c r="B8" t="n">
         <v>9094.748</v>
@@ -1388,9 +1289,11 @@
         <v>81316</v>
       </c>
     </row>
-    <row r="9" spans="1:38">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
       </c>
       <c r="B9" t="n">
         <v>238396.327</v>
@@ -1504,9 +1407,11 @@
         <v>1518288</v>
       </c>
     </row>
-    <row r="10" spans="1:38">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Andhra Pradesh</t>
+        </is>
       </c>
       <c r="B10" t="n">
         <v>19065.921</v>
@@ -1620,9 +1525,11 @@
         <v>54252</v>
       </c>
     </row>
-    <row r="11" spans="1:38">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Daman and Diu</t>
+        </is>
       </c>
       <c r="B11" t="n">
         <v>32.005</v>
@@ -1736,9 +1643,11 @@
         <v>1969</v>
       </c>
     </row>
-    <row r="12" spans="1:38">
-      <c r="A12" s="1" t="s">
-        <v>10</v>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Karnataka</t>
+        </is>
       </c>
       <c r="B12" t="n">
         <v>13054.754</v>
@@ -1852,9 +1761,11 @@
         <v>71948</v>
       </c>
     </row>
-    <row r="13" spans="1:38">
-      <c r="A13" s="1" t="s">
-        <v>11</v>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Madhya Pradesh</t>
+        </is>
       </c>
       <c r="B13" t="n">
         <v>16860.768</v>
@@ -1968,9 +1879,11 @@
         <v>97804</v>
       </c>
     </row>
-    <row r="14" spans="1:38">
-      <c r="A14" s="1" t="s">
-        <v>12</v>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Andaman and Nicobar Islands</t>
+        </is>
       </c>
       <c r="B14" t="n">
         <v>24.649</v>
@@ -2084,9 +1997,11 @@
         <v>413</v>
       </c>
     </row>
-    <row r="15" spans="1:38">
-      <c r="A15" s="1" t="s">
-        <v>13</v>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Himachal Pradesh</t>
+        </is>
       </c>
       <c r="B15" t="n">
         <v>1920.294</v>
@@ -2200,9 +2115,11 @@
         <v>7785</v>
       </c>
     </row>
-    <row r="16" spans="1:38">
-      <c r="A16" s="1" t="s">
-        <v>14</v>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Goa</t>
+        </is>
       </c>
       <c r="B16" t="n">
         <v>475.513</v>
@@ -2316,9 +2233,11 @@
         <v>1663</v>
       </c>
     </row>
-    <row r="17" spans="1:38">
-      <c r="A17" s="1" t="s">
-        <v>15</v>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Lakshadweep</t>
+        </is>
       </c>
       <c r="B17" t="n">
         <v>13.882</v>
@@ -2432,9 +2351,11 @@
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:38">
-      <c r="A18" s="1" t="s">
-        <v>16</v>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>West Bengal</t>
+        </is>
       </c>
       <c r="B18" t="n">
         <v>16940.088</v>
@@ -2548,9 +2469,11 @@
         <v>102931</v>
       </c>
     </row>
-    <row r="19" spans="1:38">
-      <c r="A19" s="1" t="s">
-        <v>17</v>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Tripura</t>
+        </is>
       </c>
       <c r="B19" t="n">
         <v>173.325</v>
@@ -2664,9 +2587,11 @@
         <v>4565</v>
       </c>
     </row>
-    <row r="20" spans="1:38">
-      <c r="A20" s="1" t="s">
-        <v>18</v>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Sikkim</t>
+        </is>
       </c>
       <c r="B20" t="n">
         <v>59.014</v>
@@ -2780,9 +2705,11 @@
         <v>759</v>
       </c>
     </row>
-    <row r="21" spans="1:38">
-      <c r="A21" s="1" t="s">
-        <v>19</v>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>Mizoram</t>
+        </is>
       </c>
       <c r="B21" t="n">
         <v>82.434</v>
@@ -2896,9 +2823,11 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="22" spans="1:38">
-      <c r="A22" s="1" t="s">
-        <v>20</v>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Maharashtra</t>
+        </is>
       </c>
       <c r="B22" t="n">
         <v>19391.643</v>
@@ -3012,21 +2941,23 @@
         <v>136764</v>
       </c>
     </row>
-    <row r="23" spans="1:38">
-      <c r="A23" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
-      <c r="D23" t="s"/>
-      <c r="E23" t="s"/>
-      <c r="F23" t="s"/>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>Chhattisgarh</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
       <c r="G23" t="n">
         <v>7456.706</v>
       </c>
-      <c r="H23" t="s"/>
-      <c r="I23" t="s"/>
-      <c r="J23" t="s"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="n">
         <v>17614.928</v>
       </c>
@@ -3112,9 +3043,11 @@
         <v>34081</v>
       </c>
     </row>
-    <row r="24" spans="1:38">
-      <c r="A24" s="1" t="s">
-        <v>22</v>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>Haryana</t>
+        </is>
       </c>
       <c r="B24" t="n">
         <v>4623.064</v>
@@ -3228,9 +3161,11 @@
         <v>34469</v>
       </c>
     </row>
-    <row r="25" spans="1:38">
-      <c r="A25" s="1" t="s">
-        <v>23</v>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Jammu and Kashmir</t>
+        </is>
       </c>
       <c r="B25" t="n">
         <v>2139.362</v>
@@ -3344,9 +3279,11 @@
         <v>14747</v>
       </c>
     </row>
-    <row r="26" spans="1:38">
-      <c r="A26" s="1" t="s">
-        <v>24</v>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>Meghalaya</t>
+        </is>
       </c>
       <c r="B26" t="n">
         <v>340.524</v>
@@ -3460,9 +3397,11 @@
         <v>3686</v>
       </c>
     </row>
-    <row r="27" spans="1:38">
-      <c r="A27" s="1" t="s">
-        <v>25</v>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>Uttarakhand</t>
+        </is>
       </c>
       <c r="B27" t="n">
         <v>48627.67</v>
@@ -3576,9 +3515,11 @@
         <v>12974</v>
       </c>
     </row>
-    <row r="28" spans="1:38">
-      <c r="A28" s="1" t="s">
-        <v>26</v>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Chandigarh</t>
+        </is>
       </c>
       <c r="B28" t="n">
         <v>21.967</v>
@@ -3692,9 +3633,11 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="29" spans="1:38">
-      <c r="A29" s="1" t="s">
-        <v>27</v>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>Dadra and Nagar Haveli</t>
+        </is>
       </c>
       <c r="B29" t="n">
         <v>24.28</v>
@@ -3808,9 +3751,11 @@
         <v>1703</v>
       </c>
     </row>
-    <row r="30" spans="1:38">
-      <c r="A30" s="1" t="s">
-        <v>28</v>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>Delhi</t>
+        </is>
       </c>
       <c r="B30" t="n">
         <v>405.819</v>
@@ -3924,19 +3869,21 @@
         <v>26591</v>
       </c>
     </row>
-    <row r="31" spans="1:38">
-      <c r="A31" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
-      <c r="D31" t="s"/>
-      <c r="E31" t="s"/>
-      <c r="F31" t="s"/>
-      <c r="G31" t="s"/>
-      <c r="H31" t="s"/>
-      <c r="I31" t="s"/>
-      <c r="J31" t="s"/>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>Uttar Pradesh</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="n">
         <v>7050.634</v>
       </c>
@@ -4022,9 +3969,11 @@
         <v>258990</v>
       </c>
     </row>
-    <row r="32" spans="1:38">
-      <c r="A32" s="1" t="s">
-        <v>30</v>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Rajasthan</t>
+        </is>
       </c>
       <c r="B32" t="n">
         <v>10294.09</v>
@@ -4138,9 +4087,11 @@
         <v>90563</v>
       </c>
     </row>
-    <row r="33" spans="1:38">
-      <c r="A33" s="1" t="s">
-        <v>31</v>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>Nagaland</t>
+        </is>
       </c>
       <c r="B33" t="n">
         <v>101.55</v>
@@ -4254,16 +4205,18 @@
         <v>2458</v>
       </c>
     </row>
-    <row r="34" spans="1:38">
-      <c r="A34" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
-      <c r="D34" t="s"/>
-      <c r="E34" t="s"/>
-      <c r="F34" t="s"/>
-      <c r="G34" t="s"/>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>Arunachal Pradesh</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
       <c r="H34" t="n">
         <v>336.558</v>
       </c>
@@ -4358,9 +4311,11 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="35" spans="1:38">
-      <c r="A35" s="1" t="s">
-        <v>33</v>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>Assam</t>
+        </is>
       </c>
       <c r="B35" t="n">
         <v>3289.68</v>
@@ -4474,9 +4429,11 @@
         <v>39399</v>
       </c>
     </row>
-    <row r="36" spans="1:38">
-      <c r="A36" s="1" t="s">
-        <v>34</v>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Puducherry</t>
+        </is>
       </c>
       <c r="B36" t="n">
         <v>246.354</v>
@@ -4590,9 +4547,11 @@
         <v>2184</v>
       </c>
     </row>
-    <row r="37" spans="1:38">
-      <c r="A37" s="1" t="s">
-        <v>35</v>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>Odisha</t>
+        </is>
       </c>
       <c r="B37" t="n">
         <v>10302.917</v>

--- a/data/534/MOSPI/KAPSARC/India Population Projection_historical.xlsx
+++ b/data/534/MOSPI/KAPSARC/India Population Projection_historical.xlsx
@@ -1,37 +1,153 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="India Population Projection" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="India Population Projection" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+  <si>
+    <t>Bihar</t>
+  </si>
+  <si>
+    <t>Manipur</t>
+  </si>
+  <si>
+    <t>Tamil Nadu</t>
+  </si>
+  <si>
+    <t>Punjab</t>
+  </si>
+  <si>
+    <t>Kerala</t>
+  </si>
+  <si>
+    <t>Jharkhand</t>
+  </si>
+  <si>
+    <t>Gujarat</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Andhra Pradesh</t>
+  </si>
+  <si>
+    <t>Daman and Diu</t>
+  </si>
+  <si>
+    <t>Karnataka</t>
+  </si>
+  <si>
+    <t>Madhya Pradesh</t>
+  </si>
+  <si>
+    <t>Andaman and Nicobar Islands</t>
+  </si>
+  <si>
+    <t>Himachal Pradesh</t>
+  </si>
+  <si>
+    <t>Goa</t>
+  </si>
+  <si>
+    <t>Lakshadweep</t>
+  </si>
+  <si>
+    <t>West Bengal</t>
+  </si>
+  <si>
+    <t>Tripura</t>
+  </si>
+  <si>
+    <t>Sikkim</t>
+  </si>
+  <si>
+    <t>Mizoram</t>
+  </si>
+  <si>
+    <t>Maharashtra</t>
+  </si>
+  <si>
+    <t>Chhattisgarh</t>
+  </si>
+  <si>
+    <t>Haryana</t>
+  </si>
+  <si>
+    <t>Jammu and Kashmir</t>
+  </si>
+  <si>
+    <t>Meghalaya</t>
+  </si>
+  <si>
+    <t>Uttarakhand</t>
+  </si>
+  <si>
+    <t>Chandigarh</t>
+  </si>
+  <si>
+    <t>Dadra and Nagar Haveli</t>
+  </si>
+  <si>
+    <t>Delhi</t>
+  </si>
+  <si>
+    <t>Uttar Pradesh</t>
+  </si>
+  <si>
+    <t>Rajasthan</t>
+  </si>
+  <si>
+    <t>Nagaland</t>
+  </si>
+  <si>
+    <t>Arunachal Pradesh</t>
+  </si>
+  <si>
+    <t>Assam</t>
+  </si>
+  <si>
+    <t>Puducherry</t>
+  </si>
+  <si>
+    <t>Odisha</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,10 +162,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -57,14 +181,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -353,4319 +478,4210 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AL37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="n">
+    <row r="1" spans="1:38">
+      <c r="B1" s="1">
         <v>1901</v>
       </c>
-      <c r="C1" s="1" t="n">
+      <c r="C1" s="1">
         <v>1911</v>
       </c>
-      <c r="D1" s="1" t="n">
+      <c r="D1" s="1">
         <v>1921</v>
       </c>
-      <c r="E1" s="1" t="n">
+      <c r="E1" s="1">
         <v>1931</v>
       </c>
-      <c r="F1" s="1" t="n">
+      <c r="F1" s="1">
         <v>1941</v>
       </c>
-      <c r="G1" s="1" t="n">
+      <c r="G1" s="1">
         <v>1951</v>
       </c>
-      <c r="H1" s="1" t="n">
+      <c r="H1" s="1">
         <v>1961</v>
       </c>
-      <c r="I1" s="1" t="n">
+      <c r="I1" s="1">
         <v>1971</v>
       </c>
-      <c r="J1" s="1" t="n">
+      <c r="J1" s="1">
         <v>1981</v>
       </c>
-      <c r="K1" s="1" t="n">
+      <c r="K1" s="1">
         <v>1991</v>
       </c>
-      <c r="L1" s="1" t="n">
+      <c r="L1" s="1">
         <v>2001</v>
       </c>
-      <c r="M1" s="1" t="n">
+      <c r="M1" s="1">
         <v>2011</v>
       </c>
-      <c r="N1" s="1" t="n">
+      <c r="N1" s="1">
         <v>2012</v>
       </c>
-      <c r="O1" s="1" t="n">
+      <c r="O1" s="1">
         <v>2013</v>
       </c>
-      <c r="P1" s="1" t="n">
+      <c r="P1" s="1">
         <v>2014</v>
       </c>
-      <c r="Q1" s="1" t="n">
+      <c r="Q1" s="1">
         <v>2015</v>
       </c>
-      <c r="R1" s="1" t="n">
+      <c r="R1" s="1">
         <v>2016</v>
       </c>
-      <c r="S1" s="1" t="n">
+      <c r="S1" s="1">
         <v>2017</v>
       </c>
-      <c r="T1" s="1" t="n">
+      <c r="T1" s="1">
         <v>2018</v>
       </c>
-      <c r="U1" s="1" t="n">
+      <c r="U1" s="1">
         <v>2019</v>
       </c>
-      <c r="V1" s="1" t="n">
+      <c r="V1" s="1">
         <v>2020</v>
       </c>
-      <c r="W1" s="1" t="n">
+      <c r="W1" s="1">
         <v>2021</v>
       </c>
-      <c r="X1" s="1" t="n">
+      <c r="X1" s="1">
         <v>2022</v>
       </c>
-      <c r="Y1" s="1" t="n">
+      <c r="Y1" s="1">
         <v>2023</v>
       </c>
-      <c r="Z1" s="1" t="n">
+      <c r="Z1" s="1">
         <v>2024</v>
       </c>
-      <c r="AA1" s="1" t="n">
+      <c r="AA1" s="1">
         <v>2025</v>
       </c>
-      <c r="AB1" s="1" t="n">
+      <c r="AB1" s="1">
         <v>2026</v>
       </c>
-      <c r="AC1" s="1" t="n">
+      <c r="AC1" s="1">
         <v>2027</v>
       </c>
-      <c r="AD1" s="1" t="n">
+      <c r="AD1" s="1">
         <v>2028</v>
       </c>
-      <c r="AE1" s="1" t="n">
+      <c r="AE1" s="1">
         <v>2029</v>
       </c>
-      <c r="AF1" s="1" t="n">
+      <c r="AF1" s="1">
         <v>2030</v>
       </c>
-      <c r="AG1" s="1" t="n">
+      <c r="AG1" s="1">
         <v>2031</v>
       </c>
-      <c r="AH1" s="1" t="n">
+      <c r="AH1" s="1">
         <v>2032</v>
       </c>
-      <c r="AI1" s="1" t="n">
+      <c r="AI1" s="1">
         <v>2033</v>
       </c>
-      <c r="AJ1" s="1" t="n">
+      <c r="AJ1" s="1">
         <v>2034</v>
       </c>
-      <c r="AK1" s="1" t="n">
+      <c r="AK1" s="1">
         <v>2035</v>
       </c>
-      <c r="AL1" s="1" t="n">
+      <c r="AL1" s="1">
         <v>2036</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>Bihar</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="2" spans="1:38">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
         <v>27311.865</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>28314.281</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>28126.675</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>31347.108</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>35170.84</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>29085.017</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>46447.457</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2">
         <v>56353.369</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2">
         <v>69914.734</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2">
         <v>64530.554</v>
       </c>
-      <c r="L2" t="n">
+      <c r="L2">
         <v>82998.50900000001</v>
       </c>
-      <c r="M2" t="n">
+      <c r="M2">
         <v>104099</v>
       </c>
-      <c r="N2" t="n">
+      <c r="N2">
         <v>106115</v>
       </c>
-      <c r="O2" t="n">
+      <c r="O2">
         <v>108130</v>
       </c>
-      <c r="P2" t="n">
+      <c r="P2">
         <v>110145</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="Q2">
         <v>112161</v>
       </c>
-      <c r="R2" t="n">
+      <c r="R2">
         <v>114176</v>
       </c>
-      <c r="S2" t="n">
+      <c r="S2">
         <v>115957</v>
       </c>
-      <c r="T2" t="n">
+      <c r="T2">
         <v>117739</v>
       </c>
-      <c r="U2" t="n">
+      <c r="U2">
         <v>119520</v>
       </c>
-      <c r="V2" t="n">
+      <c r="V2">
         <v>121302</v>
       </c>
-      <c r="W2" t="n">
+      <c r="W2">
         <v>123083</v>
       </c>
-      <c r="X2" t="n">
+      <c r="X2">
         <v>124919</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="Y2">
         <v>126756</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="Z2">
         <v>128592</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AA2">
         <v>130429</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AB2">
         <v>132265</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AC2">
         <v>134020</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AD2">
         <v>135775</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AE2">
         <v>137531</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AF2">
         <v>139286</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AG2">
         <v>141041</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AH2">
         <v>142548</v>
       </c>
-      <c r="AI2" t="n">
+      <c r="AI2">
         <v>144055</v>
       </c>
-      <c r="AJ2" t="n">
+      <c r="AJ2">
         <v>145562</v>
       </c>
-      <c r="AK2" t="n">
+      <c r="AK2">
         <v>147069</v>
       </c>
-      <c r="AL2" t="n">
+      <c r="AL2">
         <v>148576</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Manipur</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:38">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
         <v>284.465</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>346.222</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>384.016</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>445.606</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>512.069</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>577.635</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>780.037</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3">
         <v>1072.753</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3">
         <v>1420.953</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3">
         <v>1837.149</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L3">
         <v>2166.788</v>
       </c>
-      <c r="M3" t="n">
+      <c r="M3">
         <v>2856</v>
       </c>
-      <c r="N3" t="n">
+      <c r="N3">
         <v>2887</v>
       </c>
-      <c r="O3" t="n">
+      <c r="O3">
         <v>2918</v>
       </c>
-      <c r="P3" t="n">
+      <c r="P3">
         <v>2949</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="Q3">
         <v>2980</v>
       </c>
-      <c r="R3" t="n">
+      <c r="R3">
         <v>3012</v>
       </c>
-      <c r="S3" t="n">
+      <c r="S3">
         <v>3042</v>
       </c>
-      <c r="T3" t="n">
+      <c r="T3">
         <v>3073</v>
       </c>
-      <c r="U3" t="n">
+      <c r="U3">
         <v>3103</v>
       </c>
-      <c r="V3" t="n">
+      <c r="V3">
         <v>3134</v>
       </c>
-      <c r="W3" t="n">
+      <c r="W3">
         <v>3165</v>
       </c>
-      <c r="X3" t="n">
+      <c r="X3">
         <v>3194</v>
       </c>
-      <c r="Y3" t="n">
+      <c r="Y3">
         <v>3223</v>
       </c>
-      <c r="Z3" t="n">
+      <c r="Z3">
         <v>3253</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AA3">
         <v>3282</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AB3">
         <v>3311</v>
       </c>
-      <c r="AC3" t="n">
+      <c r="AC3">
         <v>3338</v>
       </c>
-      <c r="AD3" t="n">
+      <c r="AD3">
         <v>3364</v>
       </c>
-      <c r="AE3" t="n">
+      <c r="AE3">
         <v>3391</v>
       </c>
-      <c r="AF3" t="n">
+      <c r="AF3">
         <v>3417</v>
       </c>
-      <c r="AG3" t="n">
+      <c r="AG3">
         <v>3444</v>
       </c>
-      <c r="AH3" t="n">
+      <c r="AH3">
         <v>3465</v>
       </c>
-      <c r="AI3" t="n">
+      <c r="AI3">
         <v>3485</v>
       </c>
-      <c r="AJ3" t="n">
+      <c r="AJ3">
         <v>3506</v>
       </c>
-      <c r="AK3" t="n">
+      <c r="AK3">
         <v>3527</v>
       </c>
-      <c r="AL3" t="n">
+      <c r="AL3">
         <v>3548</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Tamil Nadu</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+    <row r="4" spans="1:38">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
         <v>19252.63</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>20902.616</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>21628.518</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>23472.099</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>26267.507</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>30119.047</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>33686.953</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4">
         <v>41199.168</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4">
         <v>48408.077</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4">
         <v>55858.946</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L4">
         <v>62405.679</v>
       </c>
-      <c r="M4" t="n">
+      <c r="M4">
         <v>72147</v>
       </c>
-      <c r="N4" t="n">
+      <c r="N4">
         <v>72645</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O4">
         <v>73142</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P4">
         <v>73640</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q4">
         <v>74137</v>
       </c>
-      <c r="R4" t="n">
+      <c r="R4">
         <v>74635</v>
       </c>
-      <c r="S4" t="n">
+      <c r="S4">
         <v>74989</v>
       </c>
-      <c r="T4" t="n">
+      <c r="T4">
         <v>75342</v>
       </c>
-      <c r="U4" t="n">
+      <c r="U4">
         <v>75695</v>
       </c>
-      <c r="V4" t="n">
+      <c r="V4">
         <v>76049</v>
       </c>
-      <c r="W4" t="n">
+      <c r="W4">
         <v>76402</v>
       </c>
-      <c r="X4" t="n">
+      <c r="X4">
         <v>76631</v>
       </c>
-      <c r="Y4" t="n">
+      <c r="Y4">
         <v>76860</v>
       </c>
-      <c r="Z4" t="n">
+      <c r="Z4">
         <v>77089</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="AA4">
         <v>77317</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AB4">
         <v>77546</v>
       </c>
-      <c r="AC4" t="n">
+      <c r="AC4">
         <v>77653</v>
       </c>
-      <c r="AD4" t="n">
+      <c r="AD4">
         <v>77761</v>
       </c>
-      <c r="AE4" t="n">
+      <c r="AE4">
         <v>77868</v>
       </c>
-      <c r="AF4" t="n">
+      <c r="AF4">
         <v>77975</v>
       </c>
-      <c r="AG4" t="n">
+      <c r="AG4">
         <v>78082</v>
       </c>
-      <c r="AH4" t="n">
+      <c r="AH4">
         <v>78079</v>
       </c>
-      <c r="AI4" t="n">
+      <c r="AI4">
         <v>78076</v>
       </c>
-      <c r="AJ4" t="n">
+      <c r="AJ4">
         <v>78073</v>
       </c>
-      <c r="AK4" t="n">
+      <c r="AK4">
         <v>78070</v>
       </c>
-      <c r="AL4" t="n">
+      <c r="AL4">
         <v>78067</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Punjab</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+    <row r="5" spans="1:38">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
         <v>7544.79</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>6731.51</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>7152.811</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>8012.325</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>9600.236000000001</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>9160.5</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
         <v>11135.069</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5">
         <v>13551.06</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5">
         <v>16788.915</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5">
         <v>20281.969</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L5">
         <v>24358.999</v>
       </c>
-      <c r="M5" t="n">
+      <c r="M5">
         <v>27743</v>
       </c>
-      <c r="N5" t="n">
+      <c r="N5">
         <v>28023</v>
       </c>
-      <c r="O5" t="n">
+      <c r="O5">
         <v>28302</v>
       </c>
-      <c r="P5" t="n">
+      <c r="P5">
         <v>28581</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="Q5">
         <v>28861</v>
       </c>
-      <c r="R5" t="n">
+      <c r="R5">
         <v>29140</v>
       </c>
-      <c r="S5" t="n">
+      <c r="S5">
         <v>29380</v>
       </c>
-      <c r="T5" t="n">
+      <c r="T5">
         <v>29619</v>
       </c>
-      <c r="U5" t="n">
+      <c r="U5">
         <v>29859</v>
       </c>
-      <c r="V5" t="n">
+      <c r="V5">
         <v>30099</v>
       </c>
-      <c r="W5" t="n">
+      <c r="W5">
         <v>30339</v>
       </c>
-      <c r="X5" t="n">
+      <c r="X5">
         <v>30535</v>
       </c>
-      <c r="Y5" t="n">
+      <c r="Y5">
         <v>30730</v>
       </c>
-      <c r="Z5" t="n">
+      <c r="Z5">
         <v>30926</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AA5">
         <v>31122</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="AB5">
         <v>31318</v>
       </c>
-      <c r="AC5" t="n">
+      <c r="AC5">
         <v>31472</v>
       </c>
-      <c r="AD5" t="n">
+      <c r="AD5">
         <v>31626</v>
       </c>
-      <c r="AE5" t="n">
+      <c r="AE5">
         <v>31779</v>
       </c>
-      <c r="AF5" t="n">
+      <c r="AF5">
         <v>31933</v>
       </c>
-      <c r="AG5" t="n">
+      <c r="AG5">
         <v>32087</v>
       </c>
-      <c r="AH5" t="n">
+      <c r="AH5">
         <v>32201</v>
       </c>
-      <c r="AI5" t="n">
+      <c r="AI5">
         <v>32315</v>
       </c>
-      <c r="AJ5" t="n">
+      <c r="AJ5">
         <v>32430</v>
       </c>
-      <c r="AK5" t="n">
+      <c r="AK5">
         <v>32544</v>
       </c>
-      <c r="AL5" t="n">
+      <c r="AL5">
         <v>32658</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>Kerala</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+    <row r="6" spans="1:38">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
         <v>6396.262</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>7147.673</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>7802.127</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>9507.050000000001</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>11031.541</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>13549.118</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
         <v>16903.715</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6">
         <v>21347.375</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6">
         <v>25453.68</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K6">
         <v>29098.518</v>
       </c>
-      <c r="L6" t="n">
+      <c r="L6">
         <v>31841.374</v>
       </c>
-      <c r="M6" t="n">
+      <c r="M6">
         <v>33406</v>
       </c>
-      <c r="N6" t="n">
+      <c r="N6">
         <v>33641</v>
       </c>
-      <c r="O6" t="n">
+      <c r="O6">
         <v>33875</v>
       </c>
-      <c r="P6" t="n">
+      <c r="P6">
         <v>34109</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="Q6">
         <v>34344</v>
       </c>
-      <c r="R6" t="n">
+      <c r="R6">
         <v>34578</v>
       </c>
-      <c r="S6" t="n">
+      <c r="S6">
         <v>34761</v>
       </c>
-      <c r="T6" t="n">
+      <c r="T6">
         <v>34943</v>
       </c>
-      <c r="U6" t="n">
+      <c r="U6">
         <v>35125</v>
       </c>
-      <c r="V6" t="n">
+      <c r="V6">
         <v>35307</v>
       </c>
-      <c r="W6" t="n">
+      <c r="W6">
         <v>35489</v>
       </c>
-      <c r="X6" t="n">
+      <c r="X6">
         <v>35633</v>
       </c>
-      <c r="Y6" t="n">
+      <c r="Y6">
         <v>35776</v>
       </c>
-      <c r="Z6" t="n">
+      <c r="Z6">
         <v>35920</v>
       </c>
-      <c r="AA6" t="n">
+      <c r="AA6">
         <v>36063</v>
       </c>
-      <c r="AB6" t="n">
+      <c r="AB6">
         <v>36207</v>
       </c>
-      <c r="AC6" t="n">
+      <c r="AC6">
         <v>36304</v>
       </c>
-      <c r="AD6" t="n">
+      <c r="AD6">
         <v>36402</v>
       </c>
-      <c r="AE6" t="n">
+      <c r="AE6">
         <v>36499</v>
       </c>
-      <c r="AF6" t="n">
+      <c r="AF6">
         <v>36597</v>
       </c>
-      <c r="AG6" t="n">
+      <c r="AG6">
         <v>36695</v>
       </c>
-      <c r="AH6" t="n">
+      <c r="AH6">
         <v>36746</v>
       </c>
-      <c r="AI6" t="n">
+      <c r="AI6">
         <v>36796</v>
       </c>
-      <c r="AJ6" t="n">
+      <c r="AJ6">
         <v>36847</v>
       </c>
-      <c r="AK6" t="n">
+      <c r="AK6">
         <v>36898</v>
       </c>
-      <c r="AL6" t="n">
+      <c r="AL6">
         <v>36949</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>Jharkhand</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="n">
+    <row r="7" spans="1:38">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7">
         <v>9697.254000000001</v>
       </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="n">
+      <c r="K7">
         <v>21843.911</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L7">
         <v>26945.829</v>
       </c>
-      <c r="M7" t="n">
+      <c r="M7">
         <v>32988</v>
       </c>
-      <c r="N7" t="n">
+      <c r="N7">
         <v>33551</v>
       </c>
-      <c r="O7" t="n">
+      <c r="O7">
         <v>34113</v>
       </c>
-      <c r="P7" t="n">
+      <c r="P7">
         <v>34675</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="Q7">
         <v>35238</v>
       </c>
-      <c r="R7" t="n">
+      <c r="R7">
         <v>35800</v>
       </c>
-      <c r="S7" t="n">
+      <c r="S7">
         <v>36334</v>
       </c>
-      <c r="T7" t="n">
+      <c r="T7">
         <v>36869</v>
       </c>
-      <c r="U7" t="n">
+      <c r="U7">
         <v>37403</v>
       </c>
-      <c r="V7" t="n">
+      <c r="V7">
         <v>37937</v>
       </c>
-      <c r="W7" t="n">
+      <c r="W7">
         <v>38471</v>
       </c>
-      <c r="X7" t="n">
+      <c r="X7">
         <v>38969</v>
       </c>
-      <c r="Y7" t="n">
+      <c r="Y7">
         <v>39466</v>
       </c>
-      <c r="Z7" t="n">
+      <c r="Z7">
         <v>39963</v>
       </c>
-      <c r="AA7" t="n">
+      <c r="AA7">
         <v>40461</v>
       </c>
-      <c r="AB7" t="n">
+      <c r="AB7">
         <v>40958</v>
       </c>
-      <c r="AC7" t="n">
+      <c r="AC7">
         <v>41408</v>
       </c>
-      <c r="AD7" t="n">
+      <c r="AD7">
         <v>41858</v>
       </c>
-      <c r="AE7" t="n">
+      <c r="AE7">
         <v>42309</v>
       </c>
-      <c r="AF7" t="n">
+      <c r="AF7">
         <v>42759</v>
       </c>
-      <c r="AG7" t="n">
+      <c r="AG7">
         <v>43209</v>
       </c>
-      <c r="AH7" t="n">
+      <c r="AH7">
         <v>43599</v>
       </c>
-      <c r="AI7" t="n">
+      <c r="AI7">
         <v>43988</v>
       </c>
-      <c r="AJ7" t="n">
+      <c r="AJ7">
         <v>44377</v>
       </c>
-      <c r="AK7" t="n">
+      <c r="AK7">
         <v>44766</v>
       </c>
-      <c r="AL7" t="n">
+      <c r="AL7">
         <v>45155</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Gujarat</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
+    <row r="8" spans="1:38">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
         <v>9094.748</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>9803.587</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>10174.989</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>11489.828</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>13701.551</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>16262.657</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
         <v>20633.35</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8">
         <v>26697.475</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J8">
         <v>34085.799</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K8">
         <v>41309.582</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L8">
         <v>50671.017</v>
       </c>
-      <c r="M8" t="n">
+      <c r="M8">
         <v>60440</v>
       </c>
-      <c r="N8" t="n">
+      <c r="N8">
         <v>61383</v>
       </c>
-      <c r="O8" t="n">
+      <c r="O8">
         <v>62327</v>
       </c>
-      <c r="P8" t="n">
+      <c r="P8">
         <v>63271</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="Q8">
         <v>64214</v>
       </c>
-      <c r="R8" t="n">
+      <c r="R8">
         <v>65158</v>
       </c>
-      <c r="S8" t="n">
+      <c r="S8">
         <v>66084</v>
       </c>
-      <c r="T8" t="n">
+      <c r="T8">
         <v>67010</v>
       </c>
-      <c r="U8" t="n">
+      <c r="U8">
         <v>67936</v>
       </c>
-      <c r="V8" t="n">
+      <c r="V8">
         <v>68862</v>
       </c>
-      <c r="W8" t="n">
+      <c r="W8">
         <v>69788</v>
       </c>
-      <c r="X8" t="n">
+      <c r="X8">
         <v>70648</v>
       </c>
-      <c r="Y8" t="n">
+      <c r="Y8">
         <v>71507</v>
       </c>
-      <c r="Z8" t="n">
+      <c r="Z8">
         <v>72367</v>
       </c>
-      <c r="AA8" t="n">
+      <c r="AA8">
         <v>73227</v>
       </c>
-      <c r="AB8" t="n">
+      <c r="AB8">
         <v>74086</v>
       </c>
-      <c r="AC8" t="n">
+      <c r="AC8">
         <v>74855</v>
       </c>
-      <c r="AD8" t="n">
+      <c r="AD8">
         <v>75624</v>
       </c>
-      <c r="AE8" t="n">
+      <c r="AE8">
         <v>76393</v>
       </c>
-      <c r="AF8" t="n">
+      <c r="AF8">
         <v>77162</v>
       </c>
-      <c r="AG8" t="n">
+      <c r="AG8">
         <v>77931</v>
       </c>
-      <c r="AH8" t="n">
+      <c r="AH8">
         <v>78608</v>
       </c>
-      <c r="AI8" t="n">
+      <c r="AI8">
         <v>79285</v>
       </c>
-      <c r="AJ8" t="n">
+      <c r="AJ8">
         <v>79962</v>
       </c>
-      <c r="AK8" t="n">
+      <c r="AK8">
         <v>80639</v>
       </c>
-      <c r="AL8" t="n">
+      <c r="AL8">
         <v>81316</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
+    <row r="9" spans="1:38">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
         <v>238396.327</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>252093.39</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>251321.213</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>278977.238</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>318660.58</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>358142.161</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
         <v>439234.771</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9">
         <v>548159.652</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J9">
         <v>683329.0970000001</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K9">
         <v>846421.039</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L9">
         <v>1028610.328</v>
       </c>
-      <c r="M9" t="n">
+      <c r="M9">
         <v>1210855</v>
       </c>
-      <c r="N9" t="n">
+      <c r="N9">
         <v>1226731</v>
       </c>
-      <c r="O9" t="n">
+      <c r="O9">
         <v>1242607</v>
       </c>
-      <c r="P9" t="n">
+      <c r="P9">
         <v>1258483</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="Q9">
         <v>1274359</v>
       </c>
-      <c r="R9" t="n">
+      <c r="R9">
         <v>1290235</v>
       </c>
-      <c r="S9" t="n">
+      <c r="S9">
         <v>1304457</v>
       </c>
-      <c r="T9" t="n">
+      <c r="T9">
         <v>1318678</v>
       </c>
-      <c r="U9" t="n">
+      <c r="U9">
         <v>1332900</v>
       </c>
-      <c r="V9" t="n">
+      <c r="V9">
         <v>1347121</v>
       </c>
-      <c r="W9" t="n">
+      <c r="W9">
         <v>1361343</v>
       </c>
-      <c r="X9" t="n">
+      <c r="X9">
         <v>1373761</v>
       </c>
-      <c r="Y9" t="n">
+      <c r="Y9">
         <v>1386180</v>
       </c>
-      <c r="Z9" t="n">
+      <c r="Z9">
         <v>1398598</v>
       </c>
-      <c r="AA9" t="n">
+      <c r="AA9">
         <v>1411016</v>
       </c>
-      <c r="AB9" t="n">
+      <c r="AB9">
         <v>1423435</v>
       </c>
-      <c r="AC9" t="n">
+      <c r="AC9">
         <v>1433852</v>
       </c>
-      <c r="AD9" t="n">
+      <c r="AD9">
         <v>1444268</v>
       </c>
-      <c r="AE9" t="n">
+      <c r="AE9">
         <v>1454685</v>
       </c>
-      <c r="AF9" t="n">
+      <c r="AF9">
         <v>1465102</v>
       </c>
-      <c r="AG9" t="n">
+      <c r="AG9">
         <v>1475519</v>
       </c>
-      <c r="AH9" t="n">
+      <c r="AH9">
         <v>1484073</v>
       </c>
-      <c r="AI9" t="n">
+      <c r="AI9">
         <v>1492627</v>
       </c>
-      <c r="AJ9" t="n">
+      <c r="AJ9">
         <v>1501181</v>
       </c>
-      <c r="AK9" t="n">
+      <c r="AK9">
         <v>1509734</v>
       </c>
-      <c r="AL9" t="n">
+      <c r="AL9">
         <v>1518288</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Andhra Pradesh</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
+    <row r="10" spans="1:38">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
         <v>19065.921</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>21447.412</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>21420.448</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>24203.573</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>27289.34</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>31115.259</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10">
         <v>35983.447</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10">
         <v>43502.708</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J10">
         <v>53551.026</v>
       </c>
-      <c r="K10" t="n">
+      <c r="K10">
         <v>66508.008</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L10">
         <v>76210.007</v>
       </c>
-      <c r="M10" t="n">
+      <c r="M10">
         <v>49577</v>
       </c>
-      <c r="N10" t="n">
+      <c r="N10">
         <v>49936</v>
       </c>
-      <c r="O10" t="n">
+      <c r="O10">
         <v>50295</v>
       </c>
-      <c r="P10" t="n">
+      <c r="P10">
         <v>50654</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="Q10">
         <v>51012</v>
       </c>
-      <c r="R10" t="n">
+      <c r="R10">
         <v>51371</v>
       </c>
-      <c r="S10" t="n">
+      <c r="S10">
         <v>51655</v>
       </c>
-      <c r="T10" t="n">
+      <c r="T10">
         <v>51938</v>
       </c>
-      <c r="U10" t="n">
+      <c r="U10">
         <v>52221</v>
       </c>
-      <c r="V10" t="n">
+      <c r="V10">
         <v>52504</v>
       </c>
-      <c r="W10" t="n">
+      <c r="W10">
         <v>52787</v>
       </c>
-      <c r="X10" t="n">
+      <c r="X10">
         <v>52972</v>
       </c>
-      <c r="Y10" t="n">
+      <c r="Y10">
         <v>53156</v>
       </c>
-      <c r="Z10" t="n">
+      <c r="Z10">
         <v>53340</v>
       </c>
-      <c r="AA10" t="n">
+      <c r="AA10">
         <v>53524</v>
       </c>
-      <c r="AB10" t="n">
+      <c r="AB10">
         <v>53709</v>
       </c>
-      <c r="AC10" t="n">
+      <c r="AC10">
         <v>53802</v>
       </c>
-      <c r="AD10" t="n">
+      <c r="AD10">
         <v>53895</v>
       </c>
-      <c r="AE10" t="n">
+      <c r="AE10">
         <v>53989</v>
       </c>
-      <c r="AF10" t="n">
+      <c r="AF10">
         <v>54082</v>
       </c>
-      <c r="AG10" t="n">
+      <c r="AG10">
         <v>54175</v>
       </c>
-      <c r="AH10" t="n">
+      <c r="AH10">
         <v>54191</v>
       </c>
-      <c r="AI10" t="n">
+      <c r="AI10">
         <v>54206</v>
       </c>
-      <c r="AJ10" t="n">
+      <c r="AJ10">
         <v>54221</v>
       </c>
-      <c r="AK10" t="n">
+      <c r="AK10">
         <v>54236</v>
       </c>
-      <c r="AL10" t="n">
+      <c r="AL10">
         <v>54252</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>Daman and Diu</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
+    <row r="11" spans="1:38">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
         <v>32.005</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>32.47</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>31.41</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>36.429</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>42.811</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>48.611</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11">
         <v>36.67</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I11">
         <v>62.651</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J11">
         <v>78.98099999999999</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K11">
         <v>101.586</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L11">
         <v>158.204</v>
       </c>
-      <c r="M11" t="n">
+      <c r="M11">
         <v>243</v>
       </c>
-      <c r="N11" t="n">
+      <c r="N11">
         <v>260</v>
       </c>
-      <c r="O11" t="n">
+      <c r="O11">
         <v>278</v>
       </c>
-      <c r="P11" t="n">
+      <c r="P11">
         <v>295</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="Q11">
         <v>312</v>
       </c>
-      <c r="R11" t="n">
+      <c r="R11">
         <v>329</v>
       </c>
-      <c r="S11" t="n">
+      <c r="S11">
         <v>357</v>
       </c>
-      <c r="T11" t="n">
+      <c r="T11">
         <v>385</v>
       </c>
-      <c r="U11" t="n">
+      <c r="U11">
         <v>413</v>
       </c>
-      <c r="V11" t="n">
+      <c r="V11">
         <v>441</v>
       </c>
-      <c r="W11" t="n">
+      <c r="W11">
         <v>469</v>
       </c>
-      <c r="X11" t="n">
+      <c r="X11">
         <v>516</v>
       </c>
-      <c r="Y11" t="n">
+      <c r="Y11">
         <v>564</v>
       </c>
-      <c r="Z11" t="n">
+      <c r="Z11">
         <v>611</v>
       </c>
-      <c r="AA11" t="n">
+      <c r="AA11">
         <v>658</v>
       </c>
-      <c r="AB11" t="n">
+      <c r="AB11">
         <v>705</v>
       </c>
-      <c r="AC11" t="n">
+      <c r="AC11">
         <v>792</v>
       </c>
-      <c r="AD11" t="n">
+      <c r="AD11">
         <v>878</v>
       </c>
-      <c r="AE11" t="n">
+      <c r="AE11">
         <v>964</v>
       </c>
-      <c r="AF11" t="n">
+      <c r="AF11">
         <v>1051</v>
       </c>
-      <c r="AG11" t="n">
+      <c r="AG11">
         <v>1137</v>
       </c>
-      <c r="AH11" t="n">
+      <c r="AH11">
         <v>1303</v>
       </c>
-      <c r="AI11" t="n">
+      <c r="AI11">
         <v>1470</v>
       </c>
-      <c r="AJ11" t="n">
+      <c r="AJ11">
         <v>1636</v>
       </c>
-      <c r="AK11" t="n">
+      <c r="AK11">
         <v>1802</v>
       </c>
-      <c r="AL11" t="n">
+      <c r="AL11">
         <v>1969</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Karnataka</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
+    <row r="12" spans="1:38">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
         <v>13054.754</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>13525.251</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>13377.599</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>14632.992</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>16255.368</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>19401.956</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12">
         <v>23586.772</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I12">
         <v>29299.014</v>
       </c>
-      <c r="J12" t="n">
+      <c r="J12">
         <v>37135.714</v>
       </c>
-      <c r="K12" t="n">
+      <c r="K12">
         <v>44977.201</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L12">
         <v>52850.562</v>
       </c>
-      <c r="M12" t="n">
+      <c r="M12">
         <v>61095</v>
       </c>
-      <c r="N12" t="n">
+      <c r="N12">
         <v>61722</v>
       </c>
-      <c r="O12" t="n">
+      <c r="O12">
         <v>62349</v>
       </c>
-      <c r="P12" t="n">
+      <c r="P12">
         <v>62975</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="Q12">
         <v>63602</v>
       </c>
-      <c r="R12" t="n">
+      <c r="R12">
         <v>64229</v>
       </c>
-      <c r="S12" t="n">
+      <c r="S12">
         <v>64752</v>
       </c>
-      <c r="T12" t="n">
+      <c r="T12">
         <v>65275</v>
       </c>
-      <c r="U12" t="n">
+      <c r="U12">
         <v>65798</v>
       </c>
-      <c r="V12" t="n">
+      <c r="V12">
         <v>66322</v>
       </c>
-      <c r="W12" t="n">
+      <c r="W12">
         <v>66845</v>
       </c>
-      <c r="X12" t="n">
+      <c r="X12">
         <v>67268</v>
       </c>
-      <c r="Y12" t="n">
+      <c r="Y12">
         <v>67692</v>
       </c>
-      <c r="Z12" t="n">
+      <c r="Z12">
         <v>68115</v>
       </c>
-      <c r="AA12" t="n">
+      <c r="AA12">
         <v>68538</v>
       </c>
-      <c r="AB12" t="n">
+      <c r="AB12">
         <v>68962</v>
       </c>
-      <c r="AC12" t="n">
+      <c r="AC12">
         <v>69300</v>
       </c>
-      <c r="AD12" t="n">
+      <c r="AD12">
         <v>69638</v>
       </c>
-      <c r="AE12" t="n">
+      <c r="AE12">
         <v>69976</v>
       </c>
-      <c r="AF12" t="n">
+      <c r="AF12">
         <v>70314</v>
       </c>
-      <c r="AG12" t="n">
+      <c r="AG12">
         <v>70652</v>
       </c>
-      <c r="AH12" t="n">
+      <c r="AH12">
         <v>70911</v>
       </c>
-      <c r="AI12" t="n">
+      <c r="AI12">
         <v>71170</v>
       </c>
-      <c r="AJ12" t="n">
+      <c r="AJ12">
         <v>71429</v>
       </c>
-      <c r="AK12" t="n">
+      <c r="AK12">
         <v>71689</v>
       </c>
-      <c r="AL12" t="n">
+      <c r="AL12">
         <v>71948</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>Madhya Pradesh</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
+    <row r="13" spans="1:38">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
         <v>16860.768</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>19440.965</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>19171.75</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>21355.657</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>23990.608</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>18614.931</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13">
         <v>32372.408</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I13">
         <v>41654.119</v>
       </c>
-      <c r="J13" t="n">
+      <c r="J13">
         <v>52178.844</v>
       </c>
-      <c r="K13" t="n">
+      <c r="K13">
         <v>48566.242</v>
       </c>
-      <c r="L13" t="n">
+      <c r="L13">
         <v>60348.023</v>
       </c>
-      <c r="M13" t="n">
+      <c r="M13">
         <v>72627</v>
       </c>
-      <c r="N13" t="n">
+      <c r="N13">
         <v>73863</v>
       </c>
-      <c r="O13" t="n">
+      <c r="O13">
         <v>75099</v>
       </c>
-      <c r="P13" t="n">
+      <c r="P13">
         <v>76334</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="Q13">
         <v>77570</v>
       </c>
-      <c r="R13" t="n">
+      <c r="R13">
         <v>78806</v>
       </c>
-      <c r="S13" t="n">
+      <c r="S13">
         <v>79948</v>
       </c>
-      <c r="T13" t="n">
+      <c r="T13">
         <v>81090</v>
       </c>
-      <c r="U13" t="n">
+      <c r="U13">
         <v>82232</v>
       </c>
-      <c r="V13" t="n">
+      <c r="V13">
         <v>83374</v>
       </c>
-      <c r="W13" t="n">
+      <c r="W13">
         <v>84516</v>
       </c>
-      <c r="X13" t="n">
+      <c r="X13">
         <v>85548</v>
       </c>
-      <c r="Y13" t="n">
+      <c r="Y13">
         <v>86579</v>
       </c>
-      <c r="Z13" t="n">
+      <c r="Z13">
         <v>87610</v>
       </c>
-      <c r="AA13" t="n">
+      <c r="AA13">
         <v>88641</v>
       </c>
-      <c r="AB13" t="n">
+      <c r="AB13">
         <v>89673</v>
       </c>
-      <c r="AC13" t="n">
+      <c r="AC13">
         <v>90549</v>
       </c>
-      <c r="AD13" t="n">
+      <c r="AD13">
         <v>91426</v>
       </c>
-      <c r="AE13" t="n">
+      <c r="AE13">
         <v>92303</v>
       </c>
-      <c r="AF13" t="n">
+      <c r="AF13">
         <v>93180</v>
       </c>
-      <c r="AG13" t="n">
+      <c r="AG13">
         <v>94057</v>
       </c>
-      <c r="AH13" t="n">
+      <c r="AH13">
         <v>94806</v>
       </c>
-      <c r="AI13" t="n">
+      <c r="AI13">
         <v>95556</v>
       </c>
-      <c r="AJ13" t="n">
+      <c r="AJ13">
         <v>96305</v>
       </c>
-      <c r="AK13" t="n">
+      <c r="AK13">
         <v>97055</v>
       </c>
-      <c r="AL13" t="n">
+      <c r="AL13">
         <v>97804</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Andaman and Nicobar Islands</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
+    <row r="14" spans="1:38">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
         <v>24.649</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>26.459</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>27.086</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>29.463</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>33.768</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>30.971</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H14">
         <v>63.548</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I14">
         <v>115.133</v>
       </c>
-      <c r="J14" t="n">
+      <c r="J14">
         <v>188.741</v>
       </c>
-      <c r="K14" t="n">
+      <c r="K14">
         <v>280.661</v>
       </c>
-      <c r="L14" t="n">
+      <c r="L14">
         <v>356.152</v>
       </c>
-      <c r="M14" t="n">
+      <c r="M14">
         <v>381</v>
       </c>
-      <c r="N14" t="n">
+      <c r="N14">
         <v>383</v>
       </c>
-      <c r="O14" t="n">
+      <c r="O14">
         <v>385</v>
       </c>
-      <c r="P14" t="n">
+      <c r="P14">
         <v>387</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="Q14">
         <v>390</v>
       </c>
-      <c r="R14" t="n">
+      <c r="R14">
         <v>392</v>
       </c>
-      <c r="S14" t="n">
+      <c r="S14">
         <v>394</v>
       </c>
-      <c r="T14" t="n">
+      <c r="T14">
         <v>395</v>
       </c>
-      <c r="U14" t="n">
+      <c r="U14">
         <v>397</v>
       </c>
-      <c r="V14" t="n">
+      <c r="V14">
         <v>399</v>
       </c>
-      <c r="W14" t="n">
+      <c r="W14">
         <v>400</v>
       </c>
-      <c r="X14" t="n">
+      <c r="X14">
         <v>402</v>
       </c>
-      <c r="Y14" t="n">
+      <c r="Y14">
         <v>403</v>
       </c>
-      <c r="Z14" t="n">
+      <c r="Z14">
         <v>404</v>
       </c>
-      <c r="AA14" t="n">
+      <c r="AA14">
         <v>405</v>
       </c>
-      <c r="AB14" t="n">
+      <c r="AB14">
         <v>406</v>
       </c>
-      <c r="AC14" t="n">
+      <c r="AC14">
         <v>407</v>
       </c>
-      <c r="AD14" t="n">
+      <c r="AD14">
         <v>408</v>
       </c>
-      <c r="AE14" t="n">
+      <c r="AE14">
         <v>409</v>
       </c>
-      <c r="AF14" t="n">
+      <c r="AF14">
         <v>410</v>
       </c>
-      <c r="AG14" t="n">
+      <c r="AG14">
         <v>410</v>
       </c>
-      <c r="AH14" t="n">
+      <c r="AH14">
         <v>411</v>
       </c>
-      <c r="AI14" t="n">
+      <c r="AI14">
         <v>412</v>
       </c>
-      <c r="AJ14" t="n">
+      <c r="AJ14">
         <v>412</v>
       </c>
-      <c r="AK14" t="n">
+      <c r="AK14">
         <v>413</v>
       </c>
-      <c r="AL14" t="n">
+      <c r="AL14">
         <v>413</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>Himachal Pradesh</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
+    <row r="15" spans="1:38">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15">
         <v>1920.294</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>1896.944</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>1928.206</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>2029.113</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>2263.245</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>2385.981</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H15">
         <v>2812.463</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I15">
         <v>3460.434</v>
       </c>
-      <c r="J15" t="n">
+      <c r="J15">
         <v>4280.818</v>
       </c>
-      <c r="K15" t="n">
+      <c r="K15">
         <v>5170.877</v>
       </c>
-      <c r="L15" t="n">
+      <c r="L15">
         <v>6077.900000000001</v>
       </c>
-      <c r="M15" t="n">
+      <c r="M15">
         <v>6865</v>
       </c>
-      <c r="N15" t="n">
+      <c r="N15">
         <v>6923</v>
       </c>
-      <c r="O15" t="n">
+      <c r="O15">
         <v>6982</v>
       </c>
-      <c r="P15" t="n">
+      <c r="P15">
         <v>7041</v>
       </c>
-      <c r="Q15" t="n">
+      <c r="Q15">
         <v>7100</v>
       </c>
-      <c r="R15" t="n">
+      <c r="R15">
         <v>7158</v>
       </c>
-      <c r="S15" t="n">
+      <c r="S15">
         <v>7206</v>
       </c>
-      <c r="T15" t="n">
+      <c r="T15">
         <v>7253</v>
       </c>
-      <c r="U15" t="n">
+      <c r="U15">
         <v>7300</v>
       </c>
-      <c r="V15" t="n">
+      <c r="V15">
         <v>7347</v>
       </c>
-      <c r="W15" t="n">
+      <c r="W15">
         <v>7394</v>
       </c>
-      <c r="X15" t="n">
+      <c r="X15">
         <v>7431</v>
       </c>
-      <c r="Y15" t="n">
+      <c r="Y15">
         <v>7468</v>
       </c>
-      <c r="Z15" t="n">
+      <c r="Z15">
         <v>7505</v>
       </c>
-      <c r="AA15" t="n">
+      <c r="AA15">
         <v>7542</v>
       </c>
-      <c r="AB15" t="n">
+      <c r="AB15">
         <v>7579</v>
       </c>
-      <c r="AC15" t="n">
+      <c r="AC15">
         <v>7606</v>
       </c>
-      <c r="AD15" t="n">
+      <c r="AD15">
         <v>7632</v>
       </c>
-      <c r="AE15" t="n">
+      <c r="AE15">
         <v>7659</v>
       </c>
-      <c r="AF15" t="n">
+      <c r="AF15">
         <v>7685</v>
       </c>
-      <c r="AG15" t="n">
+      <c r="AG15">
         <v>7712</v>
       </c>
-      <c r="AH15" t="n">
+      <c r="AH15">
         <v>7727</v>
       </c>
-      <c r="AI15" t="n">
+      <c r="AI15">
         <v>7741</v>
       </c>
-      <c r="AJ15" t="n">
+      <c r="AJ15">
         <v>7756</v>
       </c>
-      <c r="AK15" t="n">
+      <c r="AK15">
         <v>7770</v>
       </c>
-      <c r="AL15" t="n">
+      <c r="AL15">
         <v>7785</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Goa</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
+    <row r="16" spans="1:38">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16">
         <v>475.513</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>486.752</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>469.494</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>505.281</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>540.925</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>547.448</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H16">
         <v>589.997</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I16">
         <v>795.12</v>
       </c>
-      <c r="J16" t="n">
+      <c r="J16">
         <v>1007.749</v>
       </c>
-      <c r="K16" t="n">
+      <c r="K16">
         <v>1169.793</v>
       </c>
-      <c r="L16" t="n">
+      <c r="L16">
         <v>1347.668</v>
       </c>
-      <c r="M16" t="n">
+      <c r="M16">
         <v>1459</v>
       </c>
-      <c r="N16" t="n">
+      <c r="N16">
         <v>1469</v>
       </c>
-      <c r="O16" t="n">
+      <c r="O16">
         <v>1480</v>
       </c>
-      <c r="P16" t="n">
+      <c r="P16">
         <v>1491</v>
       </c>
-      <c r="Q16" t="n">
+      <c r="Q16">
         <v>1501</v>
       </c>
-      <c r="R16" t="n">
+      <c r="R16">
         <v>1512</v>
       </c>
-      <c r="S16" t="n">
+      <c r="S16">
         <v>1521</v>
       </c>
-      <c r="T16" t="n">
+      <c r="T16">
         <v>1531</v>
       </c>
-      <c r="U16" t="n">
+      <c r="U16">
         <v>1540</v>
       </c>
-      <c r="V16" t="n">
+      <c r="V16">
         <v>1549</v>
       </c>
-      <c r="W16" t="n">
+      <c r="W16">
         <v>1559</v>
       </c>
-      <c r="X16" t="n">
+      <c r="X16">
         <v>1567</v>
       </c>
-      <c r="Y16" t="n">
+      <c r="Y16">
         <v>1575</v>
       </c>
-      <c r="Z16" t="n">
+      <c r="Z16">
         <v>1583</v>
       </c>
-      <c r="AA16" t="n">
+      <c r="AA16">
         <v>1591</v>
       </c>
-      <c r="AB16" t="n">
+      <c r="AB16">
         <v>1599</v>
       </c>
-      <c r="AC16" t="n">
+      <c r="AC16">
         <v>1606</v>
       </c>
-      <c r="AD16" t="n">
+      <c r="AD16">
         <v>1613</v>
       </c>
-      <c r="AE16" t="n">
+      <c r="AE16">
         <v>1620</v>
       </c>
-      <c r="AF16" t="n">
+      <c r="AF16">
         <v>1626</v>
       </c>
-      <c r="AG16" t="n">
+      <c r="AG16">
         <v>1633</v>
       </c>
-      <c r="AH16" t="n">
+      <c r="AH16">
         <v>1639</v>
       </c>
-      <c r="AI16" t="n">
+      <c r="AI16">
         <v>1645</v>
       </c>
-      <c r="AJ16" t="n">
+      <c r="AJ16">
         <v>1651</v>
       </c>
-      <c r="AK16" t="n">
+      <c r="AK16">
         <v>1657</v>
       </c>
-      <c r="AL16" t="n">
+      <c r="AL16">
         <v>1663</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>Lakshadweep</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
+    <row r="17" spans="1:38">
+      <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17">
         <v>13.882</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>14.555</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>13.637</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>16.04</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>18.355</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17">
         <v>21.035</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H17">
         <v>24.108</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I17">
         <v>31.81</v>
       </c>
-      <c r="J17" t="n">
+      <c r="J17">
         <v>40.249</v>
       </c>
-      <c r="K17" t="n">
+      <c r="K17">
         <v>51.707</v>
       </c>
-      <c r="L17" t="n">
+      <c r="L17">
         <v>60.65</v>
       </c>
-      <c r="M17" t="n">
+      <c r="M17">
         <v>64</v>
       </c>
-      <c r="N17" t="n">
+      <c r="N17">
         <v>65</v>
       </c>
-      <c r="O17" t="n">
+      <c r="O17">
         <v>65</v>
       </c>
-      <c r="P17" t="n">
+      <c r="P17">
         <v>66</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="Q17">
         <v>66</v>
       </c>
-      <c r="R17" t="n">
+      <c r="R17">
         <v>67</v>
       </c>
-      <c r="S17" t="n">
+      <c r="S17">
         <v>67</v>
       </c>
-      <c r="T17" t="n">
+      <c r="T17">
         <v>67</v>
       </c>
-      <c r="U17" t="n">
+      <c r="U17">
         <v>68</v>
       </c>
-      <c r="V17" t="n">
+      <c r="V17">
         <v>68</v>
       </c>
-      <c r="W17" t="n">
+      <c r="W17">
         <v>68</v>
       </c>
-      <c r="X17" t="n">
+      <c r="X17">
         <v>68</v>
       </c>
-      <c r="Y17" t="n">
+      <c r="Y17">
         <v>69</v>
       </c>
-      <c r="Z17" t="n">
+      <c r="Z17">
         <v>69</v>
       </c>
-      <c r="AA17" t="n">
+      <c r="AA17">
         <v>69</v>
       </c>
-      <c r="AB17" t="n">
+      <c r="AB17">
         <v>70</v>
       </c>
-      <c r="AC17" t="n">
+      <c r="AC17">
         <v>70</v>
       </c>
-      <c r="AD17" t="n">
+      <c r="AD17">
         <v>70</v>
       </c>
-      <c r="AE17" t="n">
+      <c r="AE17">
         <v>70</v>
       </c>
-      <c r="AF17" t="n">
+      <c r="AF17">
         <v>70</v>
       </c>
-      <c r="AG17" t="n">
+      <c r="AG17">
         <v>71</v>
       </c>
-      <c r="AH17" t="n">
+      <c r="AH17">
         <v>71</v>
       </c>
-      <c r="AI17" t="n">
+      <c r="AI17">
         <v>71</v>
       </c>
-      <c r="AJ17" t="n">
+      <c r="AJ17">
         <v>71</v>
       </c>
-      <c r="AK17" t="n">
+      <c r="AK17">
         <v>71</v>
       </c>
-      <c r="AL17" t="n">
+      <c r="AL17">
         <v>71</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>West Bengal</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
+    <row r="18" spans="1:38">
+      <c r="A18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18">
         <v>16940.088</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>17998.769</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>17474.348</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>18897.036</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>23229.552</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18">
         <v>26299.98</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H18">
         <v>34926.279</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I18">
         <v>44312.011</v>
       </c>
-      <c r="J18" t="n">
+      <c r="J18">
         <v>54580.647</v>
       </c>
-      <c r="K18" t="n">
+      <c r="K18">
         <v>68077.965</v>
       </c>
-      <c r="L18" t="n">
+      <c r="L18">
         <v>80176.197</v>
       </c>
-      <c r="M18" t="n">
+      <c r="M18">
         <v>91276</v>
       </c>
-      <c r="N18" t="n">
+      <c r="N18">
         <v>92037</v>
       </c>
-      <c r="O18" t="n">
+      <c r="O18">
         <v>92797</v>
       </c>
-      <c r="P18" t="n">
+      <c r="P18">
         <v>93558</v>
       </c>
-      <c r="Q18" t="n">
+      <c r="Q18">
         <v>94318</v>
       </c>
-      <c r="R18" t="n">
+      <c r="R18">
         <v>95079</v>
       </c>
-      <c r="S18" t="n">
+      <c r="S18">
         <v>95688</v>
       </c>
-      <c r="T18" t="n">
+      <c r="T18">
         <v>96297</v>
       </c>
-      <c r="U18" t="n">
+      <c r="U18">
         <v>96906</v>
       </c>
-      <c r="V18" t="n">
+      <c r="V18">
         <v>97516</v>
       </c>
-      <c r="W18" t="n">
+      <c r="W18">
         <v>98125</v>
       </c>
-      <c r="X18" t="n">
+      <c r="X18">
         <v>98604</v>
       </c>
-      <c r="Y18" t="n">
+      <c r="Y18">
         <v>99084</v>
       </c>
-      <c r="Z18" t="n">
+      <c r="Z18">
         <v>99563</v>
       </c>
-      <c r="AA18" t="n">
+      <c r="AA18">
         <v>100042</v>
       </c>
-      <c r="AB18" t="n">
+      <c r="AB18">
         <v>100522</v>
       </c>
-      <c r="AC18" t="n">
+      <c r="AC18">
         <v>100851</v>
       </c>
-      <c r="AD18" t="n">
+      <c r="AD18">
         <v>101180</v>
       </c>
-      <c r="AE18" t="n">
+      <c r="AE18">
         <v>101509</v>
       </c>
-      <c r="AF18" t="n">
+      <c r="AF18">
         <v>101838</v>
       </c>
-      <c r="AG18" t="n">
+      <c r="AG18">
         <v>102167</v>
       </c>
-      <c r="AH18" t="n">
+      <c r="AH18">
         <v>102320</v>
       </c>
-      <c r="AI18" t="n">
+      <c r="AI18">
         <v>102473</v>
       </c>
-      <c r="AJ18" t="n">
+      <c r="AJ18">
         <v>102625</v>
       </c>
-      <c r="AK18" t="n">
+      <c r="AK18">
         <v>102778</v>
       </c>
-      <c r="AL18" t="n">
+      <c r="AL18">
         <v>102931</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>Tripura</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
+    <row r="19" spans="1:38">
+      <c r="A19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19">
         <v>173.325</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>229.613</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>304.437</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>382.45</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>513.01</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19">
         <v>639.029</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H19">
         <v>1142.005</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I19">
         <v>1556.342</v>
       </c>
-      <c r="J19" t="n">
+      <c r="J19">
         <v>2053.058</v>
       </c>
-      <c r="K19" t="n">
+      <c r="K19">
         <v>2757.205</v>
       </c>
-      <c r="L19" t="n">
+      <c r="L19">
         <v>3199.203</v>
       </c>
-      <c r="M19" t="n">
+      <c r="M19">
         <v>3674</v>
       </c>
-      <c r="N19" t="n">
+      <c r="N19">
         <v>3714</v>
       </c>
-      <c r="O19" t="n">
+      <c r="O19">
         <v>3754</v>
       </c>
-      <c r="P19" t="n">
+      <c r="P19">
         <v>3794</v>
       </c>
-      <c r="Q19" t="n">
+      <c r="Q19">
         <v>3834</v>
       </c>
-      <c r="R19" t="n">
+      <c r="R19">
         <v>3874</v>
       </c>
-      <c r="S19" t="n">
+      <c r="S19">
         <v>3914</v>
       </c>
-      <c r="T19" t="n">
+      <c r="T19">
         <v>3953</v>
       </c>
-      <c r="U19" t="n">
+      <c r="U19">
         <v>3992</v>
       </c>
-      <c r="V19" t="n">
+      <c r="V19">
         <v>4032</v>
       </c>
-      <c r="W19" t="n">
+      <c r="W19">
         <v>4071</v>
       </c>
-      <c r="X19" t="n">
+      <c r="X19">
         <v>4109</v>
       </c>
-      <c r="Y19" t="n">
+      <c r="Y19">
         <v>4147</v>
       </c>
-      <c r="Z19" t="n">
+      <c r="Z19">
         <v>4184</v>
       </c>
-      <c r="AA19" t="n">
+      <c r="AA19">
         <v>4222</v>
       </c>
-      <c r="AB19" t="n">
+      <c r="AB19">
         <v>4260</v>
       </c>
-      <c r="AC19" t="n">
+      <c r="AC19">
         <v>4294</v>
       </c>
-      <c r="AD19" t="n">
+      <c r="AD19">
         <v>4328</v>
       </c>
-      <c r="AE19" t="n">
+      <c r="AE19">
         <v>4362</v>
       </c>
-      <c r="AF19" t="n">
+      <c r="AF19">
         <v>4396</v>
       </c>
-      <c r="AG19" t="n">
+      <c r="AG19">
         <v>4430</v>
       </c>
-      <c r="AH19" t="n">
+      <c r="AH19">
         <v>4457</v>
       </c>
-      <c r="AI19" t="n">
+      <c r="AI19">
         <v>4484</v>
       </c>
-      <c r="AJ19" t="n">
+      <c r="AJ19">
         <v>4511</v>
       </c>
-      <c r="AK19" t="n">
+      <c r="AK19">
         <v>4538</v>
       </c>
-      <c r="AL19" t="n">
+      <c r="AL19">
         <v>4565</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Sikkim</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
+    <row r="20" spans="1:38">
+      <c r="A20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20">
         <v>59.014</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>87.92</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>81.721</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>109.808</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>121.52</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20">
         <v>137.725</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H20">
         <v>162.189</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I20">
         <v>209.843</v>
       </c>
-      <c r="J20" t="n">
+      <c r="J20">
         <v>316.385</v>
       </c>
-      <c r="K20" t="n">
+      <c r="K20">
         <v>406.457</v>
       </c>
-      <c r="L20" t="n">
+      <c r="L20">
         <v>540.851</v>
       </c>
-      <c r="M20" t="n">
+      <c r="M20">
         <v>611</v>
       </c>
-      <c r="N20" t="n">
+      <c r="N20">
         <v>617</v>
       </c>
-      <c r="O20" t="n">
+      <c r="O20">
         <v>624</v>
       </c>
-      <c r="P20" t="n">
+      <c r="P20">
         <v>631</v>
       </c>
-      <c r="Q20" t="n">
+      <c r="Q20">
         <v>637</v>
       </c>
-      <c r="R20" t="n">
+      <c r="R20">
         <v>644</v>
       </c>
-      <c r="S20" t="n">
+      <c r="S20">
         <v>650</v>
       </c>
-      <c r="T20" t="n">
+      <c r="T20">
         <v>657</v>
       </c>
-      <c r="U20" t="n">
+      <c r="U20">
         <v>664</v>
       </c>
-      <c r="V20" t="n">
+      <c r="V20">
         <v>670</v>
       </c>
-      <c r="W20" t="n">
+      <c r="W20">
         <v>677</v>
       </c>
-      <c r="X20" t="n">
+      <c r="X20">
         <v>683</v>
       </c>
-      <c r="Y20" t="n">
+      <c r="Y20">
         <v>689</v>
       </c>
-      <c r="Z20" t="n">
+      <c r="Z20">
         <v>695</v>
       </c>
-      <c r="AA20" t="n">
+      <c r="AA20">
         <v>702</v>
       </c>
-      <c r="AB20" t="n">
+      <c r="AB20">
         <v>708</v>
       </c>
-      <c r="AC20" t="n">
+      <c r="AC20">
         <v>714</v>
       </c>
-      <c r="AD20" t="n">
+      <c r="AD20">
         <v>719</v>
       </c>
-      <c r="AE20" t="n">
+      <c r="AE20">
         <v>725</v>
       </c>
-      <c r="AF20" t="n">
+      <c r="AF20">
         <v>731</v>
       </c>
-      <c r="AG20" t="n">
+      <c r="AG20">
         <v>736</v>
       </c>
-      <c r="AH20" t="n">
+      <c r="AH20">
         <v>741</v>
       </c>
-      <c r="AI20" t="n">
+      <c r="AI20">
         <v>745</v>
       </c>
-      <c r="AJ20" t="n">
+      <c r="AJ20">
         <v>750</v>
       </c>
-      <c r="AK20" t="n">
+      <c r="AK20">
         <v>754</v>
       </c>
-      <c r="AL20" t="n">
+      <c r="AL20">
         <v>759</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>Mizoram</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
+    <row r="21" spans="1:38">
+      <c r="A21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21">
         <v>82.434</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>91.20400000000001</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>98.40600000000001</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>124.404</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21">
         <v>152.786</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21">
         <v>196.202</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H21">
         <v>266.063</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I21">
         <v>332.39</v>
       </c>
-      <c r="J21" t="n">
+      <c r="J21">
         <v>493.757</v>
       </c>
-      <c r="K21" t="n">
+      <c r="K21">
         <v>689.756</v>
       </c>
-      <c r="L21" t="n">
+      <c r="L21">
         <v>888.573</v>
       </c>
-      <c r="M21" t="n">
+      <c r="M21">
         <v>1097</v>
       </c>
-      <c r="N21" t="n">
+      <c r="N21">
         <v>1109</v>
       </c>
-      <c r="O21" t="n">
+      <c r="O21">
         <v>1121</v>
       </c>
-      <c r="P21" t="n">
+      <c r="P21">
         <v>1133</v>
       </c>
-      <c r="Q21" t="n">
+      <c r="Q21">
         <v>1145</v>
       </c>
-      <c r="R21" t="n">
+      <c r="R21">
         <v>1157</v>
       </c>
-      <c r="S21" t="n">
+      <c r="S21">
         <v>1169</v>
       </c>
-      <c r="T21" t="n">
+      <c r="T21">
         <v>1181</v>
       </c>
-      <c r="U21" t="n">
+      <c r="U21">
         <v>1192</v>
       </c>
-      <c r="V21" t="n">
+      <c r="V21">
         <v>1204</v>
       </c>
-      <c r="W21" t="n">
+      <c r="W21">
         <v>1216</v>
       </c>
-      <c r="X21" t="n">
+      <c r="X21">
         <v>1227</v>
       </c>
-      <c r="Y21" t="n">
+      <c r="Y21">
         <v>1238</v>
       </c>
-      <c r="Z21" t="n">
+      <c r="Z21">
         <v>1250</v>
       </c>
-      <c r="AA21" t="n">
+      <c r="AA21">
         <v>1261</v>
       </c>
-      <c r="AB21" t="n">
+      <c r="AB21">
         <v>1272</v>
       </c>
-      <c r="AC21" t="n">
+      <c r="AC21">
         <v>1282</v>
       </c>
-      <c r="AD21" t="n">
+      <c r="AD21">
         <v>1293</v>
       </c>
-      <c r="AE21" t="n">
+      <c r="AE21">
         <v>1303</v>
       </c>
-      <c r="AF21" t="n">
+      <c r="AF21">
         <v>1313</v>
       </c>
-      <c r="AG21" t="n">
+      <c r="AG21">
         <v>1323</v>
       </c>
-      <c r="AH21" t="n">
+      <c r="AH21">
         <v>1331</v>
       </c>
-      <c r="AI21" t="n">
+      <c r="AI21">
         <v>1339</v>
       </c>
-      <c r="AJ21" t="n">
+      <c r="AJ21">
         <v>1347</v>
       </c>
-      <c r="AK21" t="n">
+      <c r="AK21">
         <v>1355</v>
       </c>
-      <c r="AL21" t="n">
+      <c r="AL21">
         <v>1363</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Maharashtra</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
+    <row r="22" spans="1:38">
+      <c r="A22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22">
         <v>19391.643</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>21474.523</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>20849.666</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
         <v>23959.3</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22">
         <v>26832.758</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22">
         <v>32002.564</v>
       </c>
-      <c r="H22" t="n">
+      <c r="H22">
         <v>39553.718</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I22">
         <v>50412.235</v>
       </c>
-      <c r="J22" t="n">
+      <c r="J22">
         <v>62782.818</v>
       </c>
-      <c r="K22" t="n">
+      <c r="K22">
         <v>78937.18700000001</v>
       </c>
-      <c r="L22" t="n">
+      <c r="L22">
         <v>96878.62700000001</v>
       </c>
-      <c r="M22" t="n">
+      <c r="M22">
         <v>112374</v>
       </c>
-      <c r="N22" t="n">
+      <c r="N22">
         <v>113645</v>
       </c>
-      <c r="O22" t="n">
+      <c r="O22">
         <v>114915</v>
       </c>
-      <c r="P22" t="n">
+      <c r="P22">
         <v>116186</v>
       </c>
-      <c r="Q22" t="n">
+      <c r="Q22">
         <v>117456</v>
       </c>
-      <c r="R22" t="n">
+      <c r="R22">
         <v>118727</v>
       </c>
-      <c r="S22" t="n">
+      <c r="S22">
         <v>119869</v>
       </c>
-      <c r="T22" t="n">
+      <c r="T22">
         <v>121011</v>
       </c>
-      <c r="U22" t="n">
+      <c r="U22">
         <v>122153</v>
       </c>
-      <c r="V22" t="n">
+      <c r="V22">
         <v>123295</v>
       </c>
-      <c r="W22" t="n">
+      <c r="W22">
         <v>124437</v>
       </c>
-      <c r="X22" t="n">
+      <c r="X22">
         <v>125411</v>
       </c>
-      <c r="Y22" t="n">
+      <c r="Y22">
         <v>126385</v>
       </c>
-      <c r="Z22" t="n">
+      <c r="Z22">
         <v>127360</v>
       </c>
-      <c r="AA22" t="n">
+      <c r="AA22">
         <v>128334</v>
       </c>
-      <c r="AB22" t="n">
+      <c r="AB22">
         <v>129308</v>
       </c>
-      <c r="AC22" t="n">
+      <c r="AC22">
         <v>130137</v>
       </c>
-      <c r="AD22" t="n">
+      <c r="AD22">
         <v>130965</v>
       </c>
-      <c r="AE22" t="n">
+      <c r="AE22">
         <v>131794</v>
       </c>
-      <c r="AF22" t="n">
+      <c r="AF22">
         <v>132622</v>
       </c>
-      <c r="AG22" t="n">
+      <c r="AG22">
         <v>133451</v>
       </c>
-      <c r="AH22" t="n">
+      <c r="AH22">
         <v>134114</v>
       </c>
-      <c r="AI22" t="n">
+      <c r="AI22">
         <v>134776</v>
       </c>
-      <c r="AJ22" t="n">
+      <c r="AJ22">
         <v>135439</v>
       </c>
-      <c r="AK22" t="n">
+      <c r="AK22">
         <v>136101</v>
       </c>
-      <c r="AL22" t="n">
+      <c r="AL22">
         <v>136764</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>Chhattisgarh</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="n">
+    <row r="23" spans="1:38">
+      <c r="A23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23">
         <v>7456.706</v>
       </c>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
+      <c r="K23">
         <v>17614.928</v>
       </c>
-      <c r="L23" t="n">
+      <c r="L23">
         <v>20833.803</v>
       </c>
-      <c r="M23" t="n">
+      <c r="M23">
         <v>25545</v>
       </c>
-      <c r="N23" t="n">
+      <c r="N23">
         <v>25950</v>
       </c>
-      <c r="O23" t="n">
+      <c r="O23">
         <v>26356</v>
       </c>
-      <c r="P23" t="n">
+      <c r="P23">
         <v>26761</v>
       </c>
-      <c r="Q23" t="n">
+      <c r="Q23">
         <v>27166</v>
       </c>
-      <c r="R23" t="n">
+      <c r="R23">
         <v>27571</v>
       </c>
-      <c r="S23" t="n">
+      <c r="S23">
         <v>27956</v>
       </c>
-      <c r="T23" t="n">
+      <c r="T23">
         <v>28340</v>
       </c>
-      <c r="U23" t="n">
+      <c r="U23">
         <v>28724</v>
       </c>
-      <c r="V23" t="n">
+      <c r="V23">
         <v>29109</v>
       </c>
-      <c r="W23" t="n">
+      <c r="W23">
         <v>29493</v>
       </c>
-      <c r="X23" t="n">
+      <c r="X23">
         <v>29836</v>
       </c>
-      <c r="Y23" t="n">
+      <c r="Y23">
         <v>30180</v>
       </c>
-      <c r="Z23" t="n">
+      <c r="Z23">
         <v>30524</v>
       </c>
-      <c r="AA23" t="n">
+      <c r="AA23">
         <v>30867</v>
       </c>
-      <c r="AB23" t="n">
+      <c r="AB23">
         <v>31211</v>
       </c>
-      <c r="AC23" t="n">
+      <c r="AC23">
         <v>31512</v>
       </c>
-      <c r="AD23" t="n">
+      <c r="AD23">
         <v>31814</v>
       </c>
-      <c r="AE23" t="n">
+      <c r="AE23">
         <v>32116</v>
       </c>
-      <c r="AF23" t="n">
+      <c r="AF23">
         <v>32417</v>
       </c>
-      <c r="AG23" t="n">
+      <c r="AG23">
         <v>32719</v>
       </c>
-      <c r="AH23" t="n">
+      <c r="AH23">
         <v>32991</v>
       </c>
-      <c r="AI23" t="n">
+      <c r="AI23">
         <v>33264</v>
       </c>
-      <c r="AJ23" t="n">
+      <c r="AJ23">
         <v>33536</v>
       </c>
-      <c r="AK23" t="n">
+      <c r="AK23">
         <v>33809</v>
       </c>
-      <c r="AL23" t="n">
+      <c r="AL23">
         <v>34081</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Haryana</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
+    <row r="24" spans="1:38">
+      <c r="A24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24">
         <v>4623.064</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>4174.677</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>4255.892</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
         <v>4559.917</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24">
         <v>5272.829</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24">
         <v>5673.597</v>
       </c>
-      <c r="H24" t="n">
+      <c r="H24">
         <v>7590.524</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I24">
         <v>10036.431</v>
       </c>
-      <c r="J24" t="n">
+      <c r="J24">
         <v>12922.119</v>
       </c>
-      <c r="K24" t="n">
+      <c r="K24">
         <v>16463.648</v>
       </c>
-      <c r="L24" t="n">
+      <c r="L24">
         <v>21144.564</v>
       </c>
-      <c r="M24" t="n">
+      <c r="M24">
         <v>25351</v>
       </c>
-      <c r="N24" t="n">
+      <c r="N24">
         <v>25772</v>
       </c>
-      <c r="O24" t="n">
+      <c r="O24">
         <v>26193</v>
       </c>
-      <c r="P24" t="n">
+      <c r="P24">
         <v>26614</v>
       </c>
-      <c r="Q24" t="n">
+      <c r="Q24">
         <v>27034</v>
       </c>
-      <c r="R24" t="n">
+      <c r="R24">
         <v>27455</v>
       </c>
-      <c r="S24" t="n">
+      <c r="S24">
         <v>27861</v>
       </c>
-      <c r="T24" t="n">
+      <c r="T24">
         <v>28266</v>
       </c>
-      <c r="U24" t="n">
+      <c r="U24">
         <v>28672</v>
       </c>
-      <c r="V24" t="n">
+      <c r="V24">
         <v>29077</v>
       </c>
-      <c r="W24" t="n">
+      <c r="W24">
         <v>29483</v>
       </c>
-      <c r="X24" t="n">
+      <c r="X24">
         <v>29846</v>
       </c>
-      <c r="Y24" t="n">
+      <c r="Y24">
         <v>30209</v>
       </c>
-      <c r="Z24" t="n">
+      <c r="Z24">
         <v>30573</v>
       </c>
-      <c r="AA24" t="n">
+      <c r="AA24">
         <v>30936</v>
       </c>
-      <c r="AB24" t="n">
+      <c r="AB24">
         <v>31299</v>
       </c>
-      <c r="AC24" t="n">
+      <c r="AC24">
         <v>31629</v>
       </c>
-      <c r="AD24" t="n">
+      <c r="AD24">
         <v>31958</v>
       </c>
-      <c r="AE24" t="n">
+      <c r="AE24">
         <v>32287</v>
       </c>
-      <c r="AF24" t="n">
+      <c r="AF24">
         <v>32616</v>
       </c>
-      <c r="AG24" t="n">
+      <c r="AG24">
         <v>32946</v>
       </c>
-      <c r="AH24" t="n">
+      <c r="AH24">
         <v>33250</v>
       </c>
-      <c r="AI24" t="n">
+      <c r="AI24">
         <v>33555</v>
       </c>
-      <c r="AJ24" t="n">
+      <c r="AJ24">
         <v>33860</v>
       </c>
-      <c r="AK24" t="n">
+      <c r="AK24">
         <v>34164</v>
       </c>
-      <c r="AL24" t="n">
+      <c r="AL24">
         <v>34469</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>Jammu and Kashmir</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
+    <row r="25" spans="1:38">
+      <c r="A25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25">
         <v>2139.362</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>2292.535</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>2424.359</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
         <v>2670.208</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25">
         <v>2946.728</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25">
         <v>3253.852</v>
       </c>
-      <c r="H25" t="n">
+      <c r="H25">
         <v>3560.976</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I25">
         <v>4616.632000000001</v>
       </c>
-      <c r="J25" t="n">
+      <c r="J25">
         <v>5987.389</v>
       </c>
-      <c r="K25" t="n">
+      <c r="K25">
         <v>7837.051</v>
       </c>
-      <c r="L25" t="n">
+      <c r="L25">
         <v>10143.7</v>
       </c>
-      <c r="M25" t="n">
+      <c r="M25">
         <v>12267</v>
       </c>
-      <c r="N25" t="n">
+      <c r="N25">
         <v>12393</v>
       </c>
-      <c r="O25" t="n">
+      <c r="O25">
         <v>12519</v>
       </c>
-      <c r="P25" t="n">
+      <c r="P25">
         <v>12645</v>
       </c>
-      <c r="Q25" t="n">
+      <c r="Q25">
         <v>12771</v>
       </c>
-      <c r="R25" t="n">
+      <c r="R25">
         <v>12897</v>
       </c>
-      <c r="S25" t="n">
+      <c r="S25">
         <v>12999</v>
       </c>
-      <c r="T25" t="n">
+      <c r="T25">
         <v>13101</v>
       </c>
-      <c r="U25" t="n">
+      <c r="U25">
         <v>13203</v>
       </c>
-      <c r="V25" t="n">
+      <c r="V25">
         <v>13305</v>
       </c>
-      <c r="W25" t="n">
+      <c r="W25">
         <v>13408</v>
       </c>
-      <c r="X25" t="n">
+      <c r="X25">
         <v>13505</v>
       </c>
-      <c r="Y25" t="n">
+      <c r="Y25">
         <v>13603</v>
       </c>
-      <c r="Z25" t="n">
+      <c r="Z25">
         <v>13701</v>
       </c>
-      <c r="AA25" t="n">
+      <c r="AA25">
         <v>13798</v>
       </c>
-      <c r="AB25" t="n">
+      <c r="AB25">
         <v>13896</v>
       </c>
-      <c r="AC25" t="n">
+      <c r="AC25">
         <v>13989</v>
       </c>
-      <c r="AD25" t="n">
+      <c r="AD25">
         <v>14082</v>
       </c>
-      <c r="AE25" t="n">
+      <c r="AE25">
         <v>14175</v>
       </c>
-      <c r="AF25" t="n">
+      <c r="AF25">
         <v>14268</v>
       </c>
-      <c r="AG25" t="n">
+      <c r="AG25">
         <v>14361</v>
       </c>
-      <c r="AH25" t="n">
+      <c r="AH25">
         <v>14438</v>
       </c>
-      <c r="AI25" t="n">
+      <c r="AI25">
         <v>14515</v>
       </c>
-      <c r="AJ25" t="n">
+      <c r="AJ25">
         <v>14593</v>
       </c>
-      <c r="AK25" t="n">
+      <c r="AK25">
         <v>14670</v>
       </c>
-      <c r="AL25" t="n">
+      <c r="AL25">
         <v>14747</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>Meghalaya</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
+    <row r="26" spans="1:38">
+      <c r="A26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26">
         <v>340.524</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>394.005</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>422.403</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
         <v>480.837</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26">
         <v>555.8200000000001</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G26">
         <v>605.674</v>
       </c>
-      <c r="H26" t="n">
+      <c r="H26">
         <v>769.38</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I26">
         <v>1011.699</v>
       </c>
-      <c r="J26" t="n">
+      <c r="J26">
         <v>1335.819</v>
       </c>
-      <c r="K26" t="n">
+      <c r="K26">
         <v>1774.778</v>
       </c>
-      <c r="L26" t="n">
+      <c r="L26">
         <v>2318.822</v>
       </c>
-      <c r="M26" t="n">
+      <c r="M26">
         <v>2967</v>
       </c>
-      <c r="N26" t="n">
+      <c r="N26">
         <v>2999</v>
       </c>
-      <c r="O26" t="n">
+      <c r="O26">
         <v>3032</v>
       </c>
-      <c r="P26" t="n">
+      <c r="P26">
         <v>3064</v>
       </c>
-      <c r="Q26" t="n">
+      <c r="Q26">
         <v>3096</v>
       </c>
-      <c r="R26" t="n">
+      <c r="R26">
         <v>3129</v>
       </c>
-      <c r="S26" t="n">
+      <c r="S26">
         <v>3161</v>
       </c>
-      <c r="T26" t="n">
+      <c r="T26">
         <v>3192</v>
       </c>
-      <c r="U26" t="n">
+      <c r="U26">
         <v>3224</v>
       </c>
-      <c r="V26" t="n">
+      <c r="V26">
         <v>3256</v>
       </c>
-      <c r="W26" t="n">
+      <c r="W26">
         <v>3288</v>
       </c>
-      <c r="X26" t="n">
+      <c r="X26">
         <v>3318</v>
       </c>
-      <c r="Y26" t="n">
+      <c r="Y26">
         <v>3349</v>
       </c>
-      <c r="Z26" t="n">
+      <c r="Z26">
         <v>3379</v>
       </c>
-      <c r="AA26" t="n">
+      <c r="AA26">
         <v>3410</v>
       </c>
-      <c r="AB26" t="n">
+      <c r="AB26">
         <v>3440</v>
       </c>
-      <c r="AC26" t="n">
+      <c r="AC26">
         <v>3468</v>
       </c>
-      <c r="AD26" t="n">
+      <c r="AD26">
         <v>3495</v>
       </c>
-      <c r="AE26" t="n">
+      <c r="AE26">
         <v>3523</v>
       </c>
-      <c r="AF26" t="n">
+      <c r="AF26">
         <v>3550</v>
       </c>
-      <c r="AG26" t="n">
+      <c r="AG26">
         <v>3578</v>
       </c>
-      <c r="AH26" t="n">
+      <c r="AH26">
         <v>3599</v>
       </c>
-      <c r="AI26" t="n">
+      <c r="AI26">
         <v>3621</v>
       </c>
-      <c r="AJ26" t="n">
+      <c r="AJ26">
         <v>3643</v>
       </c>
-      <c r="AK26" t="n">
+      <c r="AK26">
         <v>3664</v>
       </c>
-      <c r="AL26" t="n">
+      <c r="AL26">
         <v>3686</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1" t="inlineStr">
-        <is>
-          <t>Uttarakhand</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
+    <row r="27" spans="1:38">
+      <c r="A27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27">
         <v>48627.67</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>48154.921</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>46672.411</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
         <v>49779.552</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27">
         <v>56535.17</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G27">
         <v>60273.743</v>
       </c>
-      <c r="H27" t="n">
+      <c r="H27">
         <v>73754.573</v>
       </c>
-      <c r="I27" t="n">
+      <c r="I27">
         <v>88341.52100000001</v>
       </c>
-      <c r="J27" t="n">
+      <c r="J27">
         <v>110862.512</v>
       </c>
-      <c r="K27" t="n">
+      <c r="K27">
         <v>132061.653</v>
       </c>
-      <c r="L27" t="n">
+      <c r="L27">
         <v>166197.921</v>
       </c>
-      <c r="M27" t="n">
+      <c r="M27">
         <v>10086</v>
       </c>
-      <c r="N27" t="n">
+      <c r="N27">
         <v>10220</v>
       </c>
-      <c r="O27" t="n">
+      <c r="O27">
         <v>10354</v>
       </c>
-      <c r="P27" t="n">
+      <c r="P27">
         <v>10487</v>
       </c>
-      <c r="Q27" t="n">
+      <c r="Q27">
         <v>10621</v>
       </c>
-      <c r="R27" t="n">
+      <c r="R27">
         <v>10755</v>
       </c>
-      <c r="S27" t="n">
+      <c r="S27">
         <v>10884</v>
       </c>
-      <c r="T27" t="n">
+      <c r="T27">
         <v>11013</v>
       </c>
-      <c r="U27" t="n">
+      <c r="U27">
         <v>11141</v>
       </c>
-      <c r="V27" t="n">
+      <c r="V27">
         <v>11270</v>
       </c>
-      <c r="W27" t="n">
+      <c r="W27">
         <v>11399</v>
       </c>
-      <c r="X27" t="n">
+      <c r="X27">
         <v>11518</v>
       </c>
-      <c r="Y27" t="n">
+      <c r="Y27">
         <v>11637</v>
       </c>
-      <c r="Z27" t="n">
+      <c r="Z27">
         <v>11755</v>
       </c>
-      <c r="AA27" t="n">
+      <c r="AA27">
         <v>11874</v>
       </c>
-      <c r="AB27" t="n">
+      <c r="AB27">
         <v>11993</v>
       </c>
-      <c r="AC27" t="n">
+      <c r="AC27">
         <v>12099</v>
       </c>
-      <c r="AD27" t="n">
+      <c r="AD27">
         <v>12205</v>
       </c>
-      <c r="AE27" t="n">
+      <c r="AE27">
         <v>12312</v>
       </c>
-      <c r="AF27" t="n">
+      <c r="AF27">
         <v>12418</v>
       </c>
-      <c r="AG27" t="n">
+      <c r="AG27">
         <v>12524</v>
       </c>
-      <c r="AH27" t="n">
+      <c r="AH27">
         <v>12614</v>
       </c>
-      <c r="AI27" t="n">
+      <c r="AI27">
         <v>12704</v>
       </c>
-      <c r="AJ27" t="n">
+      <c r="AJ27">
         <v>12794</v>
       </c>
-      <c r="AK27" t="n">
+      <c r="AK27">
         <v>12884</v>
       </c>
-      <c r="AL27" t="n">
+      <c r="AL27">
         <v>12974</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="1" t="inlineStr">
-        <is>
-          <t>Chandigarh</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
+    <row r="28" spans="1:38">
+      <c r="A28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28">
         <v>21.967</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>18.437</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>18.133</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
         <v>19.783</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28">
         <v>22.574</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G28">
         <v>24.261</v>
       </c>
-      <c r="H28" t="n">
+      <c r="H28">
         <v>119.881</v>
       </c>
-      <c r="I28" t="n">
+      <c r="I28">
         <v>257.251</v>
       </c>
-      <c r="J28" t="n">
+      <c r="J28">
         <v>451.61</v>
       </c>
-      <c r="K28" t="n">
+      <c r="K28">
         <v>642.015</v>
       </c>
-      <c r="L28" t="n">
+      <c r="L28">
         <v>900.635</v>
       </c>
-      <c r="M28" t="n">
+      <c r="M28">
         <v>1055</v>
       </c>
-      <c r="N28" t="n">
+      <c r="N28">
         <v>1072</v>
       </c>
-      <c r="O28" t="n">
+      <c r="O28">
         <v>1088</v>
       </c>
-      <c r="P28" t="n">
+      <c r="P28">
         <v>1104</v>
       </c>
-      <c r="Q28" t="n">
+      <c r="Q28">
         <v>1120</v>
       </c>
-      <c r="R28" t="n">
+      <c r="R28">
         <v>1136</v>
       </c>
-      <c r="S28" t="n">
+      <c r="S28">
         <v>1151</v>
       </c>
-      <c r="T28" t="n">
+      <c r="T28">
         <v>1165</v>
       </c>
-      <c r="U28" t="n">
+      <c r="U28">
         <v>1179</v>
       </c>
-      <c r="V28" t="n">
+      <c r="V28">
         <v>1193</v>
       </c>
-      <c r="W28" t="n">
+      <c r="W28">
         <v>1208</v>
       </c>
-      <c r="X28" t="n">
+      <c r="X28">
         <v>1219</v>
       </c>
-      <c r="Y28" t="n">
+      <c r="Y28">
         <v>1231</v>
       </c>
-      <c r="Z28" t="n">
+      <c r="Z28">
         <v>1243</v>
       </c>
-      <c r="AA28" t="n">
+      <c r="AA28">
         <v>1255</v>
       </c>
-      <c r="AB28" t="n">
+      <c r="AB28">
         <v>1267</v>
       </c>
-      <c r="AC28" t="n">
+      <c r="AC28">
         <v>1277</v>
       </c>
-      <c r="AD28" t="n">
+      <c r="AD28">
         <v>1287</v>
       </c>
-      <c r="AE28" t="n">
+      <c r="AE28">
         <v>1298</v>
       </c>
-      <c r="AF28" t="n">
+      <c r="AF28">
         <v>1308</v>
       </c>
-      <c r="AG28" t="n">
+      <c r="AG28">
         <v>1318</v>
       </c>
-      <c r="AH28" t="n">
+      <c r="AH28">
         <v>1326</v>
       </c>
-      <c r="AI28" t="n">
+      <c r="AI28">
         <v>1335</v>
       </c>
-      <c r="AJ28" t="n">
+      <c r="AJ28">
         <v>1343</v>
       </c>
-      <c r="AK28" t="n">
+      <c r="AK28">
         <v>1351</v>
       </c>
-      <c r="AL28" t="n">
+      <c r="AL28">
         <v>1360</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="1" t="inlineStr">
-        <is>
-          <t>Dadra and Nagar Haveli</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
+    <row r="29" spans="1:38">
+      <c r="A29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29">
         <v>24.28</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>29.02</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>31.048</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
         <v>38.26</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F29">
         <v>40.441</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G29">
         <v>41.532</v>
       </c>
-      <c r="H29" t="n">
+      <c r="H29">
         <v>57.963</v>
       </c>
-      <c r="I29" t="n">
+      <c r="I29">
         <v>74.17</v>
       </c>
-      <c r="J29" t="n">
+      <c r="J29">
         <v>103.676</v>
       </c>
-      <c r="K29" t="n">
+      <c r="K29">
         <v>138.477</v>
       </c>
-      <c r="L29" t="n">
+      <c r="L29">
         <v>220.49</v>
       </c>
-      <c r="M29" t="n">
+      <c r="M29">
         <v>344</v>
       </c>
-      <c r="N29" t="n">
+      <c r="N29">
         <v>365</v>
       </c>
-      <c r="O29" t="n">
+      <c r="O29">
         <v>387</v>
       </c>
-      <c r="P29" t="n">
+      <c r="P29">
         <v>409</v>
       </c>
-      <c r="Q29" t="n">
+      <c r="Q29">
         <v>431</v>
       </c>
-      <c r="R29" t="n">
+      <c r="R29">
         <v>452</v>
       </c>
-      <c r="S29" t="n">
+      <c r="S29">
         <v>483</v>
       </c>
-      <c r="T29" t="n">
+      <c r="T29">
         <v>515</v>
       </c>
-      <c r="U29" t="n">
+      <c r="U29">
         <v>546</v>
       </c>
-      <c r="V29" t="n">
+      <c r="V29">
         <v>577</v>
       </c>
-      <c r="W29" t="n">
+      <c r="W29">
         <v>608</v>
       </c>
-      <c r="X29" t="n">
+      <c r="X29">
         <v>654</v>
       </c>
-      <c r="Y29" t="n">
+      <c r="Y29">
         <v>699</v>
       </c>
-      <c r="Z29" t="n">
+      <c r="Z29">
         <v>745</v>
       </c>
-      <c r="AA29" t="n">
+      <c r="AA29">
         <v>790</v>
       </c>
-      <c r="AB29" t="n">
+      <c r="AB29">
         <v>836</v>
       </c>
-      <c r="AC29" t="n">
+      <c r="AC29">
         <v>904</v>
       </c>
-      <c r="AD29" t="n">
+      <c r="AD29">
         <v>973</v>
       </c>
-      <c r="AE29" t="n">
+      <c r="AE29">
         <v>1041</v>
       </c>
-      <c r="AF29" t="n">
+      <c r="AF29">
         <v>1109</v>
       </c>
-      <c r="AG29" t="n">
+      <c r="AG29">
         <v>1178</v>
       </c>
-      <c r="AH29" t="n">
+      <c r="AH29">
         <v>1283</v>
       </c>
-      <c r="AI29" t="n">
+      <c r="AI29">
         <v>1388</v>
       </c>
-      <c r="AJ29" t="n">
+      <c r="AJ29">
         <v>1493</v>
       </c>
-      <c r="AK29" t="n">
+      <c r="AK29">
         <v>1598</v>
       </c>
-      <c r="AL29" t="n">
+      <c r="AL29">
         <v>1703</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="1" t="inlineStr">
-        <is>
-          <t>Delhi</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
+    <row r="30" spans="1:38">
+      <c r="A30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30">
         <v>405.819</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>413.851</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>488.452</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
         <v>636.246</v>
       </c>
-      <c r="F30" t="n">
+      <c r="F30">
         <v>917.939</v>
       </c>
-      <c r="G30" t="n">
+      <c r="G30">
         <v>1744.072</v>
       </c>
-      <c r="H30" t="n">
+      <c r="H30">
         <v>2658.612</v>
       </c>
-      <c r="I30" t="n">
+      <c r="I30">
         <v>4065.698</v>
       </c>
-      <c r="J30" t="n">
+      <c r="J30">
         <v>6220.406</v>
       </c>
-      <c r="K30" t="n">
+      <c r="K30">
         <v>9420.644</v>
       </c>
-      <c r="L30" t="n">
+      <c r="L30">
         <v>13850.507</v>
       </c>
-      <c r="M30" t="n">
+      <c r="M30">
         <v>16788</v>
       </c>
-      <c r="N30" t="n">
+      <c r="N30">
         <v>17166</v>
       </c>
-      <c r="O30" t="n">
+      <c r="O30">
         <v>17544</v>
       </c>
-      <c r="P30" t="n">
+      <c r="P30">
         <v>17921</v>
       </c>
-      <c r="Q30" t="n">
+      <c r="Q30">
         <v>18299</v>
       </c>
-      <c r="R30" t="n">
+      <c r="R30">
         <v>18677</v>
       </c>
-      <c r="S30" t="n">
+      <c r="S30">
         <v>19056</v>
       </c>
-      <c r="T30" t="n">
+      <c r="T30">
         <v>19435</v>
       </c>
-      <c r="U30" t="n">
+      <c r="U30">
         <v>19814</v>
       </c>
-      <c r="V30" t="n">
+      <c r="V30">
         <v>20193</v>
       </c>
-      <c r="W30" t="n">
+      <c r="W30">
         <v>20571</v>
       </c>
-      <c r="X30" t="n">
+      <c r="X30">
         <v>20965</v>
       </c>
-      <c r="Y30" t="n">
+      <c r="Y30">
         <v>21359</v>
       </c>
-      <c r="Z30" t="n">
+      <c r="Z30">
         <v>21752</v>
       </c>
-      <c r="AA30" t="n">
+      <c r="AA30">
         <v>22146</v>
       </c>
-      <c r="AB30" t="n">
+      <c r="AB30">
         <v>22540</v>
       </c>
-      <c r="AC30" t="n">
+      <c r="AC30">
         <v>22942</v>
       </c>
-      <c r="AD30" t="n">
+      <c r="AD30">
         <v>23345</v>
       </c>
-      <c r="AE30" t="n">
+      <c r="AE30">
         <v>23747</v>
       </c>
-      <c r="AF30" t="n">
+      <c r="AF30">
         <v>24150</v>
       </c>
-      <c r="AG30" t="n">
+      <c r="AG30">
         <v>24552</v>
       </c>
-      <c r="AH30" t="n">
+      <c r="AH30">
         <v>24960</v>
       </c>
-      <c r="AI30" t="n">
+      <c r="AI30">
         <v>25368</v>
       </c>
-      <c r="AJ30" t="n">
+      <c r="AJ30">
         <v>25775</v>
       </c>
-      <c r="AK30" t="n">
+      <c r="AK30">
         <v>26183</v>
       </c>
-      <c r="AL30" t="n">
+      <c r="AL30">
         <v>26591</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="1" t="inlineStr">
-        <is>
-          <t>Uttar Pradesh</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
+    <row r="31" spans="1:38">
+      <c r="A31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K31">
         <v>7050.634</v>
       </c>
-      <c r="L31" t="n">
+      <c r="L31">
         <v>8489.349</v>
       </c>
-      <c r="M31" t="n">
+      <c r="M31">
         <v>199812</v>
       </c>
-      <c r="N31" t="n">
+      <c r="N31">
         <v>203067</v>
       </c>
-      <c r="O31" t="n">
+      <c r="O31">
         <v>206322</v>
       </c>
-      <c r="P31" t="n">
+      <c r="P31">
         <v>209577</v>
       </c>
-      <c r="Q31" t="n">
+      <c r="Q31">
         <v>212832</v>
       </c>
-      <c r="R31" t="n">
+      <c r="R31">
         <v>216087</v>
       </c>
-      <c r="S31" t="n">
+      <c r="S31">
         <v>219051</v>
       </c>
-      <c r="T31" t="n">
+      <c r="T31">
         <v>222015</v>
       </c>
-      <c r="U31" t="n">
+      <c r="U31">
         <v>224979</v>
       </c>
-      <c r="V31" t="n">
+      <c r="V31">
         <v>227943</v>
       </c>
-      <c r="W31" t="n">
+      <c r="W31">
         <v>230907</v>
       </c>
-      <c r="X31" t="n">
+      <c r="X31">
         <v>233297</v>
       </c>
-      <c r="Y31" t="n">
+      <c r="Y31">
         <v>235687</v>
       </c>
-      <c r="Z31" t="n">
+      <c r="Z31">
         <v>238078</v>
       </c>
-      <c r="AA31" t="n">
+      <c r="AA31">
         <v>240468</v>
       </c>
-      <c r="AB31" t="n">
+      <c r="AB31">
         <v>242859</v>
       </c>
-      <c r="AC31" t="n">
+      <c r="AC31">
         <v>244680</v>
       </c>
-      <c r="AD31" t="n">
+      <c r="AD31">
         <v>246500</v>
       </c>
-      <c r="AE31" t="n">
+      <c r="AE31">
         <v>248321</v>
       </c>
-      <c r="AF31" t="n">
+      <c r="AF31">
         <v>250142</v>
       </c>
-      <c r="AG31" t="n">
+      <c r="AG31">
         <v>251963</v>
       </c>
-      <c r="AH31" t="n">
+      <c r="AH31">
         <v>253369</v>
       </c>
-      <c r="AI31" t="n">
+      <c r="AI31">
         <v>254774</v>
       </c>
-      <c r="AJ31" t="n">
+      <c r="AJ31">
         <v>256179</v>
       </c>
-      <c r="AK31" t="n">
+      <c r="AK31">
         <v>257585</v>
       </c>
-      <c r="AL31" t="n">
+      <c r="AL31">
         <v>258990</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="1" t="inlineStr">
-        <is>
-          <t>Rajasthan</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
+    <row r="32" spans="1:38">
+      <c r="A32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32">
         <v>10294.09</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>10983.509</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>10292.648</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
         <v>11747.974</v>
       </c>
-      <c r="F32" t="n">
+      <c r="F32">
         <v>13863.859</v>
       </c>
-      <c r="G32" t="n">
+      <c r="G32">
         <v>15970.774</v>
       </c>
-      <c r="H32" t="n">
+      <c r="H32">
         <v>20155.602</v>
       </c>
-      <c r="I32" t="n">
+      <c r="I32">
         <v>25765.806</v>
       </c>
-      <c r="J32" t="n">
+      <c r="J32">
         <v>34261.862</v>
       </c>
-      <c r="K32" t="n">
+      <c r="K32">
         <v>44005.99</v>
       </c>
-      <c r="L32" t="n">
+      <c r="L32">
         <v>56507.188</v>
       </c>
-      <c r="M32" t="n">
+      <c r="M32">
         <v>68548</v>
       </c>
-      <c r="N32" t="n">
+      <c r="N32">
         <v>69687</v>
       </c>
-      <c r="O32" t="n">
+      <c r="O32">
         <v>70825</v>
       </c>
-      <c r="P32" t="n">
+      <c r="P32">
         <v>71963</v>
       </c>
-      <c r="Q32" t="n">
+      <c r="Q32">
         <v>73102</v>
       </c>
-      <c r="R32" t="n">
+      <c r="R32">
         <v>74240</v>
       </c>
-      <c r="S32" t="n">
+      <c r="S32">
         <v>75248</v>
       </c>
-      <c r="T32" t="n">
+      <c r="T32">
         <v>76256</v>
       </c>
-      <c r="U32" t="n">
+      <c r="U32">
         <v>77264</v>
       </c>
-      <c r="V32" t="n">
+      <c r="V32">
         <v>78273</v>
       </c>
-      <c r="W32" t="n">
+      <c r="W32">
         <v>79281</v>
       </c>
-      <c r="X32" t="n">
+      <c r="X32">
         <v>80153</v>
       </c>
-      <c r="Y32" t="n">
+      <c r="Y32">
         <v>81025</v>
       </c>
-      <c r="Z32" t="n">
+      <c r="Z32">
         <v>81897</v>
       </c>
-      <c r="AA32" t="n">
+      <c r="AA32">
         <v>82770</v>
       </c>
-      <c r="AB32" t="n">
+      <c r="AB32">
         <v>83642</v>
       </c>
-      <c r="AC32" t="n">
+      <c r="AC32">
         <v>84353</v>
       </c>
-      <c r="AD32" t="n">
+      <c r="AD32">
         <v>85064</v>
       </c>
-      <c r="AE32" t="n">
+      <c r="AE32">
         <v>85775</v>
       </c>
-      <c r="AF32" t="n">
+      <c r="AF32">
         <v>86487</v>
       </c>
-      <c r="AG32" t="n">
+      <c r="AG32">
         <v>87198</v>
       </c>
-      <c r="AH32" t="n">
+      <c r="AH32">
         <v>87871</v>
       </c>
-      <c r="AI32" t="n">
+      <c r="AI32">
         <v>88544</v>
       </c>
-      <c r="AJ32" t="n">
+      <c r="AJ32">
         <v>89217</v>
       </c>
-      <c r="AK32" t="n">
+      <c r="AK32">
         <v>89890</v>
       </c>
-      <c r="AL32" t="n">
+      <c r="AL32">
         <v>90563</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="1" t="inlineStr">
-        <is>
-          <t>Nagaland</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
+    <row r="33" spans="1:38">
+      <c r="A33" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33">
         <v>101.55</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>149.038</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>158.801</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
         <v>178.844</v>
       </c>
-      <c r="F33" t="n">
+      <c r="F33">
         <v>189.641</v>
       </c>
-      <c r="G33" t="n">
+      <c r="G33">
         <v>212.975</v>
       </c>
-      <c r="H33" t="n">
+      <c r="H33">
         <v>369.2</v>
       </c>
-      <c r="I33" t="n">
+      <c r="I33">
         <v>516.449</v>
       </c>
-      <c r="J33" t="n">
+      <c r="J33">
         <v>774.9300000000001</v>
       </c>
-      <c r="K33" t="n">
+      <c r="K33">
         <v>1209.546</v>
       </c>
-      <c r="L33" t="n">
+      <c r="L33">
         <v>1990.036</v>
       </c>
-      <c r="M33" t="n">
+      <c r="M33">
         <v>1979</v>
       </c>
-      <c r="N33" t="n">
+      <c r="N33">
         <v>2000</v>
       </c>
-      <c r="O33" t="n">
+      <c r="O33">
         <v>2022</v>
       </c>
-      <c r="P33" t="n">
+      <c r="P33">
         <v>2043</v>
       </c>
-      <c r="Q33" t="n">
+      <c r="Q33">
         <v>2065</v>
       </c>
-      <c r="R33" t="n">
+      <c r="R33">
         <v>2086</v>
       </c>
-      <c r="S33" t="n">
+      <c r="S33">
         <v>2108</v>
       </c>
-      <c r="T33" t="n">
+      <c r="T33">
         <v>2129</v>
       </c>
-      <c r="U33" t="n">
+      <c r="U33">
         <v>2150</v>
       </c>
-      <c r="V33" t="n">
+      <c r="V33">
         <v>2171</v>
       </c>
-      <c r="W33" t="n">
+      <c r="W33">
         <v>2192</v>
       </c>
-      <c r="X33" t="n">
+      <c r="X33">
         <v>2213</v>
       </c>
-      <c r="Y33" t="n">
+      <c r="Y33">
         <v>2233</v>
       </c>
-      <c r="Z33" t="n">
+      <c r="Z33">
         <v>2253</v>
       </c>
-      <c r="AA33" t="n">
+      <c r="AA33">
         <v>2274</v>
       </c>
-      <c r="AB33" t="n">
+      <c r="AB33">
         <v>2294</v>
       </c>
-      <c r="AC33" t="n">
+      <c r="AC33">
         <v>2312</v>
       </c>
-      <c r="AD33" t="n">
+      <c r="AD33">
         <v>2331</v>
       </c>
-      <c r="AE33" t="n">
+      <c r="AE33">
         <v>2349</v>
       </c>
-      <c r="AF33" t="n">
+      <c r="AF33">
         <v>2367</v>
       </c>
-      <c r="AG33" t="n">
+      <c r="AG33">
         <v>2386</v>
       </c>
-      <c r="AH33" t="n">
+      <c r="AH33">
         <v>2400</v>
       </c>
-      <c r="AI33" t="n">
+      <c r="AI33">
         <v>2415</v>
       </c>
-      <c r="AJ33" t="n">
+      <c r="AJ33">
         <v>2429</v>
       </c>
-      <c r="AK33" t="n">
+      <c r="AK33">
         <v>2444</v>
       </c>
-      <c r="AL33" t="n">
+      <c r="AL33">
         <v>2458</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>Arunachal Pradesh</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr"/>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="n">
+    <row r="34" spans="1:38">
+      <c r="A34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H34">
         <v>336.558</v>
       </c>
-      <c r="I34" t="n">
+      <c r="I34">
         <v>467.511</v>
       </c>
-      <c r="J34" t="n">
+      <c r="J34">
         <v>631.8390000000001</v>
       </c>
-      <c r="K34" t="n">
+      <c r="K34">
         <v>864.558</v>
       </c>
-      <c r="L34" t="n">
+      <c r="L34">
         <v>1097.968</v>
       </c>
-      <c r="M34" t="n">
+      <c r="M34">
         <v>1384</v>
       </c>
-      <c r="N34" t="n">
+      <c r="N34">
         <v>1399</v>
       </c>
-      <c r="O34" t="n">
+      <c r="O34">
         <v>1414</v>
       </c>
-      <c r="P34" t="n">
+      <c r="P34">
         <v>1429</v>
       </c>
-      <c r="Q34" t="n">
+      <c r="Q34">
         <v>1444</v>
       </c>
-      <c r="R34" t="n">
+      <c r="R34">
         <v>1459</v>
       </c>
-      <c r="S34" t="n">
+      <c r="S34">
         <v>1474</v>
       </c>
-      <c r="T34" t="n">
+      <c r="T34">
         <v>1489</v>
       </c>
-      <c r="U34" t="n">
+      <c r="U34">
         <v>1504</v>
       </c>
-      <c r="V34" t="n">
+      <c r="V34">
         <v>1519</v>
       </c>
-      <c r="W34" t="n">
+      <c r="W34">
         <v>1533</v>
       </c>
-      <c r="X34" t="n">
+      <c r="X34">
         <v>1548</v>
       </c>
-      <c r="Y34" t="n">
+      <c r="Y34">
         <v>1562</v>
       </c>
-      <c r="Z34" t="n">
+      <c r="Z34">
         <v>1576</v>
       </c>
-      <c r="AA34" t="n">
+      <c r="AA34">
         <v>1590</v>
       </c>
-      <c r="AB34" t="n">
+      <c r="AB34">
         <v>1604</v>
       </c>
-      <c r="AC34" t="n">
+      <c r="AC34">
         <v>1617</v>
       </c>
-      <c r="AD34" t="n">
+      <c r="AD34">
         <v>1630</v>
       </c>
-      <c r="AE34" t="n">
+      <c r="AE34">
         <v>1643</v>
       </c>
-      <c r="AF34" t="n">
+      <c r="AF34">
         <v>1656</v>
       </c>
-      <c r="AG34" t="n">
+      <c r="AG34">
         <v>1669</v>
       </c>
-      <c r="AH34" t="n">
+      <c r="AH34">
         <v>1679</v>
       </c>
-      <c r="AI34" t="n">
+      <c r="AI34">
         <v>1689</v>
       </c>
-      <c r="AJ34" t="n">
+      <c r="AJ34">
         <v>1699</v>
       </c>
-      <c r="AK34" t="n">
+      <c r="AK34">
         <v>1709</v>
       </c>
-      <c r="AL34" t="n">
+      <c r="AL34">
         <v>1719</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="1" t="inlineStr">
-        <is>
-          <t>Assam</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
+    <row r="35" spans="1:38">
+      <c r="A35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35">
         <v>3289.68</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>3848.617</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>4636.98</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
         <v>5560.371</v>
       </c>
-      <c r="F35" t="n">
+      <c r="F35">
         <v>6694.79</v>
       </c>
-      <c r="G35" t="n">
+      <c r="G35">
         <v>8028.856</v>
       </c>
-      <c r="H35" t="n">
+      <c r="H35">
         <v>10837.329</v>
       </c>
-      <c r="I35" t="n">
+      <c r="I35">
         <v>14625.152</v>
       </c>
-      <c r="J35" t="n">
+      <c r="J35">
         <v>18041.248</v>
       </c>
-      <c r="K35" t="n">
+      <c r="K35">
         <v>22414.322</v>
       </c>
-      <c r="L35" t="n">
+      <c r="L35">
         <v>26655.528</v>
       </c>
-      <c r="M35" t="n">
+      <c r="M35">
         <v>31206</v>
       </c>
-      <c r="N35" t="n">
+      <c r="N35">
         <v>31598</v>
       </c>
-      <c r="O35" t="n">
+      <c r="O35">
         <v>31991</v>
       </c>
-      <c r="P35" t="n">
+      <c r="P35">
         <v>32383</v>
       </c>
-      <c r="Q35" t="n">
+      <c r="Q35">
         <v>32776</v>
       </c>
-      <c r="R35" t="n">
+      <c r="R35">
         <v>33168</v>
       </c>
-      <c r="S35" t="n">
+      <c r="S35">
         <v>33543</v>
       </c>
-      <c r="T35" t="n">
+      <c r="T35">
         <v>33918</v>
       </c>
-      <c r="U35" t="n">
+      <c r="U35">
         <v>34293</v>
       </c>
-      <c r="V35" t="n">
+      <c r="V35">
         <v>34668</v>
       </c>
-      <c r="W35" t="n">
+      <c r="W35">
         <v>35043</v>
       </c>
-      <c r="X35" t="n">
+      <c r="X35">
         <v>35378</v>
       </c>
-      <c r="Y35" t="n">
+      <c r="Y35">
         <v>35713</v>
       </c>
-      <c r="Z35" t="n">
+      <c r="Z35">
         <v>36047</v>
       </c>
-      <c r="AA35" t="n">
+      <c r="AA35">
         <v>36382</v>
       </c>
-      <c r="AB35" t="n">
+      <c r="AB35">
         <v>36717</v>
       </c>
-      <c r="AC35" t="n">
+      <c r="AC35">
         <v>37012</v>
       </c>
-      <c r="AD35" t="n">
+      <c r="AD35">
         <v>37308</v>
       </c>
-      <c r="AE35" t="n">
+      <c r="AE35">
         <v>37604</v>
       </c>
-      <c r="AF35" t="n">
+      <c r="AF35">
         <v>37900</v>
       </c>
-      <c r="AG35" t="n">
+      <c r="AG35">
         <v>38196</v>
       </c>
-      <c r="AH35" t="n">
+      <c r="AH35">
         <v>38437</v>
       </c>
-      <c r="AI35" t="n">
+      <c r="AI35">
         <v>38677</v>
       </c>
-      <c r="AJ35" t="n">
+      <c r="AJ35">
         <v>38918</v>
       </c>
-      <c r="AK35" t="n">
+      <c r="AK35">
         <v>39158</v>
       </c>
-      <c r="AL35" t="n">
+      <c r="AL35">
         <v>39399</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="1" t="inlineStr">
-        <is>
-          <t>Puducherry</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
+    <row r="36" spans="1:38">
+      <c r="A36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36">
         <v>246.354</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>257.179</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>244.156</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
         <v>258.628</v>
       </c>
-      <c r="F36" t="n">
+      <c r="F36">
         <v>285.011</v>
       </c>
-      <c r="G36" t="n">
+      <c r="G36">
         <v>317.253</v>
       </c>
-      <c r="H36" t="n">
+      <c r="H36">
         <v>369.079</v>
       </c>
-      <c r="I36" t="n">
+      <c r="I36">
         <v>471.707</v>
       </c>
-      <c r="J36" t="n">
+      <c r="J36">
         <v>604.471</v>
       </c>
-      <c r="K36" t="n">
+      <c r="K36">
         <v>807.785</v>
       </c>
-      <c r="L36" t="n">
+      <c r="L36">
         <v>974.345</v>
       </c>
-      <c r="M36" t="n">
+      <c r="M36">
         <v>1248</v>
       </c>
-      <c r="N36" t="n">
+      <c r="N36">
         <v>1279</v>
       </c>
-      <c r="O36" t="n">
+      <c r="O36">
         <v>1310</v>
       </c>
-      <c r="P36" t="n">
+      <c r="P36">
         <v>1340</v>
       </c>
-      <c r="Q36" t="n">
+      <c r="Q36">
         <v>1371</v>
       </c>
-      <c r="R36" t="n">
+      <c r="R36">
         <v>1402</v>
       </c>
-      <c r="S36" t="n">
+      <c r="S36">
         <v>1436</v>
       </c>
-      <c r="T36" t="n">
+      <c r="T36">
         <v>1470</v>
       </c>
-      <c r="U36" t="n">
+      <c r="U36">
         <v>1504</v>
       </c>
-      <c r="V36" t="n">
+      <c r="V36">
         <v>1537</v>
       </c>
-      <c r="W36" t="n">
+      <c r="W36">
         <v>1571</v>
       </c>
-      <c r="X36" t="n">
+      <c r="X36">
         <v>1608</v>
       </c>
-      <c r="Y36" t="n">
+      <c r="Y36">
         <v>1646</v>
       </c>
-      <c r="Z36" t="n">
+      <c r="Z36">
         <v>1683</v>
       </c>
-      <c r="AA36" t="n">
+      <c r="AA36">
         <v>1720</v>
       </c>
-      <c r="AB36" t="n">
+      <c r="AB36">
         <v>1757</v>
       </c>
-      <c r="AC36" t="n">
+      <c r="AC36">
         <v>1798</v>
       </c>
-      <c r="AD36" t="n">
+      <c r="AD36">
         <v>1838</v>
       </c>
-      <c r="AE36" t="n">
+      <c r="AE36">
         <v>1879</v>
       </c>
-      <c r="AF36" t="n">
+      <c r="AF36">
         <v>1920</v>
       </c>
-      <c r="AG36" t="n">
+      <c r="AG36">
         <v>1961</v>
       </c>
-      <c r="AH36" t="n">
+      <c r="AH36">
         <v>2005</v>
       </c>
-      <c r="AI36" t="n">
+      <c r="AI36">
         <v>2050</v>
       </c>
-      <c r="AJ36" t="n">
+      <c r="AJ36">
         <v>2094</v>
       </c>
-      <c r="AK36" t="n">
+      <c r="AK36">
         <v>2139</v>
       </c>
-      <c r="AL36" t="n">
+      <c r="AL36">
         <v>2184</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="1" t="inlineStr">
-        <is>
-          <t>Odisha</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
+    <row r="37" spans="1:38">
+      <c r="A37" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37">
         <v>10302.917</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>11378.875</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>11158.586</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
         <v>12491.056</v>
       </c>
-      <c r="F37" t="n">
+      <c r="F37">
         <v>13767.988</v>
       </c>
-      <c r="G37" t="n">
+      <c r="G37">
         <v>14645.946</v>
       </c>
-      <c r="H37" t="n">
+      <c r="H37">
         <v>17548.846</v>
       </c>
-      <c r="I37" t="n">
+      <c r="I37">
         <v>21944.615</v>
       </c>
-      <c r="J37" t="n">
+      <c r="J37">
         <v>26370.271</v>
       </c>
-      <c r="K37" t="n">
+      <c r="K37">
         <v>31659.736</v>
       </c>
-      <c r="L37" t="n">
+      <c r="L37">
         <v>36804.66</v>
       </c>
-      <c r="M37" t="n">
+      <c r="M37">
         <v>41974</v>
       </c>
-      <c r="N37" t="n">
+      <c r="N37">
         <v>42205</v>
       </c>
-      <c r="O37" t="n">
+      <c r="O37">
         <v>42436</v>
       </c>
-      <c r="P37" t="n">
+      <c r="P37">
         <v>42667</v>
       </c>
-      <c r="Q37" t="n">
+      <c r="Q37">
         <v>42897</v>
       </c>
-      <c r="R37" t="n">
+      <c r="R37">
         <v>43128</v>
       </c>
-      <c r="S37" t="n">
+      <c r="S37">
         <v>43309</v>
       </c>
-      <c r="T37" t="n">
+      <c r="T37">
         <v>43490</v>
       </c>
-      <c r="U37" t="n">
+      <c r="U37">
         <v>43671</v>
       </c>
-      <c r="V37" t="n">
+      <c r="V37">
         <v>43852</v>
       </c>
-      <c r="W37" t="n">
+      <c r="W37">
         <v>44033</v>
       </c>
-      <c r="X37" t="n">
+      <c r="X37">
         <v>44162</v>
       </c>
-      <c r="Y37" t="n">
+      <c r="Y37">
         <v>44291</v>
       </c>
-      <c r="Z37" t="n">
+      <c r="Z37">
         <v>44420</v>
       </c>
-      <c r="AA37" t="n">
+      <c r="AA37">
         <v>44548</v>
       </c>
-      <c r="AB37" t="n">
+      <c r="AB37">
         <v>44677</v>
       </c>
-      <c r="AC37" t="n">
+      <c r="AC37">
         <v>44743</v>
       </c>
-      <c r="AD37" t="n">
+      <c r="AD37">
         <v>44810</v>
       </c>
-      <c r="AE37" t="n">
+      <c r="AE37">
         <v>44876</v>
       </c>
-      <c r="AF37" t="n">
+      <c r="AF37">
         <v>44942</v>
       </c>
-      <c r="AG37" t="n">
+      <c r="AG37">
         <v>45008</v>
       </c>
-      <c r="AH37" t="n">
+      <c r="AH37">
         <v>45012</v>
       </c>
-      <c r="AI37" t="n">
+      <c r="AI37">
         <v>45015</v>
       </c>
-      <c r="AJ37" t="n">
+      <c r="AJ37">
         <v>45019</v>
       </c>
-      <c r="AK37" t="n">
+      <c r="AK37">
         <v>45022</v>
       </c>
-      <c r="AL37" t="n">
+      <c r="AL37">
         <v>45025</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/534/MOSPI/KAPSARC/India Population Projection_historical.xlsx
+++ b/data/534/MOSPI/KAPSARC/India Population Projection_historical.xlsx
@@ -1,153 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="India Population Projection" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="India Population Projection" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
-  <si>
-    <t>Bihar</t>
-  </si>
-  <si>
-    <t>Manipur</t>
-  </si>
-  <si>
-    <t>Tamil Nadu</t>
-  </si>
-  <si>
-    <t>Punjab</t>
-  </si>
-  <si>
-    <t>Kerala</t>
-  </si>
-  <si>
-    <t>Jharkhand</t>
-  </si>
-  <si>
-    <t>Gujarat</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>Andhra Pradesh</t>
-  </si>
-  <si>
-    <t>Daman and Diu</t>
-  </si>
-  <si>
-    <t>Karnataka</t>
-  </si>
-  <si>
-    <t>Madhya Pradesh</t>
-  </si>
-  <si>
-    <t>Andaman and Nicobar Islands</t>
-  </si>
-  <si>
-    <t>Himachal Pradesh</t>
-  </si>
-  <si>
-    <t>Goa</t>
-  </si>
-  <si>
-    <t>Lakshadweep</t>
-  </si>
-  <si>
-    <t>West Bengal</t>
-  </si>
-  <si>
-    <t>Tripura</t>
-  </si>
-  <si>
-    <t>Sikkim</t>
-  </si>
-  <si>
-    <t>Mizoram</t>
-  </si>
-  <si>
-    <t>Maharashtra</t>
-  </si>
-  <si>
-    <t>Chhattisgarh</t>
-  </si>
-  <si>
-    <t>Haryana</t>
-  </si>
-  <si>
-    <t>Jammu and Kashmir</t>
-  </si>
-  <si>
-    <t>Meghalaya</t>
-  </si>
-  <si>
-    <t>Uttarakhand</t>
-  </si>
-  <si>
-    <t>Chandigarh</t>
-  </si>
-  <si>
-    <t>Dadra and Nagar Haveli</t>
-  </si>
-  <si>
-    <t>Delhi</t>
-  </si>
-  <si>
-    <t>Uttar Pradesh</t>
-  </si>
-  <si>
-    <t>Rajasthan</t>
-  </si>
-  <si>
-    <t>Nagaland</t>
-  </si>
-  <si>
-    <t>Arunachal Pradesh</t>
-  </si>
-  <si>
-    <t>Assam</t>
-  </si>
-  <si>
-    <t>Puducherry</t>
-  </si>
-  <si>
-    <t>Odisha</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -162,18 +46,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -181,15 +57,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -478,4210 +353,4319 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:AL37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:38">
-      <c r="B1" s="1">
+    <row r="1">
+      <c r="B1" s="1" t="n">
         <v>1901</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" s="1" t="n">
         <v>1911</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="1" t="n">
         <v>1921</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E1" s="1" t="n">
         <v>1931</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F1" s="1" t="n">
         <v>1941</v>
       </c>
-      <c r="G1" s="1">
+      <c r="G1" s="1" t="n">
         <v>1951</v>
       </c>
-      <c r="H1" s="1">
+      <c r="H1" s="1" t="n">
         <v>1961</v>
       </c>
-      <c r="I1" s="1">
+      <c r="I1" s="1" t="n">
         <v>1971</v>
       </c>
-      <c r="J1" s="1">
+      <c r="J1" s="1" t="n">
         <v>1981</v>
       </c>
-      <c r="K1" s="1">
+      <c r="K1" s="1" t="n">
         <v>1991</v>
       </c>
-      <c r="L1" s="1">
+      <c r="L1" s="1" t="n">
         <v>2001</v>
       </c>
-      <c r="M1" s="1">
+      <c r="M1" s="1" t="n">
         <v>2011</v>
       </c>
-      <c r="N1" s="1">
+      <c r="N1" s="1" t="n">
         <v>2012</v>
       </c>
-      <c r="O1" s="1">
+      <c r="O1" s="1" t="n">
         <v>2013</v>
       </c>
-      <c r="P1" s="1">
+      <c r="P1" s="1" t="n">
         <v>2014</v>
       </c>
-      <c r="Q1" s="1">
+      <c r="Q1" s="1" t="n">
         <v>2015</v>
       </c>
-      <c r="R1" s="1">
+      <c r="R1" s="1" t="n">
         <v>2016</v>
       </c>
-      <c r="S1" s="1">
+      <c r="S1" s="1" t="n">
         <v>2017</v>
       </c>
-      <c r="T1" s="1">
+      <c r="T1" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="U1" s="1">
+      <c r="U1" s="1" t="n">
         <v>2019</v>
       </c>
-      <c r="V1" s="1">
+      <c r="V1" s="1" t="n">
         <v>2020</v>
       </c>
-      <c r="W1" s="1">
+      <c r="W1" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="X1" s="1">
+      <c r="X1" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="Y1" s="1">
+      <c r="Y1" s="1" t="n">
         <v>2023</v>
       </c>
-      <c r="Z1" s="1">
+      <c r="Z1" s="1" t="n">
         <v>2024</v>
       </c>
-      <c r="AA1" s="1">
+      <c r="AA1" s="1" t="n">
         <v>2025</v>
       </c>
-      <c r="AB1" s="1">
+      <c r="AB1" s="1" t="n">
         <v>2026</v>
       </c>
-      <c r="AC1" s="1">
+      <c r="AC1" s="1" t="n">
         <v>2027</v>
       </c>
-      <c r="AD1" s="1">
+      <c r="AD1" s="1" t="n">
         <v>2028</v>
       </c>
-      <c r="AE1" s="1">
+      <c r="AE1" s="1" t="n">
         <v>2029</v>
       </c>
-      <c r="AF1" s="1">
+      <c r="AF1" s="1" t="n">
         <v>2030</v>
       </c>
-      <c r="AG1" s="1">
+      <c r="AG1" s="1" t="n">
         <v>2031</v>
       </c>
-      <c r="AH1" s="1">
+      <c r="AH1" s="1" t="n">
         <v>2032</v>
       </c>
-      <c r="AI1" s="1">
+      <c r="AI1" s="1" t="n">
         <v>2033</v>
       </c>
-      <c r="AJ1" s="1">
+      <c r="AJ1" s="1" t="n">
         <v>2034</v>
       </c>
-      <c r="AK1" s="1">
+      <c r="AK1" s="1" t="n">
         <v>2035</v>
       </c>
-      <c r="AL1" s="1">
+      <c r="AL1" s="1" t="n">
         <v>2036</v>
       </c>
     </row>
-    <row r="2" spans="1:38">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Bihar</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>27311.865</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>28314.281</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>28126.675</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>31347.108</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="n">
         <v>35170.84</v>
       </c>
-      <c r="G2">
+      <c r="G2" t="n">
         <v>29085.017</v>
       </c>
-      <c r="H2">
+      <c r="H2" t="n">
         <v>46447.457</v>
       </c>
-      <c r="I2">
+      <c r="I2" t="n">
         <v>56353.369</v>
       </c>
-      <c r="J2">
+      <c r="J2" t="n">
         <v>69914.734</v>
       </c>
-      <c r="K2">
+      <c r="K2" t="n">
         <v>64530.554</v>
       </c>
-      <c r="L2">
+      <c r="L2" t="n">
         <v>82998.50900000001</v>
       </c>
-      <c r="M2">
+      <c r="M2" t="n">
         <v>104099</v>
       </c>
-      <c r="N2">
+      <c r="N2" t="n">
         <v>106115</v>
       </c>
-      <c r="O2">
+      <c r="O2" t="n">
         <v>108130</v>
       </c>
-      <c r="P2">
+      <c r="P2" t="n">
         <v>110145</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" t="n">
         <v>112161</v>
       </c>
-      <c r="R2">
+      <c r="R2" t="n">
         <v>114176</v>
       </c>
-      <c r="S2">
+      <c r="S2" t="n">
         <v>115957</v>
       </c>
-      <c r="T2">
+      <c r="T2" t="n">
         <v>117739</v>
       </c>
-      <c r="U2">
+      <c r="U2" t="n">
         <v>119520</v>
       </c>
-      <c r="V2">
+      <c r="V2" t="n">
         <v>121302</v>
       </c>
-      <c r="W2">
+      <c r="W2" t="n">
         <v>123083</v>
       </c>
-      <c r="X2">
+      <c r="X2" t="n">
         <v>124919</v>
       </c>
-      <c r="Y2">
+      <c r="Y2" t="n">
         <v>126756</v>
       </c>
-      <c r="Z2">
+      <c r="Z2" t="n">
         <v>128592</v>
       </c>
-      <c r="AA2">
+      <c r="AA2" t="n">
         <v>130429</v>
       </c>
-      <c r="AB2">
+      <c r="AB2" t="n">
         <v>132265</v>
       </c>
-      <c r="AC2">
+      <c r="AC2" t="n">
         <v>134020</v>
       </c>
-      <c r="AD2">
+      <c r="AD2" t="n">
         <v>135775</v>
       </c>
-      <c r="AE2">
+      <c r="AE2" t="n">
         <v>137531</v>
       </c>
-      <c r="AF2">
+      <c r="AF2" t="n">
         <v>139286</v>
       </c>
-      <c r="AG2">
+      <c r="AG2" t="n">
         <v>141041</v>
       </c>
-      <c r="AH2">
+      <c r="AH2" t="n">
         <v>142548</v>
       </c>
-      <c r="AI2">
+      <c r="AI2" t="n">
         <v>144055</v>
       </c>
-      <c r="AJ2">
+      <c r="AJ2" t="n">
         <v>145562</v>
       </c>
-      <c r="AK2">
+      <c r="AK2" t="n">
         <v>147069</v>
       </c>
-      <c r="AL2">
+      <c r="AL2" t="n">
         <v>148576</v>
       </c>
     </row>
-    <row r="3" spans="1:38">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Manipur</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>284.465</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>346.222</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>384.016</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>445.606</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="n">
         <v>512.069</v>
       </c>
-      <c r="G3">
+      <c r="G3" t="n">
         <v>577.635</v>
       </c>
-      <c r="H3">
+      <c r="H3" t="n">
         <v>780.037</v>
       </c>
-      <c r="I3">
+      <c r="I3" t="n">
         <v>1072.753</v>
       </c>
-      <c r="J3">
+      <c r="J3" t="n">
         <v>1420.953</v>
       </c>
-      <c r="K3">
+      <c r="K3" t="n">
         <v>1837.149</v>
       </c>
-      <c r="L3">
+      <c r="L3" t="n">
         <v>2166.788</v>
       </c>
-      <c r="M3">
+      <c r="M3" t="n">
         <v>2856</v>
       </c>
-      <c r="N3">
+      <c r="N3" t="n">
         <v>2887</v>
       </c>
-      <c r="O3">
+      <c r="O3" t="n">
         <v>2918</v>
       </c>
-      <c r="P3">
+      <c r="P3" t="n">
         <v>2949</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" t="n">
         <v>2980</v>
       </c>
-      <c r="R3">
+      <c r="R3" t="n">
         <v>3012</v>
       </c>
-      <c r="S3">
+      <c r="S3" t="n">
         <v>3042</v>
       </c>
-      <c r="T3">
+      <c r="T3" t="n">
         <v>3073</v>
       </c>
-      <c r="U3">
+      <c r="U3" t="n">
         <v>3103</v>
       </c>
-      <c r="V3">
+      <c r="V3" t="n">
         <v>3134</v>
       </c>
-      <c r="W3">
+      <c r="W3" t="n">
         <v>3165</v>
       </c>
-      <c r="X3">
+      <c r="X3" t="n">
         <v>3194</v>
       </c>
-      <c r="Y3">
+      <c r="Y3" t="n">
         <v>3223</v>
       </c>
-      <c r="Z3">
+      <c r="Z3" t="n">
         <v>3253</v>
       </c>
-      <c r="AA3">
+      <c r="AA3" t="n">
         <v>3282</v>
       </c>
-      <c r="AB3">
+      <c r="AB3" t="n">
         <v>3311</v>
       </c>
-      <c r="AC3">
+      <c r="AC3" t="n">
         <v>3338</v>
       </c>
-      <c r="AD3">
+      <c r="AD3" t="n">
         <v>3364</v>
       </c>
-      <c r="AE3">
+      <c r="AE3" t="n">
         <v>3391</v>
       </c>
-      <c r="AF3">
+      <c r="AF3" t="n">
         <v>3417</v>
       </c>
-      <c r="AG3">
+      <c r="AG3" t="n">
         <v>3444</v>
       </c>
-      <c r="AH3">
+      <c r="AH3" t="n">
         <v>3465</v>
       </c>
-      <c r="AI3">
+      <c r="AI3" t="n">
         <v>3485</v>
       </c>
-      <c r="AJ3">
+      <c r="AJ3" t="n">
         <v>3506</v>
       </c>
-      <c r="AK3">
+      <c r="AK3" t="n">
         <v>3527</v>
       </c>
-      <c r="AL3">
+      <c r="AL3" t="n">
         <v>3548</v>
       </c>
     </row>
-    <row r="4" spans="1:38">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Tamil Nadu</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>19252.63</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>20902.616</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>21628.518</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>23472.099</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="n">
         <v>26267.507</v>
       </c>
-      <c r="G4">
+      <c r="G4" t="n">
         <v>30119.047</v>
       </c>
-      <c r="H4">
+      <c r="H4" t="n">
         <v>33686.953</v>
       </c>
-      <c r="I4">
+      <c r="I4" t="n">
         <v>41199.168</v>
       </c>
-      <c r="J4">
+      <c r="J4" t="n">
         <v>48408.077</v>
       </c>
-      <c r="K4">
+      <c r="K4" t="n">
         <v>55858.946</v>
       </c>
-      <c r="L4">
+      <c r="L4" t="n">
         <v>62405.679</v>
       </c>
-      <c r="M4">
+      <c r="M4" t="n">
         <v>72147</v>
       </c>
-      <c r="N4">
+      <c r="N4" t="n">
         <v>72645</v>
       </c>
-      <c r="O4">
+      <c r="O4" t="n">
         <v>73142</v>
       </c>
-      <c r="P4">
+      <c r="P4" t="n">
         <v>73640</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" t="n">
         <v>74137</v>
       </c>
-      <c r="R4">
+      <c r="R4" t="n">
         <v>74635</v>
       </c>
-      <c r="S4">
+      <c r="S4" t="n">
         <v>74989</v>
       </c>
-      <c r="T4">
+      <c r="T4" t="n">
         <v>75342</v>
       </c>
-      <c r="U4">
+      <c r="U4" t="n">
         <v>75695</v>
       </c>
-      <c r="V4">
+      <c r="V4" t="n">
         <v>76049</v>
       </c>
-      <c r="W4">
+      <c r="W4" t="n">
         <v>76402</v>
       </c>
-      <c r="X4">
+      <c r="X4" t="n">
         <v>76631</v>
       </c>
-      <c r="Y4">
+      <c r="Y4" t="n">
         <v>76860</v>
       </c>
-      <c r="Z4">
+      <c r="Z4" t="n">
         <v>77089</v>
       </c>
-      <c r="AA4">
+      <c r="AA4" t="n">
         <v>77317</v>
       </c>
-      <c r="AB4">
+      <c r="AB4" t="n">
         <v>77546</v>
       </c>
-      <c r="AC4">
+      <c r="AC4" t="n">
         <v>77653</v>
       </c>
-      <c r="AD4">
+      <c r="AD4" t="n">
         <v>77761</v>
       </c>
-      <c r="AE4">
+      <c r="AE4" t="n">
         <v>77868</v>
       </c>
-      <c r="AF4">
+      <c r="AF4" t="n">
         <v>77975</v>
       </c>
-      <c r="AG4">
+      <c r="AG4" t="n">
         <v>78082</v>
       </c>
-      <c r="AH4">
+      <c r="AH4" t="n">
         <v>78079</v>
       </c>
-      <c r="AI4">
+      <c r="AI4" t="n">
         <v>78076</v>
       </c>
-      <c r="AJ4">
+      <c r="AJ4" t="n">
         <v>78073</v>
       </c>
-      <c r="AK4">
+      <c r="AK4" t="n">
         <v>78070</v>
       </c>
-      <c r="AL4">
+      <c r="AL4" t="n">
         <v>78067</v>
       </c>
     </row>
-    <row r="5" spans="1:38">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Punjab</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>7544.79</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>6731.51</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>7152.811</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>8012.325</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="n">
         <v>9600.236000000001</v>
       </c>
-      <c r="G5">
+      <c r="G5" t="n">
         <v>9160.5</v>
       </c>
-      <c r="H5">
+      <c r="H5" t="n">
         <v>11135.069</v>
       </c>
-      <c r="I5">
+      <c r="I5" t="n">
         <v>13551.06</v>
       </c>
-      <c r="J5">
+      <c r="J5" t="n">
         <v>16788.915</v>
       </c>
-      <c r="K5">
+      <c r="K5" t="n">
         <v>20281.969</v>
       </c>
-      <c r="L5">
+      <c r="L5" t="n">
         <v>24358.999</v>
       </c>
-      <c r="M5">
+      <c r="M5" t="n">
         <v>27743</v>
       </c>
-      <c r="N5">
+      <c r="N5" t="n">
         <v>28023</v>
       </c>
-      <c r="O5">
+      <c r="O5" t="n">
         <v>28302</v>
       </c>
-      <c r="P5">
+      <c r="P5" t="n">
         <v>28581</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" t="n">
         <v>28861</v>
       </c>
-      <c r="R5">
+      <c r="R5" t="n">
         <v>29140</v>
       </c>
-      <c r="S5">
+      <c r="S5" t="n">
         <v>29380</v>
       </c>
-      <c r="T5">
+      <c r="T5" t="n">
         <v>29619</v>
       </c>
-      <c r="U5">
+      <c r="U5" t="n">
         <v>29859</v>
       </c>
-      <c r="V5">
+      <c r="V5" t="n">
         <v>30099</v>
       </c>
-      <c r="W5">
+      <c r="W5" t="n">
         <v>30339</v>
       </c>
-      <c r="X5">
+      <c r="X5" t="n">
         <v>30535</v>
       </c>
-      <c r="Y5">
+      <c r="Y5" t="n">
         <v>30730</v>
       </c>
-      <c r="Z5">
+      <c r="Z5" t="n">
         <v>30926</v>
       </c>
-      <c r="AA5">
+      <c r="AA5" t="n">
         <v>31122</v>
       </c>
-      <c r="AB5">
+      <c r="AB5" t="n">
         <v>31318</v>
       </c>
-      <c r="AC5">
+      <c r="AC5" t="n">
         <v>31472</v>
       </c>
-      <c r="AD5">
+      <c r="AD5" t="n">
         <v>31626</v>
       </c>
-      <c r="AE5">
+      <c r="AE5" t="n">
         <v>31779</v>
       </c>
-      <c r="AF5">
+      <c r="AF5" t="n">
         <v>31933</v>
       </c>
-      <c r="AG5">
+      <c r="AG5" t="n">
         <v>32087</v>
       </c>
-      <c r="AH5">
+      <c r="AH5" t="n">
         <v>32201</v>
       </c>
-      <c r="AI5">
+      <c r="AI5" t="n">
         <v>32315</v>
       </c>
-      <c r="AJ5">
+      <c r="AJ5" t="n">
         <v>32430</v>
       </c>
-      <c r="AK5">
+      <c r="AK5" t="n">
         <v>32544</v>
       </c>
-      <c r="AL5">
+      <c r="AL5" t="n">
         <v>32658</v>
       </c>
     </row>
-    <row r="6" spans="1:38">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Kerala</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>6396.262</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>7147.673</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>7802.127</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>9507.050000000001</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="n">
         <v>11031.541</v>
       </c>
-      <c r="G6">
+      <c r="G6" t="n">
         <v>13549.118</v>
       </c>
-      <c r="H6">
+      <c r="H6" t="n">
         <v>16903.715</v>
       </c>
-      <c r="I6">
+      <c r="I6" t="n">
         <v>21347.375</v>
       </c>
-      <c r="J6">
+      <c r="J6" t="n">
         <v>25453.68</v>
       </c>
-      <c r="K6">
+      <c r="K6" t="n">
         <v>29098.518</v>
       </c>
-      <c r="L6">
+      <c r="L6" t="n">
         <v>31841.374</v>
       </c>
-      <c r="M6">
+      <c r="M6" t="n">
         <v>33406</v>
       </c>
-      <c r="N6">
+      <c r="N6" t="n">
         <v>33641</v>
       </c>
-      <c r="O6">
+      <c r="O6" t="n">
         <v>33875</v>
       </c>
-      <c r="P6">
+      <c r="P6" t="n">
         <v>34109</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" t="n">
         <v>34344</v>
       </c>
-      <c r="R6">
+      <c r="R6" t="n">
         <v>34578</v>
       </c>
-      <c r="S6">
+      <c r="S6" t="n">
         <v>34761</v>
       </c>
-      <c r="T6">
+      <c r="T6" t="n">
         <v>34943</v>
       </c>
-      <c r="U6">
+      <c r="U6" t="n">
         <v>35125</v>
       </c>
-      <c r="V6">
+      <c r="V6" t="n">
         <v>35307</v>
       </c>
-      <c r="W6">
+      <c r="W6" t="n">
         <v>35489</v>
       </c>
-      <c r="X6">
+      <c r="X6" t="n">
         <v>35633</v>
       </c>
-      <c r="Y6">
+      <c r="Y6" t="n">
         <v>35776</v>
       </c>
-      <c r="Z6">
+      <c r="Z6" t="n">
         <v>35920</v>
       </c>
-      <c r="AA6">
+      <c r="AA6" t="n">
         <v>36063</v>
       </c>
-      <c r="AB6">
+      <c r="AB6" t="n">
         <v>36207</v>
       </c>
-      <c r="AC6">
+      <c r="AC6" t="n">
         <v>36304</v>
       </c>
-      <c r="AD6">
+      <c r="AD6" t="n">
         <v>36402</v>
       </c>
-      <c r="AE6">
+      <c r="AE6" t="n">
         <v>36499</v>
       </c>
-      <c r="AF6">
+      <c r="AF6" t="n">
         <v>36597</v>
       </c>
-      <c r="AG6">
+      <c r="AG6" t="n">
         <v>36695</v>
       </c>
-      <c r="AH6">
+      <c r="AH6" t="n">
         <v>36746</v>
       </c>
-      <c r="AI6">
+      <c r="AI6" t="n">
         <v>36796</v>
       </c>
-      <c r="AJ6">
+      <c r="AJ6" t="n">
         <v>36847</v>
       </c>
-      <c r="AK6">
+      <c r="AK6" t="n">
         <v>36898</v>
       </c>
-      <c r="AL6">
+      <c r="AL6" t="n">
         <v>36949</v>
       </c>
     </row>
-    <row r="7" spans="1:38">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7">
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Jharkhand</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="n">
         <v>9697.254000000001</v>
       </c>
-      <c r="K7">
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="n">
         <v>21843.911</v>
       </c>
-      <c r="L7">
+      <c r="L7" t="n">
         <v>26945.829</v>
       </c>
-      <c r="M7">
+      <c r="M7" t="n">
         <v>32988</v>
       </c>
-      <c r="N7">
+      <c r="N7" t="n">
         <v>33551</v>
       </c>
-      <c r="O7">
+      <c r="O7" t="n">
         <v>34113</v>
       </c>
-      <c r="P7">
+      <c r="P7" t="n">
         <v>34675</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" t="n">
         <v>35238</v>
       </c>
-      <c r="R7">
+      <c r="R7" t="n">
         <v>35800</v>
       </c>
-      <c r="S7">
+      <c r="S7" t="n">
         <v>36334</v>
       </c>
-      <c r="T7">
+      <c r="T7" t="n">
         <v>36869</v>
       </c>
-      <c r="U7">
+      <c r="U7" t="n">
         <v>37403</v>
       </c>
-      <c r="V7">
+      <c r="V7" t="n">
         <v>37937</v>
       </c>
-      <c r="W7">
+      <c r="W7" t="n">
         <v>38471</v>
       </c>
-      <c r="X7">
+      <c r="X7" t="n">
         <v>38969</v>
       </c>
-      <c r="Y7">
+      <c r="Y7" t="n">
         <v>39466</v>
       </c>
-      <c r="Z7">
+      <c r="Z7" t="n">
         <v>39963</v>
       </c>
-      <c r="AA7">
+      <c r="AA7" t="n">
         <v>40461</v>
       </c>
-      <c r="AB7">
+      <c r="AB7" t="n">
         <v>40958</v>
       </c>
-      <c r="AC7">
+      <c r="AC7" t="n">
         <v>41408</v>
       </c>
-      <c r="AD7">
+      <c r="AD7" t="n">
         <v>41858</v>
       </c>
-      <c r="AE7">
+      <c r="AE7" t="n">
         <v>42309</v>
       </c>
-      <c r="AF7">
+      <c r="AF7" t="n">
         <v>42759</v>
       </c>
-      <c r="AG7">
+      <c r="AG7" t="n">
         <v>43209</v>
       </c>
-      <c r="AH7">
+      <c r="AH7" t="n">
         <v>43599</v>
       </c>
-      <c r="AI7">
+      <c r="AI7" t="n">
         <v>43988</v>
       </c>
-      <c r="AJ7">
+      <c r="AJ7" t="n">
         <v>44377</v>
       </c>
-      <c r="AK7">
+      <c r="AK7" t="n">
         <v>44766</v>
       </c>
-      <c r="AL7">
+      <c r="AL7" t="n">
         <v>45155</v>
       </c>
     </row>
-    <row r="8" spans="1:38">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Gujarat</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
         <v>9094.748</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="n">
         <v>9803.587</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="n">
         <v>10174.989</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="n">
         <v>11489.828</v>
       </c>
-      <c r="F8">
+      <c r="F8" t="n">
         <v>13701.551</v>
       </c>
-      <c r="G8">
+      <c r="G8" t="n">
         <v>16262.657</v>
       </c>
-      <c r="H8">
+      <c r="H8" t="n">
         <v>20633.35</v>
       </c>
-      <c r="I8">
+      <c r="I8" t="n">
         <v>26697.475</v>
       </c>
-      <c r="J8">
+      <c r="J8" t="n">
         <v>34085.799</v>
       </c>
-      <c r="K8">
+      <c r="K8" t="n">
         <v>41309.582</v>
       </c>
-      <c r="L8">
+      <c r="L8" t="n">
         <v>50671.017</v>
       </c>
-      <c r="M8">
+      <c r="M8" t="n">
         <v>60440</v>
       </c>
-      <c r="N8">
+      <c r="N8" t="n">
         <v>61383</v>
       </c>
-      <c r="O8">
+      <c r="O8" t="n">
         <v>62327</v>
       </c>
-      <c r="P8">
+      <c r="P8" t="n">
         <v>63271</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" t="n">
         <v>64214</v>
       </c>
-      <c r="R8">
+      <c r="R8" t="n">
         <v>65158</v>
       </c>
-      <c r="S8">
+      <c r="S8" t="n">
         <v>66084</v>
       </c>
-      <c r="T8">
+      <c r="T8" t="n">
         <v>67010</v>
       </c>
-      <c r="U8">
+      <c r="U8" t="n">
         <v>67936</v>
       </c>
-      <c r="V8">
+      <c r="V8" t="n">
         <v>68862</v>
       </c>
-      <c r="W8">
+      <c r="W8" t="n">
         <v>69788</v>
       </c>
-      <c r="X8">
+      <c r="X8" t="n">
         <v>70648</v>
       </c>
-      <c r="Y8">
+      <c r="Y8" t="n">
         <v>71507</v>
       </c>
-      <c r="Z8">
+      <c r="Z8" t="n">
         <v>72367</v>
       </c>
-      <c r="AA8">
+      <c r="AA8" t="n">
         <v>73227</v>
       </c>
-      <c r="AB8">
+      <c r="AB8" t="n">
         <v>74086</v>
       </c>
-      <c r="AC8">
+      <c r="AC8" t="n">
         <v>74855</v>
       </c>
-      <c r="AD8">
+      <c r="AD8" t="n">
         <v>75624</v>
       </c>
-      <c r="AE8">
+      <c r="AE8" t="n">
         <v>76393</v>
       </c>
-      <c r="AF8">
+      <c r="AF8" t="n">
         <v>77162</v>
       </c>
-      <c r="AG8">
+      <c r="AG8" t="n">
         <v>77931</v>
       </c>
-      <c r="AH8">
+      <c r="AH8" t="n">
         <v>78608</v>
       </c>
-      <c r="AI8">
+      <c r="AI8" t="n">
         <v>79285</v>
       </c>
-      <c r="AJ8">
+      <c r="AJ8" t="n">
         <v>79962</v>
       </c>
-      <c r="AK8">
+      <c r="AK8" t="n">
         <v>80639</v>
       </c>
-      <c r="AL8">
+      <c r="AL8" t="n">
         <v>81316</v>
       </c>
     </row>
-    <row r="9" spans="1:38">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
         <v>238396.327</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>252093.39</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="n">
         <v>251321.213</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="n">
         <v>278977.238</v>
       </c>
-      <c r="F9">
+      <c r="F9" t="n">
         <v>318660.58</v>
       </c>
-      <c r="G9">
+      <c r="G9" t="n">
         <v>358142.161</v>
       </c>
-      <c r="H9">
+      <c r="H9" t="n">
         <v>439234.771</v>
       </c>
-      <c r="I9">
+      <c r="I9" t="n">
         <v>548159.652</v>
       </c>
-      <c r="J9">
+      <c r="J9" t="n">
         <v>683329.0970000001</v>
       </c>
-      <c r="K9">
+      <c r="K9" t="n">
         <v>846421.039</v>
       </c>
-      <c r="L9">
+      <c r="L9" t="n">
         <v>1028610.328</v>
       </c>
-      <c r="M9">
+      <c r="M9" t="n">
         <v>1210855</v>
       </c>
-      <c r="N9">
+      <c r="N9" t="n">
         <v>1226731</v>
       </c>
-      <c r="O9">
+      <c r="O9" t="n">
         <v>1242607</v>
       </c>
-      <c r="P9">
+      <c r="P9" t="n">
         <v>1258483</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" t="n">
         <v>1274359</v>
       </c>
-      <c r="R9">
+      <c r="R9" t="n">
         <v>1290235</v>
       </c>
-      <c r="S9">
+      <c r="S9" t="n">
         <v>1304457</v>
       </c>
-      <c r="T9">
+      <c r="T9" t="n">
         <v>1318678</v>
       </c>
-      <c r="U9">
+      <c r="U9" t="n">
         <v>1332900</v>
       </c>
-      <c r="V9">
+      <c r="V9" t="n">
         <v>1347121</v>
       </c>
-      <c r="W9">
+      <c r="W9" t="n">
         <v>1361343</v>
       </c>
-      <c r="X9">
+      <c r="X9" t="n">
         <v>1373761</v>
       </c>
-      <c r="Y9">
+      <c r="Y9" t="n">
         <v>1386180</v>
       </c>
-      <c r="Z9">
+      <c r="Z9" t="n">
         <v>1398598</v>
       </c>
-      <c r="AA9">
+      <c r="AA9" t="n">
         <v>1411016</v>
       </c>
-      <c r="AB9">
+      <c r="AB9" t="n">
         <v>1423435</v>
       </c>
-      <c r="AC9">
+      <c r="AC9" t="n">
         <v>1433852</v>
       </c>
-      <c r="AD9">
+      <c r="AD9" t="n">
         <v>1444268</v>
       </c>
-      <c r="AE9">
+      <c r="AE9" t="n">
         <v>1454685</v>
       </c>
-      <c r="AF9">
+      <c r="AF9" t="n">
         <v>1465102</v>
       </c>
-      <c r="AG9">
+      <c r="AG9" t="n">
         <v>1475519</v>
       </c>
-      <c r="AH9">
+      <c r="AH9" t="n">
         <v>1484073</v>
       </c>
-      <c r="AI9">
+      <c r="AI9" t="n">
         <v>1492627</v>
       </c>
-      <c r="AJ9">
+      <c r="AJ9" t="n">
         <v>1501181</v>
       </c>
-      <c r="AK9">
+      <c r="AK9" t="n">
         <v>1509734</v>
       </c>
-      <c r="AL9">
+      <c r="AL9" t="n">
         <v>1518288</v>
       </c>
     </row>
-    <row r="10" spans="1:38">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Andhra Pradesh</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
         <v>19065.921</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
         <v>21447.412</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="n">
         <v>21420.448</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="n">
         <v>24203.573</v>
       </c>
-      <c r="F10">
+      <c r="F10" t="n">
         <v>27289.34</v>
       </c>
-      <c r="G10">
+      <c r="G10" t="n">
         <v>31115.259</v>
       </c>
-      <c r="H10">
+      <c r="H10" t="n">
         <v>35983.447</v>
       </c>
-      <c r="I10">
+      <c r="I10" t="n">
         <v>43502.708</v>
       </c>
-      <c r="J10">
+      <c r="J10" t="n">
         <v>53551.026</v>
       </c>
-      <c r="K10">
+      <c r="K10" t="n">
         <v>66508.008</v>
       </c>
-      <c r="L10">
+      <c r="L10" t="n">
         <v>76210.007</v>
       </c>
-      <c r="M10">
+      <c r="M10" t="n">
         <v>49577</v>
       </c>
-      <c r="N10">
+      <c r="N10" t="n">
         <v>49936</v>
       </c>
-      <c r="O10">
+      <c r="O10" t="n">
         <v>50295</v>
       </c>
-      <c r="P10">
+      <c r="P10" t="n">
         <v>50654</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" t="n">
         <v>51012</v>
       </c>
-      <c r="R10">
+      <c r="R10" t="n">
         <v>51371</v>
       </c>
-      <c r="S10">
+      <c r="S10" t="n">
         <v>51655</v>
       </c>
-      <c r="T10">
+      <c r="T10" t="n">
         <v>51938</v>
       </c>
-      <c r="U10">
+      <c r="U10" t="n">
         <v>52221</v>
       </c>
-      <c r="V10">
+      <c r="V10" t="n">
         <v>52504</v>
       </c>
-      <c r="W10">
+      <c r="W10" t="n">
         <v>52787</v>
       </c>
-      <c r="X10">
+      <c r="X10" t="n">
         <v>52972</v>
       </c>
-      <c r="Y10">
+      <c r="Y10" t="n">
         <v>53156</v>
       </c>
-      <c r="Z10">
+      <c r="Z10" t="n">
         <v>53340</v>
       </c>
-      <c r="AA10">
+      <c r="AA10" t="n">
         <v>53524</v>
       </c>
-      <c r="AB10">
+      <c r="AB10" t="n">
         <v>53709</v>
       </c>
-      <c r="AC10">
+      <c r="AC10" t="n">
         <v>53802</v>
       </c>
-      <c r="AD10">
+      <c r="AD10" t="n">
         <v>53895</v>
       </c>
-      <c r="AE10">
+      <c r="AE10" t="n">
         <v>53989</v>
       </c>
-      <c r="AF10">
+      <c r="AF10" t="n">
         <v>54082</v>
       </c>
-      <c r="AG10">
+      <c r="AG10" t="n">
         <v>54175</v>
       </c>
-      <c r="AH10">
+      <c r="AH10" t="n">
         <v>54191</v>
       </c>
-      <c r="AI10">
+      <c r="AI10" t="n">
         <v>54206</v>
       </c>
-      <c r="AJ10">
+      <c r="AJ10" t="n">
         <v>54221</v>
       </c>
-      <c r="AK10">
+      <c r="AK10" t="n">
         <v>54236</v>
       </c>
-      <c r="AL10">
+      <c r="AL10" t="n">
         <v>54252</v>
       </c>
     </row>
-    <row r="11" spans="1:38">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11">
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Daman and Diu</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
         <v>32.005</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="n">
         <v>32.47</v>
       </c>
-      <c r="D11">
+      <c r="D11" t="n">
         <v>31.41</v>
       </c>
-      <c r="E11">
+      <c r="E11" t="n">
         <v>36.429</v>
       </c>
-      <c r="F11">
+      <c r="F11" t="n">
         <v>42.811</v>
       </c>
-      <c r="G11">
+      <c r="G11" t="n">
         <v>48.611</v>
       </c>
-      <c r="H11">
+      <c r="H11" t="n">
         <v>36.67</v>
       </c>
-      <c r="I11">
+      <c r="I11" t="n">
         <v>62.651</v>
       </c>
-      <c r="J11">
+      <c r="J11" t="n">
         <v>78.98099999999999</v>
       </c>
-      <c r="K11">
+      <c r="K11" t="n">
         <v>101.586</v>
       </c>
-      <c r="L11">
+      <c r="L11" t="n">
         <v>158.204</v>
       </c>
-      <c r="M11">
+      <c r="M11" t="n">
         <v>243</v>
       </c>
-      <c r="N11">
+      <c r="N11" t="n">
         <v>260</v>
       </c>
-      <c r="O11">
+      <c r="O11" t="n">
         <v>278</v>
       </c>
-      <c r="P11">
+      <c r="P11" t="n">
         <v>295</v>
       </c>
-      <c r="Q11">
+      <c r="Q11" t="n">
         <v>312</v>
       </c>
-      <c r="R11">
+      <c r="R11" t="n">
         <v>329</v>
       </c>
-      <c r="S11">
+      <c r="S11" t="n">
         <v>357</v>
       </c>
-      <c r="T11">
+      <c r="T11" t="n">
         <v>385</v>
       </c>
-      <c r="U11">
+      <c r="U11" t="n">
         <v>413</v>
       </c>
-      <c r="V11">
+      <c r="V11" t="n">
         <v>441</v>
       </c>
-      <c r="W11">
+      <c r="W11" t="n">
         <v>469</v>
       </c>
-      <c r="X11">
+      <c r="X11" t="n">
         <v>516</v>
       </c>
-      <c r="Y11">
+      <c r="Y11" t="n">
         <v>564</v>
       </c>
-      <c r="Z11">
+      <c r="Z11" t="n">
         <v>611</v>
       </c>
-      <c r="AA11">
+      <c r="AA11" t="n">
         <v>658</v>
       </c>
-      <c r="AB11">
+      <c r="AB11" t="n">
         <v>705</v>
       </c>
-      <c r="AC11">
+      <c r="AC11" t="n">
         <v>792</v>
       </c>
-      <c r="AD11">
+      <c r="AD11" t="n">
         <v>878</v>
       </c>
-      <c r="AE11">
+      <c r="AE11" t="n">
         <v>964</v>
       </c>
-      <c r="AF11">
+      <c r="AF11" t="n">
         <v>1051</v>
       </c>
-      <c r="AG11">
+      <c r="AG11" t="n">
         <v>1137</v>
       </c>
-      <c r="AH11">
+      <c r="AH11" t="n">
         <v>1303</v>
       </c>
-      <c r="AI11">
+      <c r="AI11" t="n">
         <v>1470</v>
       </c>
-      <c r="AJ11">
+      <c r="AJ11" t="n">
         <v>1636</v>
       </c>
-      <c r="AK11">
+      <c r="AK11" t="n">
         <v>1802</v>
       </c>
-      <c r="AL11">
+      <c r="AL11" t="n">
         <v>1969</v>
       </c>
     </row>
-    <row r="12" spans="1:38">
-      <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12">
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Karnataka</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
         <v>13054.754</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="n">
         <v>13525.251</v>
       </c>
-      <c r="D12">
+      <c r="D12" t="n">
         <v>13377.599</v>
       </c>
-      <c r="E12">
+      <c r="E12" t="n">
         <v>14632.992</v>
       </c>
-      <c r="F12">
+      <c r="F12" t="n">
         <v>16255.368</v>
       </c>
-      <c r="G12">
+      <c r="G12" t="n">
         <v>19401.956</v>
       </c>
-      <c r="H12">
+      <c r="H12" t="n">
         <v>23586.772</v>
       </c>
-      <c r="I12">
+      <c r="I12" t="n">
         <v>29299.014</v>
       </c>
-      <c r="J12">
+      <c r="J12" t="n">
         <v>37135.714</v>
       </c>
-      <c r="K12">
+      <c r="K12" t="n">
         <v>44977.201</v>
       </c>
-      <c r="L12">
+      <c r="L12" t="n">
         <v>52850.562</v>
       </c>
-      <c r="M12">
+      <c r="M12" t="n">
         <v>61095</v>
       </c>
-      <c r="N12">
+      <c r="N12" t="n">
         <v>61722</v>
       </c>
-      <c r="O12">
+      <c r="O12" t="n">
         <v>62349</v>
       </c>
-      <c r="P12">
+      <c r="P12" t="n">
         <v>62975</v>
       </c>
-      <c r="Q12">
+      <c r="Q12" t="n">
         <v>63602</v>
       </c>
-      <c r="R12">
+      <c r="R12" t="n">
         <v>64229</v>
       </c>
-      <c r="S12">
+      <c r="S12" t="n">
         <v>64752</v>
       </c>
-      <c r="T12">
+      <c r="T12" t="n">
         <v>65275</v>
       </c>
-      <c r="U12">
+      <c r="U12" t="n">
         <v>65798</v>
       </c>
-      <c r="V12">
+      <c r="V12" t="n">
         <v>66322</v>
       </c>
-      <c r="W12">
+      <c r="W12" t="n">
         <v>66845</v>
       </c>
-      <c r="X12">
+      <c r="X12" t="n">
         <v>67268</v>
       </c>
-      <c r="Y12">
+      <c r="Y12" t="n">
         <v>67692</v>
       </c>
-      <c r="Z12">
+      <c r="Z12" t="n">
         <v>68115</v>
       </c>
-      <c r="AA12">
+      <c r="AA12" t="n">
         <v>68538</v>
       </c>
-      <c r="AB12">
+      <c r="AB12" t="n">
         <v>68962</v>
       </c>
-      <c r="AC12">
+      <c r="AC12" t="n">
         <v>69300</v>
       </c>
-      <c r="AD12">
+      <c r="AD12" t="n">
         <v>69638</v>
       </c>
-      <c r="AE12">
+      <c r="AE12" t="n">
         <v>69976</v>
       </c>
-      <c r="AF12">
+      <c r="AF12" t="n">
         <v>70314</v>
       </c>
-      <c r="AG12">
+      <c r="AG12" t="n">
         <v>70652</v>
       </c>
-      <c r="AH12">
+      <c r="AH12" t="n">
         <v>70911</v>
       </c>
-      <c r="AI12">
+      <c r="AI12" t="n">
         <v>71170</v>
       </c>
-      <c r="AJ12">
+      <c r="AJ12" t="n">
         <v>71429</v>
       </c>
-      <c r="AK12">
+      <c r="AK12" t="n">
         <v>71689</v>
       </c>
-      <c r="AL12">
+      <c r="AL12" t="n">
         <v>71948</v>
       </c>
     </row>
-    <row r="13" spans="1:38">
-      <c r="A13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13">
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Madhya Pradesh</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
         <v>16860.768</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="n">
         <v>19440.965</v>
       </c>
-      <c r="D13">
+      <c r="D13" t="n">
         <v>19171.75</v>
       </c>
-      <c r="E13">
+      <c r="E13" t="n">
         <v>21355.657</v>
       </c>
-      <c r="F13">
+      <c r="F13" t="n">
         <v>23990.608</v>
       </c>
-      <c r="G13">
+      <c r="G13" t="n">
         <v>18614.931</v>
       </c>
-      <c r="H13">
+      <c r="H13" t="n">
         <v>32372.408</v>
       </c>
-      <c r="I13">
+      <c r="I13" t="n">
         <v>41654.119</v>
       </c>
-      <c r="J13">
+      <c r="J13" t="n">
         <v>52178.844</v>
       </c>
-      <c r="K13">
+      <c r="K13" t="n">
         <v>48566.242</v>
       </c>
-      <c r="L13">
+      <c r="L13" t="n">
         <v>60348.023</v>
       </c>
-      <c r="M13">
+      <c r="M13" t="n">
         <v>72627</v>
       </c>
-      <c r="N13">
+      <c r="N13" t="n">
         <v>73863</v>
       </c>
-      <c r="O13">
+      <c r="O13" t="n">
         <v>75099</v>
       </c>
-      <c r="P13">
+      <c r="P13" t="n">
         <v>76334</v>
       </c>
-      <c r="Q13">
+      <c r="Q13" t="n">
         <v>77570</v>
       </c>
-      <c r="R13">
+      <c r="R13" t="n">
         <v>78806</v>
       </c>
-      <c r="S13">
+      <c r="S13" t="n">
         <v>79948</v>
       </c>
-      <c r="T13">
+      <c r="T13" t="n">
         <v>81090</v>
       </c>
-      <c r="U13">
+      <c r="U13" t="n">
         <v>82232</v>
       </c>
-      <c r="V13">
+      <c r="V13" t="n">
         <v>83374</v>
       </c>
-      <c r="W13">
+      <c r="W13" t="n">
         <v>84516</v>
       </c>
-      <c r="X13">
+      <c r="X13" t="n">
         <v>85548</v>
       </c>
-      <c r="Y13">
+      <c r="Y13" t="n">
         <v>86579</v>
       </c>
-      <c r="Z13">
+      <c r="Z13" t="n">
         <v>87610</v>
       </c>
-      <c r="AA13">
+      <c r="AA13" t="n">
         <v>88641</v>
       </c>
-      <c r="AB13">
+      <c r="AB13" t="n">
         <v>89673</v>
       </c>
-      <c r="AC13">
+      <c r="AC13" t="n">
         <v>90549</v>
       </c>
-      <c r="AD13">
+      <c r="AD13" t="n">
         <v>91426</v>
       </c>
-      <c r="AE13">
+      <c r="AE13" t="n">
         <v>92303</v>
       </c>
-      <c r="AF13">
+      <c r="AF13" t="n">
         <v>93180</v>
       </c>
-      <c r="AG13">
+      <c r="AG13" t="n">
         <v>94057</v>
       </c>
-      <c r="AH13">
+      <c r="AH13" t="n">
         <v>94806</v>
       </c>
-      <c r="AI13">
+      <c r="AI13" t="n">
         <v>95556</v>
       </c>
-      <c r="AJ13">
+      <c r="AJ13" t="n">
         <v>96305</v>
       </c>
-      <c r="AK13">
+      <c r="AK13" t="n">
         <v>97055</v>
       </c>
-      <c r="AL13">
+      <c r="AL13" t="n">
         <v>97804</v>
       </c>
     </row>
-    <row r="14" spans="1:38">
-      <c r="A14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14">
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Andaman and Nicobar Islands</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
         <v>24.649</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="n">
         <v>26.459</v>
       </c>
-      <c r="D14">
+      <c r="D14" t="n">
         <v>27.086</v>
       </c>
-      <c r="E14">
+      <c r="E14" t="n">
         <v>29.463</v>
       </c>
-      <c r="F14">
+      <c r="F14" t="n">
         <v>33.768</v>
       </c>
-      <c r="G14">
+      <c r="G14" t="n">
         <v>30.971</v>
       </c>
-      <c r="H14">
+      <c r="H14" t="n">
         <v>63.548</v>
       </c>
-      <c r="I14">
+      <c r="I14" t="n">
         <v>115.133</v>
       </c>
-      <c r="J14">
+      <c r="J14" t="n">
         <v>188.741</v>
       </c>
-      <c r="K14">
+      <c r="K14" t="n">
         <v>280.661</v>
       </c>
-      <c r="L14">
+      <c r="L14" t="n">
         <v>356.152</v>
       </c>
-      <c r="M14">
+      <c r="M14" t="n">
         <v>381</v>
       </c>
-      <c r="N14">
+      <c r="N14" t="n">
         <v>383</v>
       </c>
-      <c r="O14">
+      <c r="O14" t="n">
         <v>385</v>
       </c>
-      <c r="P14">
+      <c r="P14" t="n">
         <v>387</v>
       </c>
-      <c r="Q14">
+      <c r="Q14" t="n">
         <v>390</v>
       </c>
-      <c r="R14">
+      <c r="R14" t="n">
         <v>392</v>
       </c>
-      <c r="S14">
+      <c r="S14" t="n">
         <v>394</v>
       </c>
-      <c r="T14">
+      <c r="T14" t="n">
         <v>395</v>
       </c>
-      <c r="U14">
+      <c r="U14" t="n">
         <v>397</v>
       </c>
-      <c r="V14">
+      <c r="V14" t="n">
         <v>399</v>
       </c>
-      <c r="W14">
+      <c r="W14" t="n">
         <v>400</v>
       </c>
-      <c r="X14">
+      <c r="X14" t="n">
         <v>402</v>
       </c>
-      <c r="Y14">
+      <c r="Y14" t="n">
         <v>403</v>
       </c>
-      <c r="Z14">
+      <c r="Z14" t="n">
         <v>404</v>
       </c>
-      <c r="AA14">
+      <c r="AA14" t="n">
         <v>405</v>
       </c>
-      <c r="AB14">
+      <c r="AB14" t="n">
         <v>406</v>
       </c>
-      <c r="AC14">
+      <c r="AC14" t="n">
         <v>407</v>
       </c>
-      <c r="AD14">
+      <c r="AD14" t="n">
         <v>408</v>
       </c>
-      <c r="AE14">
+      <c r="AE14" t="n">
         <v>409</v>
       </c>
-      <c r="AF14">
+      <c r="AF14" t="n">
         <v>410</v>
       </c>
-      <c r="AG14">
+      <c r="AG14" t="n">
         <v>410</v>
       </c>
-      <c r="AH14">
+      <c r="AH14" t="n">
         <v>411</v>
       </c>
-      <c r="AI14">
+      <c r="AI14" t="n">
         <v>412</v>
       </c>
-      <c r="AJ14">
+      <c r="AJ14" t="n">
         <v>412</v>
       </c>
-      <c r="AK14">
+      <c r="AK14" t="n">
         <v>413</v>
       </c>
-      <c r="AL14">
+      <c r="AL14" t="n">
         <v>413</v>
       </c>
     </row>
-    <row r="15" spans="1:38">
-      <c r="A15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15">
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Himachal Pradesh</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
         <v>1920.294</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="n">
         <v>1896.944</v>
       </c>
-      <c r="D15">
+      <c r="D15" t="n">
         <v>1928.206</v>
       </c>
-      <c r="E15">
+      <c r="E15" t="n">
         <v>2029.113</v>
       </c>
-      <c r="F15">
+      <c r="F15" t="n">
         <v>2263.245</v>
       </c>
-      <c r="G15">
+      <c r="G15" t="n">
         <v>2385.981</v>
       </c>
-      <c r="H15">
+      <c r="H15" t="n">
         <v>2812.463</v>
       </c>
-      <c r="I15">
+      <c r="I15" t="n">
         <v>3460.434</v>
       </c>
-      <c r="J15">
+      <c r="J15" t="n">
         <v>4280.818</v>
       </c>
-      <c r="K15">
+      <c r="K15" t="n">
         <v>5170.877</v>
       </c>
-      <c r="L15">
+      <c r="L15" t="n">
         <v>6077.900000000001</v>
       </c>
-      <c r="M15">
+      <c r="M15" t="n">
         <v>6865</v>
       </c>
-      <c r="N15">
+      <c r="N15" t="n">
         <v>6923</v>
       </c>
-      <c r="O15">
+      <c r="O15" t="n">
         <v>6982</v>
       </c>
-      <c r="P15">
+      <c r="P15" t="n">
         <v>7041</v>
       </c>
-      <c r="Q15">
+      <c r="Q15" t="n">
         <v>7100</v>
       </c>
-      <c r="R15">
+      <c r="R15" t="n">
         <v>7158</v>
       </c>
-      <c r="S15">
+      <c r="S15" t="n">
         <v>7206</v>
       </c>
-      <c r="T15">
+      <c r="T15" t="n">
         <v>7253</v>
       </c>
-      <c r="U15">
+      <c r="U15" t="n">
         <v>7300</v>
       </c>
-      <c r="V15">
+      <c r="V15" t="n">
         <v>7347</v>
       </c>
-      <c r="W15">
+      <c r="W15" t="n">
         <v>7394</v>
       </c>
-      <c r="X15">
+      <c r="X15" t="n">
         <v>7431</v>
       </c>
-      <c r="Y15">
+      <c r="Y15" t="n">
         <v>7468</v>
       </c>
-      <c r="Z15">
+      <c r="Z15" t="n">
         <v>7505</v>
       </c>
-      <c r="AA15">
+      <c r="AA15" t="n">
         <v>7542</v>
       </c>
-      <c r="AB15">
+      <c r="AB15" t="n">
         <v>7579</v>
       </c>
-      <c r="AC15">
+      <c r="AC15" t="n">
         <v>7606</v>
       </c>
-      <c r="AD15">
+      <c r="AD15" t="n">
         <v>7632</v>
       </c>
-      <c r="AE15">
+      <c r="AE15" t="n">
         <v>7659</v>
       </c>
-      <c r="AF15">
+      <c r="AF15" t="n">
         <v>7685</v>
       </c>
-      <c r="AG15">
+      <c r="AG15" t="n">
         <v>7712</v>
       </c>
-      <c r="AH15">
+      <c r="AH15" t="n">
         <v>7727</v>
       </c>
-      <c r="AI15">
+      <c r="AI15" t="n">
         <v>7741</v>
       </c>
-      <c r="AJ15">
+      <c r="AJ15" t="n">
         <v>7756</v>
       </c>
-      <c r="AK15">
+      <c r="AK15" t="n">
         <v>7770</v>
       </c>
-      <c r="AL15">
+      <c r="AL15" t="n">
         <v>7785</v>
       </c>
     </row>
-    <row r="16" spans="1:38">
-      <c r="A16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16">
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Goa</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
         <v>475.513</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="n">
         <v>486.752</v>
       </c>
-      <c r="D16">
+      <c r="D16" t="n">
         <v>469.494</v>
       </c>
-      <c r="E16">
+      <c r="E16" t="n">
         <v>505.281</v>
       </c>
-      <c r="F16">
+      <c r="F16" t="n">
         <v>540.925</v>
       </c>
-      <c r="G16">
+      <c r="G16" t="n">
         <v>547.448</v>
       </c>
-      <c r="H16">
+      <c r="H16" t="n">
         <v>589.997</v>
       </c>
-      <c r="I16">
+      <c r="I16" t="n">
         <v>795.12</v>
       </c>
-      <c r="J16">
+      <c r="J16" t="n">
         <v>1007.749</v>
       </c>
-      <c r="K16">
+      <c r="K16" t="n">
         <v>1169.793</v>
       </c>
-      <c r="L16">
+      <c r="L16" t="n">
         <v>1347.668</v>
       </c>
-      <c r="M16">
+      <c r="M16" t="n">
         <v>1459</v>
       </c>
-      <c r="N16">
+      <c r="N16" t="n">
         <v>1469</v>
       </c>
-      <c r="O16">
+      <c r="O16" t="n">
         <v>1480</v>
       </c>
-      <c r="P16">
+      <c r="P16" t="n">
         <v>1491</v>
       </c>
-      <c r="Q16">
+      <c r="Q16" t="n">
         <v>1501</v>
       </c>
-      <c r="R16">
+      <c r="R16" t="n">
         <v>1512</v>
       </c>
-      <c r="S16">
+      <c r="S16" t="n">
         <v>1521</v>
       </c>
-      <c r="T16">
+      <c r="T16" t="n">
         <v>1531</v>
       </c>
-      <c r="U16">
+      <c r="U16" t="n">
         <v>1540</v>
       </c>
-      <c r="V16">
+      <c r="V16" t="n">
         <v>1549</v>
       </c>
-      <c r="W16">
+      <c r="W16" t="n">
         <v>1559</v>
       </c>
-      <c r="X16">
+      <c r="X16" t="n">
         <v>1567</v>
       </c>
-      <c r="Y16">
+      <c r="Y16" t="n">
         <v>1575</v>
       </c>
-      <c r="Z16">
+      <c r="Z16" t="n">
         <v>1583</v>
       </c>
-      <c r="AA16">
+      <c r="AA16" t="n">
         <v>1591</v>
       </c>
-      <c r="AB16">
+      <c r="AB16" t="n">
         <v>1599</v>
       </c>
-      <c r="AC16">
+      <c r="AC16" t="n">
         <v>1606</v>
       </c>
-      <c r="AD16">
+      <c r="AD16" t="n">
         <v>1613</v>
       </c>
-      <c r="AE16">
+      <c r="AE16" t="n">
         <v>1620</v>
       </c>
-      <c r="AF16">
+      <c r="AF16" t="n">
         <v>1626</v>
       </c>
-      <c r="AG16">
+      <c r="AG16" t="n">
         <v>1633</v>
       </c>
-      <c r="AH16">
+      <c r="AH16" t="n">
         <v>1639</v>
       </c>
-      <c r="AI16">
+      <c r="AI16" t="n">
         <v>1645</v>
       </c>
-      <c r="AJ16">
+      <c r="AJ16" t="n">
         <v>1651</v>
       </c>
-      <c r="AK16">
+      <c r="AK16" t="n">
         <v>1657</v>
       </c>
-      <c r="AL16">
+      <c r="AL16" t="n">
         <v>1663</v>
       </c>
     </row>
-    <row r="17" spans="1:38">
-      <c r="A17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17">
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Lakshadweep</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
         <v>13.882</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="n">
         <v>14.555</v>
       </c>
-      <c r="D17">
+      <c r="D17" t="n">
         <v>13.637</v>
       </c>
-      <c r="E17">
+      <c r="E17" t="n">
         <v>16.04</v>
       </c>
-      <c r="F17">
+      <c r="F17" t="n">
         <v>18.355</v>
       </c>
-      <c r="G17">
+      <c r="G17" t="n">
         <v>21.035</v>
       </c>
-      <c r="H17">
+      <c r="H17" t="n">
         <v>24.108</v>
       </c>
-      <c r="I17">
+      <c r="I17" t="n">
         <v>31.81</v>
       </c>
-      <c r="J17">
+      <c r="J17" t="n">
         <v>40.249</v>
       </c>
-      <c r="K17">
+      <c r="K17" t="n">
         <v>51.707</v>
       </c>
-      <c r="L17">
+      <c r="L17" t="n">
         <v>60.65</v>
       </c>
-      <c r="M17">
+      <c r="M17" t="n">
         <v>64</v>
       </c>
-      <c r="N17">
+      <c r="N17" t="n">
         <v>65</v>
       </c>
-      <c r="O17">
+      <c r="O17" t="n">
         <v>65</v>
       </c>
-      <c r="P17">
+      <c r="P17" t="n">
         <v>66</v>
       </c>
-      <c r="Q17">
+      <c r="Q17" t="n">
         <v>66</v>
       </c>
-      <c r="R17">
+      <c r="R17" t="n">
         <v>67</v>
       </c>
-      <c r="S17">
+      <c r="S17" t="n">
         <v>67</v>
       </c>
-      <c r="T17">
+      <c r="T17" t="n">
         <v>67</v>
       </c>
-      <c r="U17">
+      <c r="U17" t="n">
         <v>68</v>
       </c>
-      <c r="V17">
+      <c r="V17" t="n">
         <v>68</v>
       </c>
-      <c r="W17">
+      <c r="W17" t="n">
         <v>68</v>
       </c>
-      <c r="X17">
+      <c r="X17" t="n">
         <v>68</v>
       </c>
-      <c r="Y17">
+      <c r="Y17" t="n">
         <v>69</v>
       </c>
-      <c r="Z17">
+      <c r="Z17" t="n">
         <v>69</v>
       </c>
-      <c r="AA17">
+      <c r="AA17" t="n">
         <v>69</v>
       </c>
-      <c r="AB17">
+      <c r="AB17" t="n">
         <v>70</v>
       </c>
-      <c r="AC17">
+      <c r="AC17" t="n">
         <v>70</v>
       </c>
-      <c r="AD17">
+      <c r="AD17" t="n">
         <v>70</v>
       </c>
-      <c r="AE17">
+      <c r="AE17" t="n">
         <v>70</v>
       </c>
-      <c r="AF17">
+      <c r="AF17" t="n">
         <v>70</v>
       </c>
-      <c r="AG17">
+      <c r="AG17" t="n">
         <v>71</v>
       </c>
-      <c r="AH17">
+      <c r="AH17" t="n">
         <v>71</v>
       </c>
-      <c r="AI17">
+      <c r="AI17" t="n">
         <v>71</v>
       </c>
-      <c r="AJ17">
+      <c r="AJ17" t="n">
         <v>71</v>
       </c>
-      <c r="AK17">
+      <c r="AK17" t="n">
         <v>71</v>
       </c>
-      <c r="AL17">
+      <c r="AL17" t="n">
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:38">
-      <c r="A18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18">
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>West Bengal</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
         <v>16940.088</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="n">
         <v>17998.769</v>
       </c>
-      <c r="D18">
+      <c r="D18" t="n">
         <v>17474.348</v>
       </c>
-      <c r="E18">
+      <c r="E18" t="n">
         <v>18897.036</v>
       </c>
-      <c r="F18">
+      <c r="F18" t="n">
         <v>23229.552</v>
       </c>
-      <c r="G18">
+      <c r="G18" t="n">
         <v>26299.98</v>
       </c>
-      <c r="H18">
+      <c r="H18" t="n">
         <v>34926.279</v>
       </c>
-      <c r="I18">
+      <c r="I18" t="n">
         <v>44312.011</v>
       </c>
-      <c r="J18">
+      <c r="J18" t="n">
         <v>54580.647</v>
       </c>
-      <c r="K18">
+      <c r="K18" t="n">
         <v>68077.965</v>
       </c>
-      <c r="L18">
+      <c r="L18" t="n">
         <v>80176.197</v>
       </c>
-      <c r="M18">
+      <c r="M18" t="n">
         <v>91276</v>
       </c>
-      <c r="N18">
+      <c r="N18" t="n">
         <v>92037</v>
       </c>
-      <c r="O18">
+      <c r="O18" t="n">
         <v>92797</v>
       </c>
-      <c r="P18">
+      <c r="P18" t="n">
         <v>93558</v>
       </c>
-      <c r="Q18">
+      <c r="Q18" t="n">
         <v>94318</v>
       </c>
-      <c r="R18">
+      <c r="R18" t="n">
         <v>95079</v>
       </c>
-      <c r="S18">
+      <c r="S18" t="n">
         <v>95688</v>
       </c>
-      <c r="T18">
+      <c r="T18" t="n">
         <v>96297</v>
       </c>
-      <c r="U18">
+      <c r="U18" t="n">
         <v>96906</v>
       </c>
-      <c r="V18">
+      <c r="V18" t="n">
         <v>97516</v>
       </c>
-      <c r="W18">
+      <c r="W18" t="n">
         <v>98125</v>
       </c>
-      <c r="X18">
+      <c r="X18" t="n">
         <v>98604</v>
       </c>
-      <c r="Y18">
+      <c r="Y18" t="n">
         <v>99084</v>
       </c>
-      <c r="Z18">
+      <c r="Z18" t="n">
         <v>99563</v>
       </c>
-      <c r="AA18">
+      <c r="AA18" t="n">
         <v>100042</v>
       </c>
-      <c r="AB18">
+      <c r="AB18" t="n">
         <v>100522</v>
       </c>
-      <c r="AC18">
+      <c r="AC18" t="n">
         <v>100851</v>
       </c>
-      <c r="AD18">
+      <c r="AD18" t="n">
         <v>101180</v>
       </c>
-      <c r="AE18">
+      <c r="AE18" t="n">
         <v>101509</v>
       </c>
-      <c r="AF18">
+      <c r="AF18" t="n">
         <v>101838</v>
       </c>
-      <c r="AG18">
+      <c r="AG18" t="n">
         <v>102167</v>
       </c>
-      <c r="AH18">
+      <c r="AH18" t="n">
         <v>102320</v>
       </c>
-      <c r="AI18">
+      <c r="AI18" t="n">
         <v>102473</v>
       </c>
-      <c r="AJ18">
+      <c r="AJ18" t="n">
         <v>102625</v>
       </c>
-      <c r="AK18">
+      <c r="AK18" t="n">
         <v>102778</v>
       </c>
-      <c r="AL18">
+      <c r="AL18" t="n">
         <v>102931</v>
       </c>
     </row>
-    <row r="19" spans="1:38">
-      <c r="A19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19">
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Tripura</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
         <v>173.325</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="n">
         <v>229.613</v>
       </c>
-      <c r="D19">
+      <c r="D19" t="n">
         <v>304.437</v>
       </c>
-      <c r="E19">
+      <c r="E19" t="n">
         <v>382.45</v>
       </c>
-      <c r="F19">
+      <c r="F19" t="n">
         <v>513.01</v>
       </c>
-      <c r="G19">
+      <c r="G19" t="n">
         <v>639.029</v>
       </c>
-      <c r="H19">
+      <c r="H19" t="n">
         <v>1142.005</v>
       </c>
-      <c r="I19">
+      <c r="I19" t="n">
         <v>1556.342</v>
       </c>
-      <c r="J19">
+      <c r="J19" t="n">
         <v>2053.058</v>
       </c>
-      <c r="K19">
+      <c r="K19" t="n">
         <v>2757.205</v>
       </c>
-      <c r="L19">
+      <c r="L19" t="n">
         <v>3199.203</v>
       </c>
-      <c r="M19">
+      <c r="M19" t="n">
         <v>3674</v>
       </c>
-      <c r="N19">
+      <c r="N19" t="n">
         <v>3714</v>
       </c>
-      <c r="O19">
+      <c r="O19" t="n">
         <v>3754</v>
       </c>
-      <c r="P19">
+      <c r="P19" t="n">
         <v>3794</v>
       </c>
-      <c r="Q19">
+      <c r="Q19" t="n">
         <v>3834</v>
       </c>
-      <c r="R19">
+      <c r="R19" t="n">
         <v>3874</v>
       </c>
-      <c r="S19">
+      <c r="S19" t="n">
         <v>3914</v>
       </c>
-      <c r="T19">
+      <c r="T19" t="n">
         <v>3953</v>
       </c>
-      <c r="U19">
+      <c r="U19" t="n">
         <v>3992</v>
       </c>
-      <c r="V19">
+      <c r="V19" t="n">
         <v>4032</v>
       </c>
-      <c r="W19">
+      <c r="W19" t="n">
         <v>4071</v>
       </c>
-      <c r="X19">
+      <c r="X19" t="n">
         <v>4109</v>
       </c>
-      <c r="Y19">
+      <c r="Y19" t="n">
         <v>4147</v>
       </c>
-      <c r="Z19">
+      <c r="Z19" t="n">
         <v>4184</v>
       </c>
-      <c r="AA19">
+      <c r="AA19" t="n">
         <v>4222</v>
       </c>
-      <c r="AB19">
+      <c r="AB19" t="n">
         <v>4260</v>
       </c>
-      <c r="AC19">
+      <c r="AC19" t="n">
         <v>4294</v>
       </c>
-      <c r="AD19">
+      <c r="AD19" t="n">
         <v>4328</v>
       </c>
-      <c r="AE19">
+      <c r="AE19" t="n">
         <v>4362</v>
       </c>
-      <c r="AF19">
+      <c r="AF19" t="n">
         <v>4396</v>
       </c>
-      <c r="AG19">
+      <c r="AG19" t="n">
         <v>4430</v>
       </c>
-      <c r="AH19">
+      <c r="AH19" t="n">
         <v>4457</v>
       </c>
-      <c r="AI19">
+      <c r="AI19" t="n">
         <v>4484</v>
       </c>
-      <c r="AJ19">
+      <c r="AJ19" t="n">
         <v>4511</v>
       </c>
-      <c r="AK19">
+      <c r="AK19" t="n">
         <v>4538</v>
       </c>
-      <c r="AL19">
+      <c r="AL19" t="n">
         <v>4565</v>
       </c>
     </row>
-    <row r="20" spans="1:38">
-      <c r="A20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20">
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Sikkim</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
         <v>59.014</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="n">
         <v>87.92</v>
       </c>
-      <c r="D20">
+      <c r="D20" t="n">
         <v>81.721</v>
       </c>
-      <c r="E20">
+      <c r="E20" t="n">
         <v>109.808</v>
       </c>
-      <c r="F20">
+      <c r="F20" t="n">
         <v>121.52</v>
       </c>
-      <c r="G20">
+      <c r="G20" t="n">
         <v>137.725</v>
       </c>
-      <c r="H20">
+      <c r="H20" t="n">
         <v>162.189</v>
       </c>
-      <c r="I20">
+      <c r="I20" t="n">
         <v>209.843</v>
       </c>
-      <c r="J20">
+      <c r="J20" t="n">
         <v>316.385</v>
       </c>
-      <c r="K20">
+      <c r="K20" t="n">
         <v>406.457</v>
       </c>
-      <c r="L20">
+      <c r="L20" t="n">
         <v>540.851</v>
       </c>
-      <c r="M20">
+      <c r="M20" t="n">
         <v>611</v>
       </c>
-      <c r="N20">
+      <c r="N20" t="n">
         <v>617</v>
       </c>
-      <c r="O20">
+      <c r="O20" t="n">
         <v>624</v>
       </c>
-      <c r="P20">
+      <c r="P20" t="n">
         <v>631</v>
       </c>
-      <c r="Q20">
+      <c r="Q20" t="n">
         <v>637</v>
       </c>
-      <c r="R20">
+      <c r="R20" t="n">
         <v>644</v>
       </c>
-      <c r="S20">
+      <c r="S20" t="n">
         <v>650</v>
       </c>
-      <c r="T20">
+      <c r="T20" t="n">
         <v>657</v>
       </c>
-      <c r="U20">
+      <c r="U20" t="n">
         <v>664</v>
       </c>
-      <c r="V20">
+      <c r="V20" t="n">
         <v>670</v>
       </c>
-      <c r="W20">
+      <c r="W20" t="n">
         <v>677</v>
       </c>
-      <c r="X20">
+      <c r="X20" t="n">
         <v>683</v>
       </c>
-      <c r="Y20">
+      <c r="Y20" t="n">
         <v>689</v>
       </c>
-      <c r="Z20">
+      <c r="Z20" t="n">
         <v>695</v>
       </c>
-      <c r="AA20">
+      <c r="AA20" t="n">
         <v>702</v>
       </c>
-      <c r="AB20">
+      <c r="AB20" t="n">
         <v>708</v>
       </c>
-      <c r="AC20">
+      <c r="AC20" t="n">
         <v>714</v>
       </c>
-      <c r="AD20">
+      <c r="AD20" t="n">
         <v>719</v>
       </c>
-      <c r="AE20">
+      <c r="AE20" t="n">
         <v>725</v>
       </c>
-      <c r="AF20">
+      <c r="AF20" t="n">
         <v>731</v>
       </c>
-      <c r="AG20">
+      <c r="AG20" t="n">
         <v>736</v>
       </c>
-      <c r="AH20">
+      <c r="AH20" t="n">
         <v>741</v>
       </c>
-      <c r="AI20">
+      <c r="AI20" t="n">
         <v>745</v>
       </c>
-      <c r="AJ20">
+      <c r="AJ20" t="n">
         <v>750</v>
       </c>
-      <c r="AK20">
+      <c r="AK20" t="n">
         <v>754</v>
       </c>
-      <c r="AL20">
+      <c r="AL20" t="n">
         <v>759</v>
       </c>
     </row>
-    <row r="21" spans="1:38">
-      <c r="A21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21">
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>Mizoram</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
         <v>82.434</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="n">
         <v>91.20400000000001</v>
       </c>
-      <c r="D21">
+      <c r="D21" t="n">
         <v>98.40600000000001</v>
       </c>
-      <c r="E21">
+      <c r="E21" t="n">
         <v>124.404</v>
       </c>
-      <c r="F21">
+      <c r="F21" t="n">
         <v>152.786</v>
       </c>
-      <c r="G21">
+      <c r="G21" t="n">
         <v>196.202</v>
       </c>
-      <c r="H21">
+      <c r="H21" t="n">
         <v>266.063</v>
       </c>
-      <c r="I21">
+      <c r="I21" t="n">
         <v>332.39</v>
       </c>
-      <c r="J21">
+      <c r="J21" t="n">
         <v>493.757</v>
       </c>
-      <c r="K21">
+      <c r="K21" t="n">
         <v>689.756</v>
       </c>
-      <c r="L21">
+      <c r="L21" t="n">
         <v>888.573</v>
       </c>
-      <c r="M21">
+      <c r="M21" t="n">
         <v>1097</v>
       </c>
-      <c r="N21">
+      <c r="N21" t="n">
         <v>1109</v>
       </c>
-      <c r="O21">
+      <c r="O21" t="n">
         <v>1121</v>
       </c>
-      <c r="P21">
+      <c r="P21" t="n">
         <v>1133</v>
       </c>
-      <c r="Q21">
+      <c r="Q21" t="n">
         <v>1145</v>
       </c>
-      <c r="R21">
+      <c r="R21" t="n">
         <v>1157</v>
       </c>
-      <c r="S21">
+      <c r="S21" t="n">
         <v>1169</v>
       </c>
-      <c r="T21">
+      <c r="T21" t="n">
         <v>1181</v>
       </c>
-      <c r="U21">
+      <c r="U21" t="n">
         <v>1192</v>
       </c>
-      <c r="V21">
+      <c r="V21" t="n">
         <v>1204</v>
       </c>
-      <c r="W21">
+      <c r="W21" t="n">
         <v>1216</v>
       </c>
-      <c r="X21">
+      <c r="X21" t="n">
         <v>1227</v>
       </c>
-      <c r="Y21">
+      <c r="Y21" t="n">
         <v>1238</v>
       </c>
-      <c r="Z21">
+      <c r="Z21" t="n">
         <v>1250</v>
       </c>
-      <c r="AA21">
+      <c r="AA21" t="n">
         <v>1261</v>
       </c>
-      <c r="AB21">
+      <c r="AB21" t="n">
         <v>1272</v>
       </c>
-      <c r="AC21">
+      <c r="AC21" t="n">
         <v>1282</v>
       </c>
-      <c r="AD21">
+      <c r="AD21" t="n">
         <v>1293</v>
       </c>
-      <c r="AE21">
+      <c r="AE21" t="n">
         <v>1303</v>
       </c>
-      <c r="AF21">
+      <c r="AF21" t="n">
         <v>1313</v>
       </c>
-      <c r="AG21">
+      <c r="AG21" t="n">
         <v>1323</v>
       </c>
-      <c r="AH21">
+      <c r="AH21" t="n">
         <v>1331</v>
       </c>
-      <c r="AI21">
+      <c r="AI21" t="n">
         <v>1339</v>
       </c>
-      <c r="AJ21">
+      <c r="AJ21" t="n">
         <v>1347</v>
       </c>
-      <c r="AK21">
+      <c r="AK21" t="n">
         <v>1355</v>
       </c>
-      <c r="AL21">
+      <c r="AL21" t="n">
         <v>1363</v>
       </c>
     </row>
-    <row r="22" spans="1:38">
-      <c r="A22" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22">
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Maharashtra</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
         <v>19391.643</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="n">
         <v>21474.523</v>
       </c>
-      <c r="D22">
+      <c r="D22" t="n">
         <v>20849.666</v>
       </c>
-      <c r="E22">
+      <c r="E22" t="n">
         <v>23959.3</v>
       </c>
-      <c r="F22">
+      <c r="F22" t="n">
         <v>26832.758</v>
       </c>
-      <c r="G22">
+      <c r="G22" t="n">
         <v>32002.564</v>
       </c>
-      <c r="H22">
+      <c r="H22" t="n">
         <v>39553.718</v>
       </c>
-      <c r="I22">
+      <c r="I22" t="n">
         <v>50412.235</v>
       </c>
-      <c r="J22">
+      <c r="J22" t="n">
         <v>62782.818</v>
       </c>
-      <c r="K22">
+      <c r="K22" t="n">
         <v>78937.18700000001</v>
       </c>
-      <c r="L22">
+      <c r="L22" t="n">
         <v>96878.62700000001</v>
       </c>
-      <c r="M22">
+      <c r="M22" t="n">
         <v>112374</v>
       </c>
-      <c r="N22">
+      <c r="N22" t="n">
         <v>113645</v>
       </c>
-      <c r="O22">
+      <c r="O22" t="n">
         <v>114915</v>
       </c>
-      <c r="P22">
+      <c r="P22" t="n">
         <v>116186</v>
       </c>
-      <c r="Q22">
+      <c r="Q22" t="n">
         <v>117456</v>
       </c>
-      <c r="R22">
+      <c r="R22" t="n">
         <v>118727</v>
       </c>
-      <c r="S22">
+      <c r="S22" t="n">
         <v>119869</v>
       </c>
-      <c r="T22">
+      <c r="T22" t="n">
         <v>121011</v>
       </c>
-      <c r="U22">
+      <c r="U22" t="n">
         <v>122153</v>
       </c>
-      <c r="V22">
+      <c r="V22" t="n">
         <v>123295</v>
       </c>
-      <c r="W22">
+      <c r="W22" t="n">
         <v>124437</v>
       </c>
-      <c r="X22">
+      <c r="X22" t="n">
         <v>125411</v>
       </c>
-      <c r="Y22">
+      <c r="Y22" t="n">
         <v>126385</v>
       </c>
-      <c r="Z22">
+      <c r="Z22" t="n">
         <v>127360</v>
       </c>
-      <c r="AA22">
+      <c r="AA22" t="n">
         <v>128334</v>
       </c>
-      <c r="AB22">
+      <c r="AB22" t="n">
         <v>129308</v>
       </c>
-      <c r="AC22">
+      <c r="AC22" t="n">
         <v>130137</v>
       </c>
-      <c r="AD22">
+      <c r="AD22" t="n">
         <v>130965</v>
       </c>
-      <c r="AE22">
+      <c r="AE22" t="n">
         <v>131794</v>
       </c>
-      <c r="AF22">
+      <c r="AF22" t="n">
         <v>132622</v>
       </c>
-      <c r="AG22">
+      <c r="AG22" t="n">
         <v>133451</v>
       </c>
-      <c r="AH22">
+      <c r="AH22" t="n">
         <v>134114</v>
       </c>
-      <c r="AI22">
+      <c r="AI22" t="n">
         <v>134776</v>
       </c>
-      <c r="AJ22">
+      <c r="AJ22" t="n">
         <v>135439</v>
       </c>
-      <c r="AK22">
+      <c r="AK22" t="n">
         <v>136101</v>
       </c>
-      <c r="AL22">
+      <c r="AL22" t="n">
         <v>136764</v>
       </c>
     </row>
-    <row r="23" spans="1:38">
-      <c r="A23" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G23">
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>Chhattisgarh</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="n">
         <v>7456.706</v>
       </c>
-      <c r="K23">
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="n">
         <v>17614.928</v>
       </c>
-      <c r="L23">
+      <c r="L23" t="n">
         <v>20833.803</v>
       </c>
-      <c r="M23">
+      <c r="M23" t="n">
         <v>25545</v>
       </c>
-      <c r="N23">
+      <c r="N23" t="n">
         <v>25950</v>
       </c>
-      <c r="O23">
+      <c r="O23" t="n">
         <v>26356</v>
       </c>
-      <c r="P23">
+      <c r="P23" t="n">
         <v>26761</v>
       </c>
-      <c r="Q23">
+      <c r="Q23" t="n">
         <v>27166</v>
       </c>
-      <c r="R23">
+      <c r="R23" t="n">
         <v>27571</v>
       </c>
-      <c r="S23">
+      <c r="S23" t="n">
         <v>27956</v>
       </c>
-      <c r="T23">
+      <c r="T23" t="n">
         <v>28340</v>
       </c>
-      <c r="U23">
+      <c r="U23" t="n">
         <v>28724</v>
       </c>
-      <c r="V23">
+      <c r="V23" t="n">
         <v>29109</v>
       </c>
-      <c r="W23">
+      <c r="W23" t="n">
         <v>29493</v>
       </c>
-      <c r="X23">
+      <c r="X23" t="n">
         <v>29836</v>
       </c>
-      <c r="Y23">
+      <c r="Y23" t="n">
         <v>30180</v>
       </c>
-      <c r="Z23">
+      <c r="Z23" t="n">
         <v>30524</v>
       </c>
-      <c r="AA23">
+      <c r="AA23" t="n">
         <v>30867</v>
       </c>
-      <c r="AB23">
+      <c r="AB23" t="n">
         <v>31211</v>
       </c>
-      <c r="AC23">
+      <c r="AC23" t="n">
         <v>31512</v>
       </c>
-      <c r="AD23">
+      <c r="AD23" t="n">
         <v>31814</v>
       </c>
-      <c r="AE23">
+      <c r="AE23" t="n">
         <v>32116</v>
       </c>
-      <c r="AF23">
+      <c r="AF23" t="n">
         <v>32417</v>
       </c>
-      <c r="AG23">
+      <c r="AG23" t="n">
         <v>32719</v>
       </c>
-      <c r="AH23">
+      <c r="AH23" t="n">
         <v>32991</v>
       </c>
-      <c r="AI23">
+      <c r="AI23" t="n">
         <v>33264</v>
       </c>
-      <c r="AJ23">
+      <c r="AJ23" t="n">
         <v>33536</v>
       </c>
-      <c r="AK23">
+      <c r="AK23" t="n">
         <v>33809</v>
       </c>
-      <c r="AL23">
+      <c r="AL23" t="n">
         <v>34081</v>
       </c>
     </row>
-    <row r="24" spans="1:38">
-      <c r="A24" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24">
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>Haryana</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
         <v>4623.064</v>
       </c>
-      <c r="C24">
+      <c r="C24" t="n">
         <v>4174.677</v>
       </c>
-      <c r="D24">
+      <c r="D24" t="n">
         <v>4255.892</v>
       </c>
-      <c r="E24">
+      <c r="E24" t="n">
         <v>4559.917</v>
       </c>
-      <c r="F24">
+      <c r="F24" t="n">
         <v>5272.829</v>
       </c>
-      <c r="G24">
+      <c r="G24" t="n">
         <v>5673.597</v>
       </c>
-      <c r="H24">
+      <c r="H24" t="n">
         <v>7590.524</v>
       </c>
-      <c r="I24">
+      <c r="I24" t="n">
         <v>10036.431</v>
       </c>
-      <c r="J24">
+      <c r="J24" t="n">
         <v>12922.119</v>
       </c>
-      <c r="K24">
+      <c r="K24" t="n">
         <v>16463.648</v>
       </c>
-      <c r="L24">
+      <c r="L24" t="n">
         <v>21144.564</v>
       </c>
-      <c r="M24">
+      <c r="M24" t="n">
         <v>25351</v>
       </c>
-      <c r="N24">
+      <c r="N24" t="n">
         <v>25772</v>
       </c>
-      <c r="O24">
+      <c r="O24" t="n">
         <v>26193</v>
       </c>
-      <c r="P24">
+      <c r="P24" t="n">
         <v>26614</v>
       </c>
-      <c r="Q24">
+      <c r="Q24" t="n">
         <v>27034</v>
       </c>
-      <c r="R24">
+      <c r="R24" t="n">
         <v>27455</v>
       </c>
-      <c r="S24">
+      <c r="S24" t="n">
         <v>27861</v>
       </c>
-      <c r="T24">
+      <c r="T24" t="n">
         <v>28266</v>
       </c>
-      <c r="U24">
+      <c r="U24" t="n">
         <v>28672</v>
       </c>
-      <c r="V24">
+      <c r="V24" t="n">
         <v>29077</v>
       </c>
-      <c r="W24">
+      <c r="W24" t="n">
         <v>29483</v>
       </c>
-      <c r="X24">
+      <c r="X24" t="n">
         <v>29846</v>
       </c>
-      <c r="Y24">
+      <c r="Y24" t="n">
         <v>30209</v>
       </c>
-      <c r="Z24">
+      <c r="Z24" t="n">
         <v>30573</v>
       </c>
-      <c r="AA24">
+      <c r="AA24" t="n">
         <v>30936</v>
       </c>
-      <c r="AB24">
+      <c r="AB24" t="n">
         <v>31299</v>
       </c>
-      <c r="AC24">
+      <c r="AC24" t="n">
         <v>31629</v>
       </c>
-      <c r="AD24">
+      <c r="AD24" t="n">
         <v>31958</v>
       </c>
-      <c r="AE24">
+      <c r="AE24" t="n">
         <v>32287</v>
       </c>
-      <c r="AF24">
+      <c r="AF24" t="n">
         <v>32616</v>
       </c>
-      <c r="AG24">
+      <c r="AG24" t="n">
         <v>32946</v>
       </c>
-      <c r="AH24">
+      <c r="AH24" t="n">
         <v>33250</v>
       </c>
-      <c r="AI24">
+      <c r="AI24" t="n">
         <v>33555</v>
       </c>
-      <c r="AJ24">
+      <c r="AJ24" t="n">
         <v>33860</v>
       </c>
-      <c r="AK24">
+      <c r="AK24" t="n">
         <v>34164</v>
       </c>
-      <c r="AL24">
+      <c r="AL24" t="n">
         <v>34469</v>
       </c>
     </row>
-    <row r="25" spans="1:38">
-      <c r="A25" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25">
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Jammu and Kashmir</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
         <v>2139.362</v>
       </c>
-      <c r="C25">
+      <c r="C25" t="n">
         <v>2292.535</v>
       </c>
-      <c r="D25">
+      <c r="D25" t="n">
         <v>2424.359</v>
       </c>
-      <c r="E25">
+      <c r="E25" t="n">
         <v>2670.208</v>
       </c>
-      <c r="F25">
+      <c r="F25" t="n">
         <v>2946.728</v>
       </c>
-      <c r="G25">
+      <c r="G25" t="n">
         <v>3253.852</v>
       </c>
-      <c r="H25">
+      <c r="H25" t="n">
         <v>3560.976</v>
       </c>
-      <c r="I25">
+      <c r="I25" t="n">
         <v>4616.632000000001</v>
       </c>
-      <c r="J25">
+      <c r="J25" t="n">
         <v>5987.389</v>
       </c>
-      <c r="K25">
+      <c r="K25" t="n">
         <v>7837.051</v>
       </c>
-      <c r="L25">
+      <c r="L25" t="n">
         <v>10143.7</v>
       </c>
-      <c r="M25">
+      <c r="M25" t="n">
         <v>12267</v>
       </c>
-      <c r="N25">
+      <c r="N25" t="n">
         <v>12393</v>
       </c>
-      <c r="O25">
+      <c r="O25" t="n">
         <v>12519</v>
       </c>
-      <c r="P25">
+      <c r="P25" t="n">
         <v>12645</v>
       </c>
-      <c r="Q25">
+      <c r="Q25" t="n">
         <v>12771</v>
       </c>
-      <c r="R25">
+      <c r="R25" t="n">
         <v>12897</v>
       </c>
-      <c r="S25">
+      <c r="S25" t="n">
         <v>12999</v>
       </c>
-      <c r="T25">
+      <c r="T25" t="n">
         <v>13101</v>
       </c>
-      <c r="U25">
+      <c r="U25" t="n">
         <v>13203</v>
       </c>
-      <c r="V25">
+      <c r="V25" t="n">
         <v>13305</v>
       </c>
-      <c r="W25">
+      <c r="W25" t="n">
         <v>13408</v>
       </c>
-      <c r="X25">
+      <c r="X25" t="n">
         <v>13505</v>
       </c>
-      <c r="Y25">
+      <c r="Y25" t="n">
         <v>13603</v>
       </c>
-      <c r="Z25">
+      <c r="Z25" t="n">
         <v>13701</v>
       </c>
-      <c r="AA25">
+      <c r="AA25" t="n">
         <v>13798</v>
       </c>
-      <c r="AB25">
+      <c r="AB25" t="n">
         <v>13896</v>
       </c>
-      <c r="AC25">
+      <c r="AC25" t="n">
         <v>13989</v>
       </c>
-      <c r="AD25">
+      <c r="AD25" t="n">
         <v>14082</v>
       </c>
-      <c r="AE25">
+      <c r="AE25" t="n">
         <v>14175</v>
       </c>
-      <c r="AF25">
+      <c r="AF25" t="n">
         <v>14268</v>
       </c>
-      <c r="AG25">
+      <c r="AG25" t="n">
         <v>14361</v>
       </c>
-      <c r="AH25">
+      <c r="AH25" t="n">
         <v>14438</v>
       </c>
-      <c r="AI25">
+      <c r="AI25" t="n">
         <v>14515</v>
       </c>
-      <c r="AJ25">
+      <c r="AJ25" t="n">
         <v>14593</v>
       </c>
-      <c r="AK25">
+      <c r="AK25" t="n">
         <v>14670</v>
       </c>
-      <c r="AL25">
+      <c r="AL25" t="n">
         <v>14747</v>
       </c>
     </row>
-    <row r="26" spans="1:38">
-      <c r="A26" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26">
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>Meghalaya</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
         <v>340.524</v>
       </c>
-      <c r="C26">
+      <c r="C26" t="n">
         <v>394.005</v>
       </c>
-      <c r="D26">
+      <c r="D26" t="n">
         <v>422.403</v>
       </c>
-      <c r="E26">
+      <c r="E26" t="n">
         <v>480.837</v>
       </c>
-      <c r="F26">
+      <c r="F26" t="n">
         <v>555.8200000000001</v>
       </c>
-      <c r="G26">
+      <c r="G26" t="n">
         <v>605.674</v>
       </c>
-      <c r="H26">
+      <c r="H26" t="n">
         <v>769.38</v>
       </c>
-      <c r="I26">
+      <c r="I26" t="n">
         <v>1011.699</v>
       </c>
-      <c r="J26">
+      <c r="J26" t="n">
         <v>1335.819</v>
       </c>
-      <c r="K26">
+      <c r="K26" t="n">
         <v>1774.778</v>
       </c>
-      <c r="L26">
+      <c r="L26" t="n">
         <v>2318.822</v>
       </c>
-      <c r="M26">
+      <c r="M26" t="n">
         <v>2967</v>
       </c>
-      <c r="N26">
+      <c r="N26" t="n">
         <v>2999</v>
       </c>
-      <c r="O26">
+      <c r="O26" t="n">
         <v>3032</v>
       </c>
-      <c r="P26">
+      <c r="P26" t="n">
         <v>3064</v>
       </c>
-      <c r="Q26">
+      <c r="Q26" t="n">
         <v>3096</v>
       </c>
-      <c r="R26">
+      <c r="R26" t="n">
         <v>3129</v>
       </c>
-      <c r="S26">
+      <c r="S26" t="n">
         <v>3161</v>
       </c>
-      <c r="T26">
+      <c r="T26" t="n">
         <v>3192</v>
       </c>
-      <c r="U26">
+      <c r="U26" t="n">
         <v>3224</v>
       </c>
-      <c r="V26">
+      <c r="V26" t="n">
         <v>3256</v>
       </c>
-      <c r="W26">
+      <c r="W26" t="n">
         <v>3288</v>
       </c>
-      <c r="X26">
+      <c r="X26" t="n">
         <v>3318</v>
       </c>
-      <c r="Y26">
+      <c r="Y26" t="n">
         <v>3349</v>
       </c>
-      <c r="Z26">
+      <c r="Z26" t="n">
         <v>3379</v>
       </c>
-      <c r="AA26">
+      <c r="AA26" t="n">
         <v>3410</v>
       </c>
-      <c r="AB26">
+      <c r="AB26" t="n">
         <v>3440</v>
       </c>
-      <c r="AC26">
+      <c r="AC26" t="n">
         <v>3468</v>
       </c>
-      <c r="AD26">
+      <c r="AD26" t="n">
         <v>3495</v>
       </c>
-      <c r="AE26">
+      <c r="AE26" t="n">
         <v>3523</v>
       </c>
-      <c r="AF26">
+      <c r="AF26" t="n">
         <v>3550</v>
       </c>
-      <c r="AG26">
+      <c r="AG26" t="n">
         <v>3578</v>
       </c>
-      <c r="AH26">
+      <c r="AH26" t="n">
         <v>3599</v>
       </c>
-      <c r="AI26">
+      <c r="AI26" t="n">
         <v>3621</v>
       </c>
-      <c r="AJ26">
+      <c r="AJ26" t="n">
         <v>3643</v>
       </c>
-      <c r="AK26">
+      <c r="AK26" t="n">
         <v>3664</v>
       </c>
-      <c r="AL26">
+      <c r="AL26" t="n">
         <v>3686</v>
       </c>
     </row>
-    <row r="27" spans="1:38">
-      <c r="A27" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27">
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>Uttarakhand</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
         <v>48627.67</v>
       </c>
-      <c r="C27">
+      <c r="C27" t="n">
         <v>48154.921</v>
       </c>
-      <c r="D27">
+      <c r="D27" t="n">
         <v>46672.411</v>
       </c>
-      <c r="E27">
+      <c r="E27" t="n">
         <v>49779.552</v>
       </c>
-      <c r="F27">
+      <c r="F27" t="n">
         <v>56535.17</v>
       </c>
-      <c r="G27">
+      <c r="G27" t="n">
         <v>60273.743</v>
       </c>
-      <c r="H27">
+      <c r="H27" t="n">
         <v>73754.573</v>
       </c>
-      <c r="I27">
+      <c r="I27" t="n">
         <v>88341.52100000001</v>
       </c>
-      <c r="J27">
+      <c r="J27" t="n">
         <v>110862.512</v>
       </c>
-      <c r="K27">
+      <c r="K27" t="n">
         <v>132061.653</v>
       </c>
-      <c r="L27">
+      <c r="L27" t="n">
         <v>166197.921</v>
       </c>
-      <c r="M27">
+      <c r="M27" t="n">
         <v>10086</v>
       </c>
-      <c r="N27">
+      <c r="N27" t="n">
         <v>10220</v>
       </c>
-      <c r="O27">
+      <c r="O27" t="n">
         <v>10354</v>
       </c>
-      <c r="P27">
+      <c r="P27" t="n">
         <v>10487</v>
       </c>
-      <c r="Q27">
+      <c r="Q27" t="n">
         <v>10621</v>
       </c>
-      <c r="R27">
+      <c r="R27" t="n">
         <v>10755</v>
       </c>
-      <c r="S27">
+      <c r="S27" t="n">
         <v>10884</v>
       </c>
-      <c r="T27">
+      <c r="T27" t="n">
         <v>11013</v>
       </c>
-      <c r="U27">
+      <c r="U27" t="n">
         <v>11141</v>
       </c>
-      <c r="V27">
+      <c r="V27" t="n">
         <v>11270</v>
       </c>
-      <c r="W27">
+      <c r="W27" t="n">
         <v>11399</v>
       </c>
-      <c r="X27">
+      <c r="X27" t="n">
         <v>11518</v>
       </c>
-      <c r="Y27">
+      <c r="Y27" t="n">
         <v>11637</v>
       </c>
-      <c r="Z27">
+      <c r="Z27" t="n">
         <v>11755</v>
       </c>
-      <c r="AA27">
+      <c r="AA27" t="n">
         <v>11874</v>
       </c>
-      <c r="AB27">
+      <c r="AB27" t="n">
         <v>11993</v>
       </c>
-      <c r="AC27">
+      <c r="AC27" t="n">
         <v>12099</v>
       </c>
-      <c r="AD27">
+      <c r="AD27" t="n">
         <v>12205</v>
       </c>
-      <c r="AE27">
+      <c r="AE27" t="n">
         <v>12312</v>
       </c>
-      <c r="AF27">
+      <c r="AF27" t="n">
         <v>12418</v>
       </c>
-      <c r="AG27">
+      <c r="AG27" t="n">
         <v>12524</v>
       </c>
-      <c r="AH27">
+      <c r="AH27" t="n">
         <v>12614</v>
       </c>
-      <c r="AI27">
+      <c r="AI27" t="n">
         <v>12704</v>
       </c>
-      <c r="AJ27">
+      <c r="AJ27" t="n">
         <v>12794</v>
       </c>
-      <c r="AK27">
+      <c r="AK27" t="n">
         <v>12884</v>
       </c>
-      <c r="AL27">
+      <c r="AL27" t="n">
         <v>12974</v>
       </c>
     </row>
-    <row r="28" spans="1:38">
-      <c r="A28" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28">
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Chandigarh</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
         <v>21.967</v>
       </c>
-      <c r="C28">
+      <c r="C28" t="n">
         <v>18.437</v>
       </c>
-      <c r="D28">
+      <c r="D28" t="n">
         <v>18.133</v>
       </c>
-      <c r="E28">
+      <c r="E28" t="n">
         <v>19.783</v>
       </c>
-      <c r="F28">
+      <c r="F28" t="n">
         <v>22.574</v>
       </c>
-      <c r="G28">
+      <c r="G28" t="n">
         <v>24.261</v>
       </c>
-      <c r="H28">
+      <c r="H28" t="n">
         <v>119.881</v>
       </c>
-      <c r="I28">
+      <c r="I28" t="n">
         <v>257.251</v>
       </c>
-      <c r="J28">
+      <c r="J28" t="n">
         <v>451.61</v>
       </c>
-      <c r="K28">
+      <c r="K28" t="n">
         <v>642.015</v>
       </c>
-      <c r="L28">
+      <c r="L28" t="n">
         <v>900.635</v>
       </c>
-      <c r="M28">
+      <c r="M28" t="n">
         <v>1055</v>
       </c>
-      <c r="N28">
+      <c r="N28" t="n">
         <v>1072</v>
       </c>
-      <c r="O28">
+      <c r="O28" t="n">
         <v>1088</v>
       </c>
-      <c r="P28">
+      <c r="P28" t="n">
         <v>1104</v>
       </c>
-      <c r="Q28">
+      <c r="Q28" t="n">
         <v>1120</v>
       </c>
-      <c r="R28">
+      <c r="R28" t="n">
         <v>1136</v>
       </c>
-      <c r="S28">
+      <c r="S28" t="n">
         <v>1151</v>
       </c>
-      <c r="T28">
+      <c r="T28" t="n">
         <v>1165</v>
       </c>
-      <c r="U28">
+      <c r="U28" t="n">
         <v>1179</v>
       </c>
-      <c r="V28">
+      <c r="V28" t="n">
         <v>1193</v>
       </c>
-      <c r="W28">
+      <c r="W28" t="n">
         <v>1208</v>
       </c>
-      <c r="X28">
+      <c r="X28" t="n">
         <v>1219</v>
       </c>
-      <c r="Y28">
+      <c r="Y28" t="n">
         <v>1231</v>
       </c>
-      <c r="Z28">
+      <c r="Z28" t="n">
         <v>1243</v>
       </c>
-      <c r="AA28">
+      <c r="AA28" t="n">
         <v>1255</v>
       </c>
-      <c r="AB28">
+      <c r="AB28" t="n">
         <v>1267</v>
       </c>
-      <c r="AC28">
+      <c r="AC28" t="n">
         <v>1277</v>
       </c>
-      <c r="AD28">
+      <c r="AD28" t="n">
         <v>1287</v>
       </c>
-      <c r="AE28">
+      <c r="AE28" t="n">
         <v>1298</v>
       </c>
-      <c r="AF28">
+      <c r="AF28" t="n">
         <v>1308</v>
       </c>
-      <c r="AG28">
+      <c r="AG28" t="n">
         <v>1318</v>
       </c>
-      <c r="AH28">
+      <c r="AH28" t="n">
         <v>1326</v>
       </c>
-      <c r="AI28">
+      <c r="AI28" t="n">
         <v>1335</v>
       </c>
-      <c r="AJ28">
+      <c r="AJ28" t="n">
         <v>1343</v>
       </c>
-      <c r="AK28">
+      <c r="AK28" t="n">
         <v>1351</v>
       </c>
-      <c r="AL28">
+      <c r="AL28" t="n">
         <v>1360</v>
       </c>
     </row>
-    <row r="29" spans="1:38">
-      <c r="A29" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29">
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>Dadra and Nagar Haveli</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
         <v>24.28</v>
       </c>
-      <c r="C29">
+      <c r="C29" t="n">
         <v>29.02</v>
       </c>
-      <c r="D29">
+      <c r="D29" t="n">
         <v>31.048</v>
       </c>
-      <c r="E29">
+      <c r="E29" t="n">
         <v>38.26</v>
       </c>
-      <c r="F29">
+      <c r="F29" t="n">
         <v>40.441</v>
       </c>
-      <c r="G29">
+      <c r="G29" t="n">
         <v>41.532</v>
       </c>
-      <c r="H29">
+      <c r="H29" t="n">
         <v>57.963</v>
       </c>
-      <c r="I29">
+      <c r="I29" t="n">
         <v>74.17</v>
       </c>
-      <c r="J29">
+      <c r="J29" t="n">
         <v>103.676</v>
       </c>
-      <c r="K29">
+      <c r="K29" t="n">
         <v>138.477</v>
       </c>
-      <c r="L29">
+      <c r="L29" t="n">
         <v>220.49</v>
       </c>
-      <c r="M29">
+      <c r="M29" t="n">
         <v>344</v>
       </c>
-      <c r="N29">
+      <c r="N29" t="n">
         <v>365</v>
       </c>
-      <c r="O29">
+      <c r="O29" t="n">
         <v>387</v>
       </c>
-      <c r="P29">
+      <c r="P29" t="n">
         <v>409</v>
       </c>
-      <c r="Q29">
+      <c r="Q29" t="n">
         <v>431</v>
       </c>
-      <c r="R29">
+      <c r="R29" t="n">
         <v>452</v>
       </c>
-      <c r="S29">
+      <c r="S29" t="n">
         <v>483</v>
       </c>
-      <c r="T29">
+      <c r="T29" t="n">
         <v>515</v>
       </c>
-      <c r="U29">
+      <c r="U29" t="n">
         <v>546</v>
       </c>
-      <c r="V29">
+      <c r="V29" t="n">
         <v>577</v>
       </c>
-      <c r="W29">
+      <c r="W29" t="n">
         <v>608</v>
       </c>
-      <c r="X29">
+      <c r="X29" t="n">
         <v>654</v>
       </c>
-      <c r="Y29">
+      <c r="Y29" t="n">
         <v>699</v>
       </c>
-      <c r="Z29">
+      <c r="Z29" t="n">
         <v>745</v>
       </c>
-      <c r="AA29">
+      <c r="AA29" t="n">
         <v>790</v>
       </c>
-      <c r="AB29">
+      <c r="AB29" t="n">
         <v>836</v>
       </c>
-      <c r="AC29">
+      <c r="AC29" t="n">
         <v>904</v>
       </c>
-      <c r="AD29">
+      <c r="AD29" t="n">
         <v>973</v>
       </c>
-      <c r="AE29">
+      <c r="AE29" t="n">
         <v>1041</v>
       </c>
-      <c r="AF29">
+      <c r="AF29" t="n">
         <v>1109</v>
       </c>
-      <c r="AG29">
+      <c r="AG29" t="n">
         <v>1178</v>
       </c>
-      <c r="AH29">
+      <c r="AH29" t="n">
         <v>1283</v>
       </c>
-      <c r="AI29">
+      <c r="AI29" t="n">
         <v>1388</v>
       </c>
-      <c r="AJ29">
+      <c r="AJ29" t="n">
         <v>1493</v>
       </c>
-      <c r="AK29">
+      <c r="AK29" t="n">
         <v>1598</v>
       </c>
-      <c r="AL29">
+      <c r="AL29" t="n">
         <v>1703</v>
       </c>
     </row>
-    <row r="30" spans="1:38">
-      <c r="A30" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30">
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>Delhi</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
         <v>405.819</v>
       </c>
-      <c r="C30">
+      <c r="C30" t="n">
         <v>413.851</v>
       </c>
-      <c r="D30">
+      <c r="D30" t="n">
         <v>488.452</v>
       </c>
-      <c r="E30">
+      <c r="E30" t="n">
         <v>636.246</v>
       </c>
-      <c r="F30">
+      <c r="F30" t="n">
         <v>917.939</v>
       </c>
-      <c r="G30">
+      <c r="G30" t="n">
         <v>1744.072</v>
       </c>
-      <c r="H30">
+      <c r="H30" t="n">
         <v>2658.612</v>
       </c>
-      <c r="I30">
+      <c r="I30" t="n">
         <v>4065.698</v>
       </c>
-      <c r="J30">
+      <c r="J30" t="n">
         <v>6220.406</v>
       </c>
-      <c r="K30">
+      <c r="K30" t="n">
         <v>9420.644</v>
       </c>
-      <c r="L30">
+      <c r="L30" t="n">
         <v>13850.507</v>
       </c>
-      <c r="M30">
+      <c r="M30" t="n">
         <v>16788</v>
       </c>
-      <c r="N30">
+      <c r="N30" t="n">
         <v>17166</v>
       </c>
-      <c r="O30">
+      <c r="O30" t="n">
         <v>17544</v>
       </c>
-      <c r="P30">
+      <c r="P30" t="n">
         <v>17921</v>
       </c>
-      <c r="Q30">
+      <c r="Q30" t="n">
         <v>18299</v>
       </c>
-      <c r="R30">
+      <c r="R30" t="n">
         <v>18677</v>
       </c>
-      <c r="S30">
+      <c r="S30" t="n">
         <v>19056</v>
       </c>
-      <c r="T30">
+      <c r="T30" t="n">
         <v>19435</v>
       </c>
-      <c r="U30">
+      <c r="U30" t="n">
         <v>19814</v>
       </c>
-      <c r="V30">
+      <c r="V30" t="n">
         <v>20193</v>
       </c>
-      <c r="W30">
+      <c r="W30" t="n">
         <v>20571</v>
       </c>
-      <c r="X30">
+      <c r="X30" t="n">
         <v>20965</v>
       </c>
-      <c r="Y30">
+      <c r="Y30" t="n">
         <v>21359</v>
       </c>
-      <c r="Z30">
+      <c r="Z30" t="n">
         <v>21752</v>
       </c>
-      <c r="AA30">
+      <c r="AA30" t="n">
         <v>22146</v>
       </c>
-      <c r="AB30">
+      <c r="AB30" t="n">
         <v>22540</v>
       </c>
-      <c r="AC30">
+      <c r="AC30" t="n">
         <v>22942</v>
       </c>
-      <c r="AD30">
+      <c r="AD30" t="n">
         <v>23345</v>
       </c>
-      <c r="AE30">
+      <c r="AE30" t="n">
         <v>23747</v>
       </c>
-      <c r="AF30">
+      <c r="AF30" t="n">
         <v>24150</v>
       </c>
-      <c r="AG30">
+      <c r="AG30" t="n">
         <v>24552</v>
       </c>
-      <c r="AH30">
+      <c r="AH30" t="n">
         <v>24960</v>
       </c>
-      <c r="AI30">
+      <c r="AI30" t="n">
         <v>25368</v>
       </c>
-      <c r="AJ30">
+      <c r="AJ30" t="n">
         <v>25775</v>
       </c>
-      <c r="AK30">
+      <c r="AK30" t="n">
         <v>26183</v>
       </c>
-      <c r="AL30">
+      <c r="AL30" t="n">
         <v>26591</v>
       </c>
     </row>
-    <row r="31" spans="1:38">
-      <c r="A31" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K31">
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>Uttar Pradesh</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="n">
         <v>7050.634</v>
       </c>
-      <c r="L31">
+      <c r="L31" t="n">
         <v>8489.349</v>
       </c>
-      <c r="M31">
+      <c r="M31" t="n">
         <v>199812</v>
       </c>
-      <c r="N31">
+      <c r="N31" t="n">
         <v>203067</v>
       </c>
-      <c r="O31">
+      <c r="O31" t="n">
         <v>206322</v>
       </c>
-      <c r="P31">
+      <c r="P31" t="n">
         <v>209577</v>
       </c>
-      <c r="Q31">
+      <c r="Q31" t="n">
         <v>212832</v>
       </c>
-      <c r="R31">
+      <c r="R31" t="n">
         <v>216087</v>
       </c>
-      <c r="S31">
+      <c r="S31" t="n">
         <v>219051</v>
       </c>
-      <c r="T31">
+      <c r="T31" t="n">
         <v>222015</v>
       </c>
-      <c r="U31">
+      <c r="U31" t="n">
         <v>224979</v>
       </c>
-      <c r="V31">
+      <c r="V31" t="n">
         <v>227943</v>
       </c>
-      <c r="W31">
+      <c r="W31" t="n">
         <v>230907</v>
       </c>
-      <c r="X31">
+      <c r="X31" t="n">
         <v>233297</v>
       </c>
-      <c r="Y31">
+      <c r="Y31" t="n">
         <v>235687</v>
       </c>
-      <c r="Z31">
+      <c r="Z31" t="n">
         <v>238078</v>
       </c>
-      <c r="AA31">
+      <c r="AA31" t="n">
         <v>240468</v>
       </c>
-      <c r="AB31">
+      <c r="AB31" t="n">
         <v>242859</v>
       </c>
-      <c r="AC31">
+      <c r="AC31" t="n">
         <v>244680</v>
       </c>
-      <c r="AD31">
+      <c r="AD31" t="n">
         <v>246500</v>
       </c>
-      <c r="AE31">
+      <c r="AE31" t="n">
         <v>248321</v>
       </c>
-      <c r="AF31">
+      <c r="AF31" t="n">
         <v>250142</v>
       </c>
-      <c r="AG31">
+      <c r="AG31" t="n">
         <v>251963</v>
       </c>
-      <c r="AH31">
+      <c r="AH31" t="n">
         <v>253369</v>
       </c>
-      <c r="AI31">
+      <c r="AI31" t="n">
         <v>254774</v>
       </c>
-      <c r="AJ31">
+      <c r="AJ31" t="n">
         <v>256179</v>
       </c>
-      <c r="AK31">
+      <c r="AK31" t="n">
         <v>257585</v>
       </c>
-      <c r="AL31">
+      <c r="AL31" t="n">
         <v>258990</v>
       </c>
     </row>
-    <row r="32" spans="1:38">
-      <c r="A32" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32">
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Rajasthan</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
         <v>10294.09</v>
       </c>
-      <c r="C32">
+      <c r="C32" t="n">
         <v>10983.509</v>
       </c>
-      <c r="D32">
+      <c r="D32" t="n">
         <v>10292.648</v>
       </c>
-      <c r="E32">
+      <c r="E32" t="n">
         <v>11747.974</v>
       </c>
-      <c r="F32">
+      <c r="F32" t="n">
         <v>13863.859</v>
       </c>
-      <c r="G32">
+      <c r="G32" t="n">
         <v>15970.774</v>
       </c>
-      <c r="H32">
+      <c r="H32" t="n">
         <v>20155.602</v>
       </c>
-      <c r="I32">
+      <c r="I32" t="n">
         <v>25765.806</v>
       </c>
-      <c r="J32">
+      <c r="J32" t="n">
         <v>34261.862</v>
       </c>
-      <c r="K32">
+      <c r="K32" t="n">
         <v>44005.99</v>
       </c>
-      <c r="L32">
+      <c r="L32" t="n">
         <v>56507.188</v>
       </c>
-      <c r="M32">
+      <c r="M32" t="n">
         <v>68548</v>
       </c>
-      <c r="N32">
+      <c r="N32" t="n">
         <v>69687</v>
       </c>
-      <c r="O32">
+      <c r="O32" t="n">
         <v>70825</v>
       </c>
-      <c r="P32">
+      <c r="P32" t="n">
         <v>71963</v>
       </c>
-      <c r="Q32">
+      <c r="Q32" t="n">
         <v>73102</v>
       </c>
-      <c r="R32">
+      <c r="R32" t="n">
         <v>74240</v>
       </c>
-      <c r="S32">
+      <c r="S32" t="n">
         <v>75248</v>
       </c>
-      <c r="T32">
+      <c r="T32" t="n">
         <v>76256</v>
       </c>
-      <c r="U32">
+      <c r="U32" t="n">
         <v>77264</v>
       </c>
-      <c r="V32">
+      <c r="V32" t="n">
         <v>78273</v>
       </c>
-      <c r="W32">
+      <c r="W32" t="n">
         <v>79281</v>
       </c>
-      <c r="X32">
+      <c r="X32" t="n">
         <v>80153</v>
       </c>
-      <c r="Y32">
+      <c r="Y32" t="n">
         <v>81025</v>
       </c>
-      <c r="Z32">
+      <c r="Z32" t="n">
         <v>81897</v>
       </c>
-      <c r="AA32">
+      <c r="AA32" t="n">
         <v>82770</v>
       </c>
-      <c r="AB32">
+      <c r="AB32" t="n">
         <v>83642</v>
       </c>
-      <c r="AC32">
+      <c r="AC32" t="n">
         <v>84353</v>
       </c>
-      <c r="AD32">
+      <c r="AD32" t="n">
         <v>85064</v>
       </c>
-      <c r="AE32">
+      <c r="AE32" t="n">
         <v>85775</v>
       </c>
-      <c r="AF32">
+      <c r="AF32" t="n">
         <v>86487</v>
       </c>
-      <c r="AG32">
+      <c r="AG32" t="n">
         <v>87198</v>
       </c>
-      <c r="AH32">
+      <c r="AH32" t="n">
         <v>87871</v>
       </c>
-      <c r="AI32">
+      <c r="AI32" t="n">
         <v>88544</v>
       </c>
-      <c r="AJ32">
+      <c r="AJ32" t="n">
         <v>89217</v>
       </c>
-      <c r="AK32">
+      <c r="AK32" t="n">
         <v>89890</v>
       </c>
-      <c r="AL32">
+      <c r="AL32" t="n">
         <v>90563</v>
       </c>
     </row>
-    <row r="33" spans="1:38">
-      <c r="A33" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33">
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>Nagaland</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
         <v>101.55</v>
       </c>
-      <c r="C33">
+      <c r="C33" t="n">
         <v>149.038</v>
       </c>
-      <c r="D33">
+      <c r="D33" t="n">
         <v>158.801</v>
       </c>
-      <c r="E33">
+      <c r="E33" t="n">
         <v>178.844</v>
       </c>
-      <c r="F33">
+      <c r="F33" t="n">
         <v>189.641</v>
       </c>
-      <c r="G33">
+      <c r="G33" t="n">
         <v>212.975</v>
       </c>
-      <c r="H33">
+      <c r="H33" t="n">
         <v>369.2</v>
       </c>
-      <c r="I33">
+      <c r="I33" t="n">
         <v>516.449</v>
       </c>
-      <c r="J33">
+      <c r="J33" t="n">
         <v>774.9300000000001</v>
       </c>
-      <c r="K33">
+      <c r="K33" t="n">
         <v>1209.546</v>
       </c>
-      <c r="L33">
+      <c r="L33" t="n">
         <v>1990.036</v>
       </c>
-      <c r="M33">
+      <c r="M33" t="n">
         <v>1979</v>
       </c>
-      <c r="N33">
+      <c r="N33" t="n">
         <v>2000</v>
       </c>
-      <c r="O33">
+      <c r="O33" t="n">
         <v>2022</v>
       </c>
-      <c r="P33">
+      <c r="P33" t="n">
         <v>2043</v>
       </c>
-      <c r="Q33">
+      <c r="Q33" t="n">
         <v>2065</v>
       </c>
-      <c r="R33">
+      <c r="R33" t="n">
         <v>2086</v>
       </c>
-      <c r="S33">
+      <c r="S33" t="n">
         <v>2108</v>
       </c>
-      <c r="T33">
+      <c r="T33" t="n">
         <v>2129</v>
       </c>
-      <c r="U33">
+      <c r="U33" t="n">
         <v>2150</v>
       </c>
-      <c r="V33">
+      <c r="V33" t="n">
         <v>2171</v>
       </c>
-      <c r="W33">
+      <c r="W33" t="n">
         <v>2192</v>
       </c>
-      <c r="X33">
+      <c r="X33" t="n">
         <v>2213</v>
       </c>
-      <c r="Y33">
+      <c r="Y33" t="n">
         <v>2233</v>
       </c>
-      <c r="Z33">
+      <c r="Z33" t="n">
         <v>2253</v>
       </c>
-      <c r="AA33">
+      <c r="AA33" t="n">
         <v>2274</v>
       </c>
-      <c r="AB33">
+      <c r="AB33" t="n">
         <v>2294</v>
       </c>
-      <c r="AC33">
+      <c r="AC33" t="n">
         <v>2312</v>
       </c>
-      <c r="AD33">
+      <c r="AD33" t="n">
         <v>2331</v>
       </c>
-      <c r="AE33">
+      <c r="AE33" t="n">
         <v>2349</v>
       </c>
-      <c r="AF33">
+      <c r="AF33" t="n">
         <v>2367</v>
       </c>
-      <c r="AG33">
+      <c r="AG33" t="n">
         <v>2386</v>
       </c>
-      <c r="AH33">
+      <c r="AH33" t="n">
         <v>2400</v>
       </c>
-      <c r="AI33">
+      <c r="AI33" t="n">
         <v>2415</v>
       </c>
-      <c r="AJ33">
+      <c r="AJ33" t="n">
         <v>2429</v>
       </c>
-      <c r="AK33">
+      <c r="AK33" t="n">
         <v>2444</v>
       </c>
-      <c r="AL33">
+      <c r="AL33" t="n">
         <v>2458</v>
       </c>
     </row>
-    <row r="34" spans="1:38">
-      <c r="A34" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H34">
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>Arunachal Pradesh</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="n">
         <v>336.558</v>
       </c>
-      <c r="I34">
+      <c r="I34" t="n">
         <v>467.511</v>
       </c>
-      <c r="J34">
+      <c r="J34" t="n">
         <v>631.8390000000001</v>
       </c>
-      <c r="K34">
+      <c r="K34" t="n">
         <v>864.558</v>
       </c>
-      <c r="L34">
+      <c r="L34" t="n">
         <v>1097.968</v>
       </c>
-      <c r="M34">
+      <c r="M34" t="n">
         <v>1384</v>
       </c>
-      <c r="N34">
+      <c r="N34" t="n">
         <v>1399</v>
       </c>
-      <c r="O34">
+      <c r="O34" t="n">
         <v>1414</v>
       </c>
-      <c r="P34">
+      <c r="P34" t="n">
         <v>1429</v>
       </c>
-      <c r="Q34">
+      <c r="Q34" t="n">
         <v>1444</v>
       </c>
-      <c r="R34">
+      <c r="R34" t="n">
         <v>1459</v>
       </c>
-      <c r="S34">
+      <c r="S34" t="n">
         <v>1474</v>
       </c>
-      <c r="T34">
+      <c r="T34" t="n">
         <v>1489</v>
       </c>
-      <c r="U34">
+      <c r="U34" t="n">
         <v>1504</v>
       </c>
-      <c r="V34">
+      <c r="V34" t="n">
         <v>1519</v>
       </c>
-      <c r="W34">
+      <c r="W34" t="n">
         <v>1533</v>
       </c>
-      <c r="X34">
+      <c r="X34" t="n">
         <v>1548</v>
       </c>
-      <c r="Y34">
+      <c r="Y34" t="n">
         <v>1562</v>
       </c>
-      <c r="Z34">
+      <c r="Z34" t="n">
         <v>1576</v>
       </c>
-      <c r="AA34">
+      <c r="AA34" t="n">
         <v>1590</v>
       </c>
-      <c r="AB34">
+      <c r="AB34" t="n">
         <v>1604</v>
       </c>
-      <c r="AC34">
+      <c r="AC34" t="n">
         <v>1617</v>
       </c>
-      <c r="AD34">
+      <c r="AD34" t="n">
         <v>1630</v>
       </c>
-      <c r="AE34">
+      <c r="AE34" t="n">
         <v>1643</v>
       </c>
-      <c r="AF34">
+      <c r="AF34" t="n">
         <v>1656</v>
       </c>
-      <c r="AG34">
+      <c r="AG34" t="n">
         <v>1669</v>
       </c>
-      <c r="AH34">
+      <c r="AH34" t="n">
         <v>1679</v>
       </c>
-      <c r="AI34">
+      <c r="AI34" t="n">
         <v>1689</v>
       </c>
-      <c r="AJ34">
+      <c r="AJ34" t="n">
         <v>1699</v>
       </c>
-      <c r="AK34">
+      <c r="AK34" t="n">
         <v>1709</v>
       </c>
-      <c r="AL34">
+      <c r="AL34" t="n">
         <v>1719</v>
       </c>
     </row>
-    <row r="35" spans="1:38">
-      <c r="A35" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35">
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>Assam</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
         <v>3289.68</v>
       </c>
-      <c r="C35">
+      <c r="C35" t="n">
         <v>3848.617</v>
       </c>
-      <c r="D35">
+      <c r="D35" t="n">
         <v>4636.98</v>
       </c>
-      <c r="E35">
+      <c r="E35" t="n">
         <v>5560.371</v>
       </c>
-      <c r="F35">
+      <c r="F35" t="n">
         <v>6694.79</v>
       </c>
-      <c r="G35">
+      <c r="G35" t="n">
         <v>8028.856</v>
       </c>
-      <c r="H35">
+      <c r="H35" t="n">
         <v>10837.329</v>
       </c>
-      <c r="I35">
+      <c r="I35" t="n">
         <v>14625.152</v>
       </c>
-      <c r="J35">
+      <c r="J35" t="n">
         <v>18041.248</v>
       </c>
-      <c r="K35">
+      <c r="K35" t="n">
         <v>22414.322</v>
       </c>
-      <c r="L35">
+      <c r="L35" t="n">
         <v>26655.528</v>
       </c>
-      <c r="M35">
+      <c r="M35" t="n">
         <v>31206</v>
       </c>
-      <c r="N35">
+      <c r="N35" t="n">
         <v>31598</v>
       </c>
-      <c r="O35">
+      <c r="O35" t="n">
         <v>31991</v>
       </c>
-      <c r="P35">
+      <c r="P35" t="n">
         <v>32383</v>
       </c>
-      <c r="Q35">
+      <c r="Q35" t="n">
         <v>32776</v>
       </c>
-      <c r="R35">
+      <c r="R35" t="n">
         <v>33168</v>
       </c>
-      <c r="S35">
+      <c r="S35" t="n">
         <v>33543</v>
       </c>
-      <c r="T35">
+      <c r="T35" t="n">
         <v>33918</v>
       </c>
-      <c r="U35">
+      <c r="U35" t="n">
         <v>34293</v>
       </c>
-      <c r="V35">
+      <c r="V35" t="n">
         <v>34668</v>
       </c>
-      <c r="W35">
+      <c r="W35" t="n">
         <v>35043</v>
       </c>
-      <c r="X35">
+      <c r="X35" t="n">
         <v>35378</v>
       </c>
-      <c r="Y35">
+      <c r="Y35" t="n">
         <v>35713</v>
       </c>
-      <c r="Z35">
+      <c r="Z35" t="n">
         <v>36047</v>
       </c>
-      <c r="AA35">
+      <c r="AA35" t="n">
         <v>36382</v>
       </c>
-      <c r="AB35">
+      <c r="AB35" t="n">
         <v>36717</v>
       </c>
-      <c r="AC35">
+      <c r="AC35" t="n">
         <v>37012</v>
       </c>
-      <c r="AD35">
+      <c r="AD35" t="n">
         <v>37308</v>
       </c>
-      <c r="AE35">
+      <c r="AE35" t="n">
         <v>37604</v>
       </c>
-      <c r="AF35">
+      <c r="AF35" t="n">
         <v>37900</v>
       </c>
-      <c r="AG35">
+      <c r="AG35" t="n">
         <v>38196</v>
       </c>
-      <c r="AH35">
+      <c r="AH35" t="n">
         <v>38437</v>
       </c>
-      <c r="AI35">
+      <c r="AI35" t="n">
         <v>38677</v>
       </c>
-      <c r="AJ35">
+      <c r="AJ35" t="n">
         <v>38918</v>
       </c>
-      <c r="AK35">
+      <c r="AK35" t="n">
         <v>39158</v>
       </c>
-      <c r="AL35">
+      <c r="AL35" t="n">
         <v>39399</v>
       </c>
     </row>
-    <row r="36" spans="1:38">
-      <c r="A36" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B36">
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Puducherry</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
         <v>246.354</v>
       </c>
-      <c r="C36">
+      <c r="C36" t="n">
         <v>257.179</v>
       </c>
-      <c r="D36">
+      <c r="D36" t="n">
         <v>244.156</v>
       </c>
-      <c r="E36">
+      <c r="E36" t="n">
         <v>258.628</v>
       </c>
-      <c r="F36">
+      <c r="F36" t="n">
         <v>285.011</v>
       </c>
-      <c r="G36">
+      <c r="G36" t="n">
         <v>317.253</v>
       </c>
-      <c r="H36">
+      <c r="H36" t="n">
         <v>369.079</v>
       </c>
-      <c r="I36">
+      <c r="I36" t="n">
         <v>471.707</v>
       </c>
-      <c r="J36">
+      <c r="J36" t="n">
         <v>604.471</v>
       </c>
-      <c r="K36">
+      <c r="K36" t="n">
         <v>807.785</v>
       </c>
-      <c r="L36">
+      <c r="L36" t="n">
         <v>974.345</v>
       </c>
-      <c r="M36">
+      <c r="M36" t="n">
         <v>1248</v>
       </c>
-      <c r="N36">
+      <c r="N36" t="n">
         <v>1279</v>
       </c>
-      <c r="O36">
+      <c r="O36" t="n">
         <v>1310</v>
       </c>
-      <c r="P36">
+      <c r="P36" t="n">
         <v>1340</v>
       </c>
-      <c r="Q36">
+      <c r="Q36" t="n">
         <v>1371</v>
       </c>
-      <c r="R36">
+      <c r="R36" t="n">
         <v>1402</v>
       </c>
-      <c r="S36">
+      <c r="S36" t="n">
         <v>1436</v>
       </c>
-      <c r="T36">
+      <c r="T36" t="n">
         <v>1470</v>
       </c>
-      <c r="U36">
+      <c r="U36" t="n">
         <v>1504</v>
       </c>
-      <c r="V36">
+      <c r="V36" t="n">
         <v>1537</v>
       </c>
-      <c r="W36">
+      <c r="W36" t="n">
         <v>1571</v>
       </c>
-      <c r="X36">
+      <c r="X36" t="n">
         <v>1608</v>
       </c>
-      <c r="Y36">
+      <c r="Y36" t="n">
         <v>1646</v>
       </c>
-      <c r="Z36">
+      <c r="Z36" t="n">
         <v>1683</v>
       </c>
-      <c r="AA36">
+      <c r="AA36" t="n">
         <v>1720</v>
       </c>
-      <c r="AB36">
+      <c r="AB36" t="n">
         <v>1757</v>
       </c>
-      <c r="AC36">
+      <c r="AC36" t="n">
         <v>1798</v>
       </c>
-      <c r="AD36">
+      <c r="AD36" t="n">
         <v>1838</v>
       </c>
-      <c r="AE36">
+      <c r="AE36" t="n">
         <v>1879</v>
       </c>
-      <c r="AF36">
+      <c r="AF36" t="n">
         <v>1920</v>
       </c>
-      <c r="AG36">
+      <c r="AG36" t="n">
         <v>1961</v>
       </c>
-      <c r="AH36">
+      <c r="AH36" t="n">
         <v>2005</v>
       </c>
-      <c r="AI36">
+      <c r="AI36" t="n">
         <v>2050</v>
       </c>
-      <c r="AJ36">
+      <c r="AJ36" t="n">
         <v>2094</v>
       </c>
-      <c r="AK36">
+      <c r="AK36" t="n">
         <v>2139</v>
       </c>
-      <c r="AL36">
+      <c r="AL36" t="n">
         <v>2184</v>
       </c>
     </row>
-    <row r="37" spans="1:38">
-      <c r="A37" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B37">
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>Odisha</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
         <v>10302.917</v>
       </c>
-      <c r="C37">
+      <c r="C37" t="n">
         <v>11378.875</v>
       </c>
-      <c r="D37">
+      <c r="D37" t="n">
         <v>11158.586</v>
       </c>
-      <c r="E37">
+      <c r="E37" t="n">
         <v>12491.056</v>
       </c>
-      <c r="F37">
+      <c r="F37" t="n">
         <v>13767.988</v>
       </c>
-      <c r="G37">
+      <c r="G37" t="n">
         <v>14645.946</v>
       </c>
-      <c r="H37">
+      <c r="H37" t="n">
         <v>17548.846</v>
       </c>
-      <c r="I37">
+      <c r="I37" t="n">
         <v>21944.615</v>
       </c>
-      <c r="J37">
+      <c r="J37" t="n">
         <v>26370.271</v>
       </c>
-      <c r="K37">
+      <c r="K37" t="n">
         <v>31659.736</v>
       </c>
-      <c r="L37">
+      <c r="L37" t="n">
         <v>36804.66</v>
       </c>
-      <c r="M37">
+      <c r="M37" t="n">
         <v>41974</v>
       </c>
-      <c r="N37">
+      <c r="N37" t="n">
         <v>42205</v>
       </c>
-      <c r="O37">
+      <c r="O37" t="n">
         <v>42436</v>
       </c>
-      <c r="P37">
+      <c r="P37" t="n">
         <v>42667</v>
       </c>
-      <c r="Q37">
+      <c r="Q37" t="n">
         <v>42897</v>
       </c>
-      <c r="R37">
+      <c r="R37" t="n">
         <v>43128</v>
       </c>
-      <c r="S37">
+      <c r="S37" t="n">
         <v>43309</v>
       </c>
-      <c r="T37">
+      <c r="T37" t="n">
         <v>43490</v>
       </c>
-      <c r="U37">
+      <c r="U37" t="n">
         <v>43671</v>
       </c>
-      <c r="V37">
+      <c r="V37" t="n">
         <v>43852</v>
       </c>
-      <c r="W37">
+      <c r="W37" t="n">
         <v>44033</v>
       </c>
-      <c r="X37">
+      <c r="X37" t="n">
         <v>44162</v>
       </c>
-      <c r="Y37">
+      <c r="Y37" t="n">
         <v>44291</v>
       </c>
-      <c r="Z37">
+      <c r="Z37" t="n">
         <v>44420</v>
       </c>
-      <c r="AA37">
+      <c r="AA37" t="n">
         <v>44548</v>
       </c>
-      <c r="AB37">
+      <c r="AB37" t="n">
         <v>44677</v>
       </c>
-      <c r="AC37">
+      <c r="AC37" t="n">
         <v>44743</v>
       </c>
-      <c r="AD37">
+      <c r="AD37" t="n">
         <v>44810</v>
       </c>
-      <c r="AE37">
+      <c r="AE37" t="n">
         <v>44876</v>
       </c>
-      <c r="AF37">
+      <c r="AF37" t="n">
         <v>44942</v>
       </c>
-      <c r="AG37">
+      <c r="AG37" t="n">
         <v>45008</v>
       </c>
-      <c r="AH37">
+      <c r="AH37" t="n">
         <v>45012</v>
       </c>
-      <c r="AI37">
+      <c r="AI37" t="n">
         <v>45015</v>
       </c>
-      <c r="AJ37">
+      <c r="AJ37" t="n">
         <v>45019</v>
       </c>
-      <c r="AK37">
+      <c r="AK37" t="n">
         <v>45022</v>
       </c>
-      <c r="AL37">
+      <c r="AL37" t="n">
         <v>45025</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>